--- a/crowdfunding.xlsx
+++ b/crowdfunding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/02-Homework/01-Excel/Instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremytallant/Desktop/My_Repositories/excel-challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{11C9D2FE-BDF6-5C46-B9DE-A4DF0C4A6734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD42F1C3-D968-1843-86A6-29052F81E629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1080" windowWidth="26440" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crowdfunding" sheetId="1" r:id="rId1"/>
@@ -6123,7 +6123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -6601,7 +6601,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6612,7 +6612,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6658,7 +6657,109 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6967,17 +7068,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -7032,7 +7133,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -7076,7 +7177,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -7120,7 +7221,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -7164,7 +7265,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -7208,7 +7309,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -7252,7 +7353,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -7296,7 +7397,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -7340,7 +7441,7 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -7384,7 +7485,7 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -7428,7 +7529,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -7472,7 +7573,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -7516,7 +7617,7 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -7560,7 +7661,7 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -7604,7 +7705,7 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -7648,7 +7749,7 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -7692,7 +7793,7 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -7736,7 +7837,7 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -7780,7 +7881,7 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -7824,7 +7925,7 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -7868,7 +7969,7 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -7912,7 +8013,7 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>77</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -7956,7 +8057,7 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -8000,7 +8101,7 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -8044,7 +8145,7 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -8088,7 +8189,7 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -8132,7 +8233,7 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>87</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -8176,7 +8277,7 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>90</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -8220,7 +8321,7 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>92</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -8264,7 +8365,7 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -8308,7 +8409,7 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>96</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -8352,7 +8453,7 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>101</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -8396,7 +8497,7 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>103</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -8440,7 +8541,7 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>105</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -8484,7 +8585,7 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>109</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -8528,7 +8629,7 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>111</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -8572,7 +8673,7 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>113</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -8616,7 +8717,7 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>115</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -8660,7 +8761,7 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -8704,7 +8805,7 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>120</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -8748,7 +8849,7 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>123</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -8792,7 +8893,7 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>125</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -8836,7 +8937,7 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>127</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -8880,7 +8981,7 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>129</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -8924,7 +9025,7 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s">
         <v>131</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -8968,7 +9069,7 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
         <v>134</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -9012,7 +9113,7 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>136</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -9056,7 +9157,7 @@
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s">
         <v>138</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -9100,7 +9201,7 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s">
         <v>140</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -9144,7 +9245,7 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s">
         <v>142</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -9188,7 +9289,7 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s">
         <v>144</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -9232,7 +9333,7 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="s">
         <v>146</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -9276,7 +9377,7 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
         <v>149</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -9320,7 +9421,7 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" t="s">
         <v>151</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -9364,7 +9465,7 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" t="s">
         <v>153</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -9408,7 +9509,7 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" t="s">
         <v>155</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -9452,7 +9553,7 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>157</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -9496,7 +9597,7 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" t="s">
         <v>160</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -9540,7 +9641,7 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" t="s">
         <v>162</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -9584,7 +9685,7 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" t="s">
         <v>164</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -9628,7 +9729,7 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" t="s">
         <v>166</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -9672,7 +9773,7 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" t="s">
         <v>168</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -9716,7 +9817,7 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
         <v>170</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -9760,7 +9861,7 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" t="s">
         <v>172</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -9804,7 +9905,7 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" t="s">
         <v>174</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -9848,7 +9949,7 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" t="s">
         <v>176</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -9892,7 +9993,7 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" t="s">
         <v>178</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -9936,7 +10037,7 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" t="s">
         <v>180</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -9980,7 +10081,7 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" t="s">
         <v>182</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -10024,7 +10125,7 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" t="s">
         <v>184</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -10068,7 +10169,7 @@
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" t="s">
         <v>186</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -10112,7 +10213,7 @@
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" t="s">
         <v>188</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -10156,7 +10257,7 @@
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" t="s">
         <v>190</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -10200,7 +10301,7 @@
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" t="s">
         <v>192</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -10244,7 +10345,7 @@
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" t="s">
         <v>194</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -10288,7 +10389,7 @@
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" t="s">
         <v>196</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -10332,7 +10433,7 @@
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" t="s">
         <v>198</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -10376,7 +10477,7 @@
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" t="s">
         <v>200</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -10420,7 +10521,7 @@
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="s">
         <v>202</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -10464,7 +10565,7 @@
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" t="s">
         <v>204</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -10508,7 +10609,7 @@
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" t="s">
         <v>207</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -10552,7 +10653,7 @@
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" t="s">
         <v>209</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -10596,7 +10697,7 @@
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" t="s">
         <v>211</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -10640,7 +10741,7 @@
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" t="s">
         <v>213</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -10684,7 +10785,7 @@
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" t="s">
         <v>215</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -10728,7 +10829,7 @@
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" t="s">
         <v>217</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -10772,7 +10873,7 @@
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" t="s">
         <v>219</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -10816,7 +10917,7 @@
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" t="s">
         <v>221</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -10860,7 +10961,7 @@
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" t="s">
         <v>223</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -10904,7 +11005,7 @@
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" t="s">
         <v>225</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -10948,7 +11049,7 @@
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" t="s">
         <v>227</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -10992,7 +11093,7 @@
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" t="s">
         <v>229</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -11036,7 +11137,7 @@
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" t="s">
         <v>231</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -11080,7 +11181,7 @@
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" t="s">
         <v>233</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -11124,7 +11225,7 @@
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" t="s">
         <v>235</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -11168,7 +11269,7 @@
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" t="s">
         <v>237</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -11212,7 +11313,7 @@
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" t="s">
         <v>239</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -11256,7 +11357,7 @@
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" t="s">
         <v>241</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -11300,7 +11401,7 @@
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" t="s">
         <v>243</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -11344,7 +11445,7 @@
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" t="s">
         <v>245</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -11388,7 +11489,7 @@
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" t="s">
         <v>247</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -11432,7 +11533,7 @@
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" t="s">
         <v>249</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -11476,7 +11577,7 @@
       <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" t="s">
         <v>251</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -11520,7 +11621,7 @@
       <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" t="s">
         <v>253</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -11564,7 +11665,7 @@
       <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" t="s">
         <v>255</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -11608,7 +11709,7 @@
       <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" t="s">
         <v>257</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -11652,7 +11753,7 @@
       <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" t="s">
         <v>259</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -11696,7 +11797,7 @@
       <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" t="s">
         <v>261</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -11740,7 +11841,7 @@
       <c r="A109">
         <v>107</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" t="s">
         <v>263</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -11784,7 +11885,7 @@
       <c r="A110">
         <v>108</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" t="s">
         <v>265</v>
       </c>
       <c r="C110" s="3" t="s">
@@ -11828,7 +11929,7 @@
       <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" t="s">
         <v>267</v>
       </c>
       <c r="C111" s="3" t="s">
@@ -11872,7 +11973,7 @@
       <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" t="s">
         <v>270</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -11916,7 +12017,7 @@
       <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" t="s">
         <v>272</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -11960,7 +12061,7 @@
       <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" t="s">
         <v>274</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -12004,7 +12105,7 @@
       <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" t="s">
         <v>276</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -12048,7 +12149,7 @@
       <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" t="s">
         <v>278</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -12092,7 +12193,7 @@
       <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" t="s">
         <v>280</v>
       </c>
       <c r="C117" s="3" t="s">
@@ -12136,7 +12237,7 @@
       <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" t="s">
         <v>282</v>
       </c>
       <c r="C118" s="3" t="s">
@@ -12180,7 +12281,7 @@
       <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" t="s">
         <v>284</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -12224,7 +12325,7 @@
       <c r="A120">
         <v>118</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" t="s">
         <v>286</v>
       </c>
       <c r="C120" s="3" t="s">
@@ -12268,7 +12369,7 @@
       <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" t="s">
         <v>288</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -12312,7 +12413,7 @@
       <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" t="s">
         <v>290</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -12356,7 +12457,7 @@
       <c r="A123">
         <v>121</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" t="s">
         <v>293</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -12400,7 +12501,7 @@
       <c r="A124">
         <v>122</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" t="s">
         <v>295</v>
       </c>
       <c r="C124" s="3" t="s">
@@ -12444,7 +12545,7 @@
       <c r="A125">
         <v>123</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" t="s">
         <v>297</v>
       </c>
       <c r="C125" s="3" t="s">
@@ -12488,7 +12589,7 @@
       <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" t="s">
         <v>299</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -12532,7 +12633,7 @@
       <c r="A127">
         <v>125</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" t="s">
         <v>301</v>
       </c>
       <c r="C127" s="3" t="s">
@@ -12576,7 +12677,7 @@
       <c r="A128">
         <v>126</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" t="s">
         <v>303</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -12620,7 +12721,7 @@
       <c r="A129">
         <v>127</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" t="s">
         <v>305</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -12664,7 +12765,7 @@
       <c r="A130">
         <v>128</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" t="s">
         <v>307</v>
       </c>
       <c r="C130" s="3" t="s">
@@ -12708,7 +12809,7 @@
       <c r="A131">
         <v>129</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" t="s">
         <v>309</v>
       </c>
       <c r="C131" s="3" t="s">
@@ -12752,7 +12853,7 @@
       <c r="A132">
         <v>130</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" t="s">
         <v>311</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -12796,7 +12897,7 @@
       <c r="A133">
         <v>131</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" t="s">
         <v>313</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -12840,7 +12941,7 @@
       <c r="A134">
         <v>132</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" t="s">
         <v>315</v>
       </c>
       <c r="C134" s="3" t="s">
@@ -12884,7 +12985,7 @@
       <c r="A135">
         <v>133</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" t="s">
         <v>317</v>
       </c>
       <c r="C135" s="3" t="s">
@@ -12928,7 +13029,7 @@
       <c r="A136">
         <v>134</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" t="s">
         <v>320</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -12972,7 +13073,7 @@
       <c r="A137">
         <v>135</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" t="s">
         <v>322</v>
       </c>
       <c r="C137" s="3" t="s">
@@ -13016,7 +13117,7 @@
       <c r="A138">
         <v>136</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" t="s">
         <v>324</v>
       </c>
       <c r="C138" s="3" t="s">
@@ -13060,7 +13161,7 @@
       <c r="A139">
         <v>137</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" t="s">
         <v>326</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -13104,7 +13205,7 @@
       <c r="A140">
         <v>138</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" t="s">
         <v>328</v>
       </c>
       <c r="C140" s="3" t="s">
@@ -13148,7 +13249,7 @@
       <c r="A141">
         <v>139</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" t="s">
         <v>330</v>
       </c>
       <c r="C141" s="3" t="s">
@@ -13192,7 +13293,7 @@
       <c r="A142">
         <v>140</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" t="s">
         <v>332</v>
       </c>
       <c r="C142" s="3" t="s">
@@ -13236,7 +13337,7 @@
       <c r="A143">
         <v>141</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" t="s">
         <v>334</v>
       </c>
       <c r="C143" s="3" t="s">
@@ -13280,7 +13381,7 @@
       <c r="A144">
         <v>142</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" t="s">
         <v>336</v>
       </c>
       <c r="C144" s="3" t="s">
@@ -13324,7 +13425,7 @@
       <c r="A145">
         <v>143</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" t="s">
         <v>338</v>
       </c>
       <c r="C145" s="3" t="s">
@@ -13368,7 +13469,7 @@
       <c r="A146">
         <v>144</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" t="s">
         <v>340</v>
       </c>
       <c r="C146" s="3" t="s">
@@ -13412,7 +13513,7 @@
       <c r="A147">
         <v>145</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" t="s">
         <v>342</v>
       </c>
       <c r="C147" s="3" t="s">
@@ -13456,7 +13557,7 @@
       <c r="A148">
         <v>146</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" t="s">
         <v>344</v>
       </c>
       <c r="C148" s="3" t="s">
@@ -13500,7 +13601,7 @@
       <c r="A149">
         <v>147</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" t="s">
         <v>346</v>
       </c>
       <c r="C149" s="3" t="s">
@@ -13544,7 +13645,7 @@
       <c r="A150">
         <v>148</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" t="s">
         <v>348</v>
       </c>
       <c r="C150" s="3" t="s">
@@ -13588,7 +13689,7 @@
       <c r="A151">
         <v>149</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" t="s">
         <v>350</v>
       </c>
       <c r="C151" s="3" t="s">
@@ -13632,7 +13733,7 @@
       <c r="A152">
         <v>150</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" t="s">
         <v>352</v>
       </c>
       <c r="C152" s="3" t="s">
@@ -13676,7 +13777,7 @@
       <c r="A153">
         <v>151</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" t="s">
         <v>354</v>
       </c>
       <c r="C153" s="3" t="s">
@@ -13720,7 +13821,7 @@
       <c r="A154">
         <v>152</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" t="s">
         <v>356</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -13764,7 +13865,7 @@
       <c r="A155">
         <v>153</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" t="s">
         <v>358</v>
       </c>
       <c r="C155" s="3" t="s">
@@ -13808,7 +13909,7 @@
       <c r="A156">
         <v>154</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" t="s">
         <v>360</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -13852,7 +13953,7 @@
       <c r="A157">
         <v>155</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" t="s">
         <v>362</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -13896,7 +13997,7 @@
       <c r="A158">
         <v>156</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" t="s">
         <v>364</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -13940,7 +14041,7 @@
       <c r="A159">
         <v>157</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" t="s">
         <v>366</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -13984,7 +14085,7 @@
       <c r="A160">
         <v>158</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" t="s">
         <v>368</v>
       </c>
       <c r="C160" s="3" t="s">
@@ -14028,7 +14129,7 @@
       <c r="A161">
         <v>159</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" t="s">
         <v>370</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -14072,7 +14173,7 @@
       <c r="A162">
         <v>160</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" t="s">
         <v>372</v>
       </c>
       <c r="C162" s="3" t="s">
@@ -14116,7 +14217,7 @@
       <c r="A163">
         <v>161</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" t="s">
         <v>374</v>
       </c>
       <c r="C163" s="3" t="s">
@@ -14160,7 +14261,7 @@
       <c r="A164">
         <v>162</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" t="s">
         <v>376</v>
       </c>
       <c r="C164" s="3" t="s">
@@ -14204,7 +14305,7 @@
       <c r="A165">
         <v>163</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" t="s">
         <v>378</v>
       </c>
       <c r="C165" s="3" t="s">
@@ -14248,7 +14349,7 @@
       <c r="A166">
         <v>164</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" t="s">
         <v>380</v>
       </c>
       <c r="C166" s="3" t="s">
@@ -14292,7 +14393,7 @@
       <c r="A167">
         <v>165</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" t="s">
         <v>382</v>
       </c>
       <c r="C167" s="3" t="s">
@@ -14336,7 +14437,7 @@
       <c r="A168">
         <v>166</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" t="s">
         <v>384</v>
       </c>
       <c r="C168" s="3" t="s">
@@ -14380,7 +14481,7 @@
       <c r="A169">
         <v>167</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" t="s">
         <v>386</v>
       </c>
       <c r="C169" s="3" t="s">
@@ -14424,7 +14525,7 @@
       <c r="A170">
         <v>168</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" t="s">
         <v>388</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -14468,7 +14569,7 @@
       <c r="A171">
         <v>169</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" t="s">
         <v>390</v>
       </c>
       <c r="C171" s="3" t="s">
@@ -14512,7 +14613,7 @@
       <c r="A172">
         <v>170</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" t="s">
         <v>392</v>
       </c>
       <c r="C172" s="3" t="s">
@@ -14556,7 +14657,7 @@
       <c r="A173">
         <v>171</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" t="s">
         <v>394</v>
       </c>
       <c r="C173" s="3" t="s">
@@ -14600,7 +14701,7 @@
       <c r="A174">
         <v>172</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" t="s">
         <v>396</v>
       </c>
       <c r="C174" s="3" t="s">
@@ -14644,7 +14745,7 @@
       <c r="A175">
         <v>173</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" t="s">
         <v>398</v>
       </c>
       <c r="C175" s="3" t="s">
@@ -14688,7 +14789,7 @@
       <c r="A176">
         <v>174</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" t="s">
         <v>400</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -14732,7 +14833,7 @@
       <c r="A177">
         <v>175</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" t="s">
         <v>402</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -14776,7 +14877,7 @@
       <c r="A178">
         <v>176</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" t="s">
         <v>404</v>
       </c>
       <c r="C178" s="3" t="s">
@@ -14820,7 +14921,7 @@
       <c r="A179">
         <v>177</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" t="s">
         <v>406</v>
       </c>
       <c r="C179" s="3" t="s">
@@ -14864,7 +14965,7 @@
       <c r="A180">
         <v>178</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" t="s">
         <v>408</v>
       </c>
       <c r="C180" s="3" t="s">
@@ -14908,7 +15009,7 @@
       <c r="A181">
         <v>179</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" t="s">
         <v>410</v>
       </c>
       <c r="C181" s="3" t="s">
@@ -14952,7 +15053,7 @@
       <c r="A182">
         <v>180</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" t="s">
         <v>412</v>
       </c>
       <c r="C182" s="3" t="s">
@@ -14996,7 +15097,7 @@
       <c r="A183">
         <v>181</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" t="s">
         <v>414</v>
       </c>
       <c r="C183" s="3" t="s">
@@ -15040,7 +15141,7 @@
       <c r="A184">
         <v>182</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" t="s">
         <v>416</v>
       </c>
       <c r="C184" s="3" t="s">
@@ -15084,7 +15185,7 @@
       <c r="A185">
         <v>183</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" t="s">
         <v>418</v>
       </c>
       <c r="C185" s="3" t="s">
@@ -15128,7 +15229,7 @@
       <c r="A186">
         <v>184</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" t="s">
         <v>420</v>
       </c>
       <c r="C186" s="3" t="s">
@@ -15172,7 +15273,7 @@
       <c r="A187">
         <v>185</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" t="s">
         <v>422</v>
       </c>
       <c r="C187" s="3" t="s">
@@ -15216,7 +15317,7 @@
       <c r="A188">
         <v>186</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" t="s">
         <v>424</v>
       </c>
       <c r="C188" s="3" t="s">
@@ -15260,7 +15361,7 @@
       <c r="A189">
         <v>187</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" t="s">
         <v>426</v>
       </c>
       <c r="C189" s="3" t="s">
@@ -15304,7 +15405,7 @@
       <c r="A190">
         <v>188</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" t="s">
         <v>428</v>
       </c>
       <c r="C190" s="3" t="s">
@@ -15348,7 +15449,7 @@
       <c r="A191">
         <v>189</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" t="s">
         <v>430</v>
       </c>
       <c r="C191" s="3" t="s">
@@ -15392,7 +15493,7 @@
       <c r="A192">
         <v>190</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" t="s">
         <v>432</v>
       </c>
       <c r="C192" s="3" t="s">
@@ -15436,7 +15537,7 @@
       <c r="A193">
         <v>191</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" t="s">
         <v>434</v>
       </c>
       <c r="C193" s="3" t="s">
@@ -15480,7 +15581,7 @@
       <c r="A194">
         <v>192</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" t="s">
         <v>436</v>
       </c>
       <c r="C194" s="3" t="s">
@@ -15524,7 +15625,7 @@
       <c r="A195">
         <v>193</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" t="s">
         <v>438</v>
       </c>
       <c r="C195" s="3" t="s">
@@ -15568,7 +15669,7 @@
       <c r="A196">
         <v>194</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" t="s">
         <v>440</v>
       </c>
       <c r="C196" s="3" t="s">
@@ -15612,7 +15713,7 @@
       <c r="A197">
         <v>195</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" t="s">
         <v>442</v>
       </c>
       <c r="C197" s="3" t="s">
@@ -15656,7 +15757,7 @@
       <c r="A198">
         <v>196</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" t="s">
         <v>444</v>
       </c>
       <c r="C198" s="3" t="s">
@@ -15700,7 +15801,7 @@
       <c r="A199">
         <v>197</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" t="s">
         <v>446</v>
       </c>
       <c r="C199" s="3" t="s">
@@ -15744,7 +15845,7 @@
       <c r="A200">
         <v>198</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" t="s">
         <v>448</v>
       </c>
       <c r="C200" s="3" t="s">
@@ -15788,7 +15889,7 @@
       <c r="A201">
         <v>199</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" t="s">
         <v>450</v>
       </c>
       <c r="C201" s="3" t="s">
@@ -15832,7 +15933,7 @@
       <c r="A202">
         <v>200</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" t="s">
         <v>452</v>
       </c>
       <c r="C202" s="3" t="s">
@@ -15876,7 +15977,7 @@
       <c r="A203">
         <v>201</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" t="s">
         <v>454</v>
       </c>
       <c r="C203" s="3" t="s">
@@ -15920,7 +16021,7 @@
       <c r="A204">
         <v>202</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" t="s">
         <v>456</v>
       </c>
       <c r="C204" s="3" t="s">
@@ -15964,7 +16065,7 @@
       <c r="A205">
         <v>203</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" t="s">
         <v>458</v>
       </c>
       <c r="C205" s="3" t="s">
@@ -16008,7 +16109,7 @@
       <c r="A206">
         <v>204</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" t="s">
         <v>460</v>
       </c>
       <c r="C206" s="3" t="s">
@@ -16052,7 +16153,7 @@
       <c r="A207">
         <v>205</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" t="s">
         <v>462</v>
       </c>
       <c r="C207" s="3" t="s">
@@ -16096,7 +16197,7 @@
       <c r="A208">
         <v>206</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" t="s">
         <v>464</v>
       </c>
       <c r="C208" s="3" t="s">
@@ -16140,7 +16241,7 @@
       <c r="A209">
         <v>207</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" t="s">
         <v>466</v>
       </c>
       <c r="C209" s="3" t="s">
@@ -16184,7 +16285,7 @@
       <c r="A210">
         <v>208</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" t="s">
         <v>468</v>
       </c>
       <c r="C210" s="3" t="s">
@@ -16228,7 +16329,7 @@
       <c r="A211">
         <v>209</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" t="s">
         <v>470</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -16272,7 +16373,7 @@
       <c r="A212">
         <v>210</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" t="s">
         <v>472</v>
       </c>
       <c r="C212" s="3" t="s">
@@ -16316,7 +16417,7 @@
       <c r="A213">
         <v>211</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" t="s">
         <v>475</v>
       </c>
       <c r="C213" s="3" t="s">
@@ -16360,7 +16461,7 @@
       <c r="A214">
         <v>212</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" t="s">
         <v>477</v>
       </c>
       <c r="C214" s="3" t="s">
@@ -16404,7 +16505,7 @@
       <c r="A215">
         <v>213</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" t="s">
         <v>479</v>
       </c>
       <c r="C215" s="3" t="s">
@@ -16448,7 +16549,7 @@
       <c r="A216">
         <v>214</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" t="s">
         <v>481</v>
       </c>
       <c r="C216" s="3" t="s">
@@ -16492,7 +16593,7 @@
       <c r="A217">
         <v>215</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" t="s">
         <v>483</v>
       </c>
       <c r="C217" s="3" t="s">
@@ -16536,7 +16637,7 @@
       <c r="A218">
         <v>216</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" t="s">
         <v>485</v>
       </c>
       <c r="C218" s="3" t="s">
@@ -16580,7 +16681,7 @@
       <c r="A219">
         <v>217</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" t="s">
         <v>487</v>
       </c>
       <c r="C219" s="3" t="s">
@@ -16624,7 +16725,7 @@
       <c r="A220">
         <v>218</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" t="s">
         <v>489</v>
       </c>
       <c r="C220" s="3" t="s">
@@ -16668,7 +16769,7 @@
       <c r="A221">
         <v>219</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" t="s">
         <v>491</v>
       </c>
       <c r="C221" s="3" t="s">
@@ -16712,7 +16813,7 @@
       <c r="A222">
         <v>220</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" t="s">
         <v>493</v>
       </c>
       <c r="C222" s="3" t="s">
@@ -16756,7 +16857,7 @@
       <c r="A223">
         <v>221</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" t="s">
         <v>495</v>
       </c>
       <c r="C223" s="3" t="s">
@@ -16800,7 +16901,7 @@
       <c r="A224">
         <v>222</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" t="s">
         <v>497</v>
       </c>
       <c r="C224" s="3" t="s">
@@ -16844,7 +16945,7 @@
       <c r="A225">
         <v>223</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" t="s">
         <v>499</v>
       </c>
       <c r="C225" s="3" t="s">
@@ -16888,7 +16989,7 @@
       <c r="A226">
         <v>224</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" t="s">
         <v>501</v>
       </c>
       <c r="C226" s="3" t="s">
@@ -16932,7 +17033,7 @@
       <c r="A227">
         <v>225</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" t="s">
         <v>503</v>
       </c>
       <c r="C227" s="3" t="s">
@@ -16976,7 +17077,7 @@
       <c r="A228">
         <v>226</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" t="s">
         <v>253</v>
       </c>
       <c r="C228" s="3" t="s">
@@ -17020,7 +17121,7 @@
       <c r="A229">
         <v>227</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" t="s">
         <v>506</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -17064,7 +17165,7 @@
       <c r="A230">
         <v>228</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" t="s">
         <v>508</v>
       </c>
       <c r="C230" s="3" t="s">
@@ -17108,7 +17209,7 @@
       <c r="A231">
         <v>229</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" t="s">
         <v>510</v>
       </c>
       <c r="C231" s="3" t="s">
@@ -17152,7 +17253,7 @@
       <c r="A232">
         <v>230</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" t="s">
         <v>512</v>
       </c>
       <c r="C232" s="3" t="s">
@@ -17196,7 +17297,7 @@
       <c r="A233">
         <v>231</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" t="s">
         <v>514</v>
       </c>
       <c r="C233" s="3" t="s">
@@ -17240,7 +17341,7 @@
       <c r="A234">
         <v>232</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" t="s">
         <v>516</v>
       </c>
       <c r="C234" s="3" t="s">
@@ -17284,7 +17385,7 @@
       <c r="A235">
         <v>233</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" t="s">
         <v>518</v>
       </c>
       <c r="C235" s="3" t="s">
@@ -17328,7 +17429,7 @@
       <c r="A236">
         <v>234</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" t="s">
         <v>520</v>
       </c>
       <c r="C236" s="3" t="s">
@@ -17372,7 +17473,7 @@
       <c r="A237">
         <v>235</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" t="s">
         <v>522</v>
       </c>
       <c r="C237" s="3" t="s">
@@ -17416,7 +17517,7 @@
       <c r="A238">
         <v>236</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" t="s">
         <v>524</v>
       </c>
       <c r="C238" s="3" t="s">
@@ -17460,7 +17561,7 @@
       <c r="A239">
         <v>237</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" t="s">
         <v>526</v>
       </c>
       <c r="C239" s="3" t="s">
@@ -17504,7 +17605,7 @@
       <c r="A240">
         <v>238</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" t="s">
         <v>528</v>
       </c>
       <c r="C240" s="3" t="s">
@@ -17548,7 +17649,7 @@
       <c r="A241">
         <v>239</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" t="s">
         <v>530</v>
       </c>
       <c r="C241" s="3" t="s">
@@ -17592,7 +17693,7 @@
       <c r="A242">
         <v>240</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" t="s">
         <v>532</v>
       </c>
       <c r="C242" s="3" t="s">
@@ -17636,7 +17737,7 @@
       <c r="A243">
         <v>241</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" t="s">
         <v>534</v>
       </c>
       <c r="C243" s="3" t="s">
@@ -17680,7 +17781,7 @@
       <c r="A244">
         <v>242</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" t="s">
         <v>536</v>
       </c>
       <c r="C244" s="3" t="s">
@@ -17724,7 +17825,7 @@
       <c r="A245">
         <v>243</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" t="s">
         <v>538</v>
       </c>
       <c r="C245" s="3" t="s">
@@ -17768,7 +17869,7 @@
       <c r="A246">
         <v>244</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" t="s">
         <v>540</v>
       </c>
       <c r="C246" s="3" t="s">
@@ -17812,7 +17913,7 @@
       <c r="A247">
         <v>245</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" t="s">
         <v>542</v>
       </c>
       <c r="C247" s="3" t="s">
@@ -17856,7 +17957,7 @@
       <c r="A248">
         <v>246</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" t="s">
         <v>544</v>
       </c>
       <c r="C248" s="3" t="s">
@@ -17900,7 +18001,7 @@
       <c r="A249">
         <v>247</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" t="s">
         <v>546</v>
       </c>
       <c r="C249" s="3" t="s">
@@ -17944,7 +18045,7 @@
       <c r="A250">
         <v>248</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" t="s">
         <v>548</v>
       </c>
       <c r="C250" s="3" t="s">
@@ -17988,7 +18089,7 @@
       <c r="A251">
         <v>249</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" t="s">
         <v>550</v>
       </c>
       <c r="C251" s="3" t="s">
@@ -18032,7 +18133,7 @@
       <c r="A252">
         <v>250</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" t="s">
         <v>552</v>
       </c>
       <c r="C252" s="3" t="s">
@@ -18076,7 +18177,7 @@
       <c r="A253">
         <v>251</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" t="s">
         <v>554</v>
       </c>
       <c r="C253" s="3" t="s">
@@ -18120,7 +18221,7 @@
       <c r="A254">
         <v>252</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" t="s">
         <v>556</v>
       </c>
       <c r="C254" s="3" t="s">
@@ -18164,7 +18265,7 @@
       <c r="A255">
         <v>253</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" t="s">
         <v>558</v>
       </c>
       <c r="C255" s="3" t="s">
@@ -18208,7 +18309,7 @@
       <c r="A256">
         <v>254</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" t="s">
         <v>560</v>
       </c>
       <c r="C256" s="3" t="s">
@@ -18252,7 +18353,7 @@
       <c r="A257">
         <v>255</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" t="s">
         <v>562</v>
       </c>
       <c r="C257" s="3" t="s">
@@ -18296,7 +18397,7 @@
       <c r="A258">
         <v>256</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" t="s">
         <v>564</v>
       </c>
       <c r="C258" s="3" t="s">
@@ -18340,7 +18441,7 @@
       <c r="A259">
         <v>257</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" t="s">
         <v>566</v>
       </c>
       <c r="C259" s="3" t="s">
@@ -18384,7 +18485,7 @@
       <c r="A260">
         <v>258</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" t="s">
         <v>568</v>
       </c>
       <c r="C260" s="3" t="s">
@@ -18428,7 +18529,7 @@
       <c r="A261">
         <v>259</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" t="s">
         <v>570</v>
       </c>
       <c r="C261" s="3" t="s">
@@ -18472,7 +18573,7 @@
       <c r="A262">
         <v>260</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" t="s">
         <v>572</v>
       </c>
       <c r="C262" s="3" t="s">
@@ -18516,7 +18617,7 @@
       <c r="A263">
         <v>261</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" t="s">
         <v>574</v>
       </c>
       <c r="C263" s="3" t="s">
@@ -18560,7 +18661,7 @@
       <c r="A264">
         <v>262</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" t="s">
         <v>576</v>
       </c>
       <c r="C264" s="3" t="s">
@@ -18604,7 +18705,7 @@
       <c r="A265">
         <v>263</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" t="s">
         <v>578</v>
       </c>
       <c r="C265" s="3" t="s">
@@ -18648,7 +18749,7 @@
       <c r="A266">
         <v>264</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" t="s">
         <v>580</v>
       </c>
       <c r="C266" s="3" t="s">
@@ -18692,7 +18793,7 @@
       <c r="A267">
         <v>265</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" t="s">
         <v>582</v>
       </c>
       <c r="C267" s="3" t="s">
@@ -18736,7 +18837,7 @@
       <c r="A268">
         <v>266</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" t="s">
         <v>584</v>
       </c>
       <c r="C268" s="3" t="s">
@@ -18780,7 +18881,7 @@
       <c r="A269">
         <v>267</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" t="s">
         <v>586</v>
       </c>
       <c r="C269" s="3" t="s">
@@ -18824,7 +18925,7 @@
       <c r="A270">
         <v>268</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" t="s">
         <v>588</v>
       </c>
       <c r="C270" s="3" t="s">
@@ -18868,7 +18969,7 @@
       <c r="A271">
         <v>269</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" t="s">
         <v>590</v>
       </c>
       <c r="C271" s="3" t="s">
@@ -18912,7 +19013,7 @@
       <c r="A272">
         <v>270</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" t="s">
         <v>592</v>
       </c>
       <c r="C272" s="3" t="s">
@@ -18956,7 +19057,7 @@
       <c r="A273">
         <v>271</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" t="s">
         <v>594</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -19000,7 +19101,7 @@
       <c r="A274">
         <v>272</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" t="s">
         <v>596</v>
       </c>
       <c r="C274" s="3" t="s">
@@ -19044,7 +19145,7 @@
       <c r="A275">
         <v>273</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="B275" t="s">
         <v>598</v>
       </c>
       <c r="C275" s="3" t="s">
@@ -19088,7 +19189,7 @@
       <c r="A276">
         <v>274</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" t="s">
         <v>600</v>
       </c>
       <c r="C276" s="3" t="s">
@@ -19132,7 +19233,7 @@
       <c r="A277">
         <v>275</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B277" t="s">
         <v>602</v>
       </c>
       <c r="C277" s="3" t="s">
@@ -19176,7 +19277,7 @@
       <c r="A278">
         <v>276</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B278" t="s">
         <v>604</v>
       </c>
       <c r="C278" s="3" t="s">
@@ -19220,7 +19321,7 @@
       <c r="A279">
         <v>277</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" t="s">
         <v>606</v>
       </c>
       <c r="C279" s="3" t="s">
@@ -19264,7 +19365,7 @@
       <c r="A280">
         <v>278</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="B280" t="s">
         <v>608</v>
       </c>
       <c r="C280" s="3" t="s">
@@ -19308,7 +19409,7 @@
       <c r="A281">
         <v>279</v>
       </c>
-      <c r="B281" s="4" t="s">
+      <c r="B281" t="s">
         <v>610</v>
       </c>
       <c r="C281" s="3" t="s">
@@ -19352,7 +19453,7 @@
       <c r="A282">
         <v>280</v>
       </c>
-      <c r="B282" s="4" t="s">
+      <c r="B282" t="s">
         <v>612</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -19396,7 +19497,7 @@
       <c r="A283">
         <v>281</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="B283" t="s">
         <v>614</v>
       </c>
       <c r="C283" s="3" t="s">
@@ -19440,7 +19541,7 @@
       <c r="A284">
         <v>282</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="B284" t="s">
         <v>616</v>
       </c>
       <c r="C284" s="3" t="s">
@@ -19484,7 +19585,7 @@
       <c r="A285">
         <v>283</v>
       </c>
-      <c r="B285" s="4" t="s">
+      <c r="B285" t="s">
         <v>618</v>
       </c>
       <c r="C285" s="3" t="s">
@@ -19528,7 +19629,7 @@
       <c r="A286">
         <v>284</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="B286" t="s">
         <v>620</v>
       </c>
       <c r="C286" s="3" t="s">
@@ -19572,7 +19673,7 @@
       <c r="A287">
         <v>285</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="B287" t="s">
         <v>622</v>
       </c>
       <c r="C287" s="3" t="s">
@@ -19616,7 +19717,7 @@
       <c r="A288">
         <v>286</v>
       </c>
-      <c r="B288" s="4" t="s">
+      <c r="B288" t="s">
         <v>624</v>
       </c>
       <c r="C288" s="3" t="s">
@@ -19660,7 +19761,7 @@
       <c r="A289">
         <v>287</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="B289" t="s">
         <v>626</v>
       </c>
       <c r="C289" s="3" t="s">
@@ -19704,7 +19805,7 @@
       <c r="A290">
         <v>288</v>
       </c>
-      <c r="B290" s="4" t="s">
+      <c r="B290" t="s">
         <v>628</v>
       </c>
       <c r="C290" s="3" t="s">
@@ -19748,7 +19849,7 @@
       <c r="A291">
         <v>289</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B291" t="s">
         <v>630</v>
       </c>
       <c r="C291" s="3" t="s">
@@ -19792,7 +19893,7 @@
       <c r="A292">
         <v>290</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="B292" t="s">
         <v>632</v>
       </c>
       <c r="C292" s="3" t="s">
@@ -19836,7 +19937,7 @@
       <c r="A293">
         <v>291</v>
       </c>
-      <c r="B293" s="4" t="s">
+      <c r="B293" t="s">
         <v>634</v>
       </c>
       <c r="C293" s="3" t="s">
@@ -19880,7 +19981,7 @@
       <c r="A294">
         <v>292</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="B294" t="s">
         <v>636</v>
       </c>
       <c r="C294" s="3" t="s">
@@ -19924,7 +20025,7 @@
       <c r="A295">
         <v>293</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="B295" t="s">
         <v>638</v>
       </c>
       <c r="C295" s="3" t="s">
@@ -19968,7 +20069,7 @@
       <c r="A296">
         <v>294</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B296" t="s">
         <v>640</v>
       </c>
       <c r="C296" s="3" t="s">
@@ -20012,7 +20113,7 @@
       <c r="A297">
         <v>295</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B297" t="s">
         <v>642</v>
       </c>
       <c r="C297" s="3" t="s">
@@ -20056,7 +20157,7 @@
       <c r="A298">
         <v>296</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="B298" t="s">
         <v>644</v>
       </c>
       <c r="C298" s="3" t="s">
@@ -20100,7 +20201,7 @@
       <c r="A299">
         <v>297</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B299" t="s">
         <v>646</v>
       </c>
       <c r="C299" s="3" t="s">
@@ -20144,7 +20245,7 @@
       <c r="A300">
         <v>298</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="B300" t="s">
         <v>648</v>
       </c>
       <c r="C300" s="3" t="s">
@@ -20188,7 +20289,7 @@
       <c r="A301">
         <v>299</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B301" t="s">
         <v>650</v>
       </c>
       <c r="C301" s="3" t="s">
@@ -20232,7 +20333,7 @@
       <c r="A302">
         <v>300</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="B302" t="s">
         <v>652</v>
       </c>
       <c r="C302" s="3" t="s">
@@ -20276,7 +20377,7 @@
       <c r="A303">
         <v>301</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="B303" t="s">
         <v>654</v>
       </c>
       <c r="C303" s="3" t="s">
@@ -20320,7 +20421,7 @@
       <c r="A304">
         <v>302</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="B304" t="s">
         <v>656</v>
       </c>
       <c r="C304" s="3" t="s">
@@ -20364,7 +20465,7 @@
       <c r="A305">
         <v>303</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="B305" t="s">
         <v>658</v>
       </c>
       <c r="C305" s="3" t="s">
@@ -20408,7 +20509,7 @@
       <c r="A306">
         <v>304</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="B306" t="s">
         <v>660</v>
       </c>
       <c r="C306" s="3" t="s">
@@ -20452,7 +20553,7 @@
       <c r="A307">
         <v>305</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B307" t="s">
         <v>662</v>
       </c>
       <c r="C307" s="3" t="s">
@@ -20496,7 +20597,7 @@
       <c r="A308">
         <v>306</v>
       </c>
-      <c r="B308" s="4" t="s">
+      <c r="B308" t="s">
         <v>664</v>
       </c>
       <c r="C308" s="3" t="s">
@@ -20540,7 +20641,7 @@
       <c r="A309">
         <v>307</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B309" t="s">
         <v>666</v>
       </c>
       <c r="C309" s="3" t="s">
@@ -20584,7 +20685,7 @@
       <c r="A310">
         <v>308</v>
       </c>
-      <c r="B310" s="4" t="s">
+      <c r="B310" t="s">
         <v>668</v>
       </c>
       <c r="C310" s="3" t="s">
@@ -20628,7 +20729,7 @@
       <c r="A311">
         <v>309</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="B311" t="s">
         <v>670</v>
       </c>
       <c r="C311" s="3" t="s">
@@ -20672,7 +20773,7 @@
       <c r="A312">
         <v>310</v>
       </c>
-      <c r="B312" s="4" t="s">
+      <c r="B312" t="s">
         <v>672</v>
       </c>
       <c r="C312" s="3" t="s">
@@ -20716,7 +20817,7 @@
       <c r="A313">
         <v>311</v>
       </c>
-      <c r="B313" s="4" t="s">
+      <c r="B313" t="s">
         <v>674</v>
       </c>
       <c r="C313" s="3" t="s">
@@ -20760,7 +20861,7 @@
       <c r="A314">
         <v>312</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="B314" t="s">
         <v>676</v>
       </c>
       <c r="C314" s="3" t="s">
@@ -20804,7 +20905,7 @@
       <c r="A315">
         <v>313</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="B315" t="s">
         <v>678</v>
       </c>
       <c r="C315" s="3" t="s">
@@ -20848,7 +20949,7 @@
       <c r="A316">
         <v>314</v>
       </c>
-      <c r="B316" s="4" t="s">
+      <c r="B316" t="s">
         <v>680</v>
       </c>
       <c r="C316" s="3" t="s">
@@ -20892,7 +20993,7 @@
       <c r="A317">
         <v>315</v>
       </c>
-      <c r="B317" s="4" t="s">
+      <c r="B317" t="s">
         <v>682</v>
       </c>
       <c r="C317" s="3" t="s">
@@ -20936,7 +21037,7 @@
       <c r="A318">
         <v>316</v>
       </c>
-      <c r="B318" s="4" t="s">
+      <c r="B318" t="s">
         <v>684</v>
       </c>
       <c r="C318" s="3" t="s">
@@ -20980,7 +21081,7 @@
       <c r="A319">
         <v>317</v>
       </c>
-      <c r="B319" s="4" t="s">
+      <c r="B319" t="s">
         <v>686</v>
       </c>
       <c r="C319" s="3" t="s">
@@ -21024,7 +21125,7 @@
       <c r="A320">
         <v>318</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="B320" t="s">
         <v>688</v>
       </c>
       <c r="C320" s="3" t="s">
@@ -21068,7 +21169,7 @@
       <c r="A321">
         <v>319</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="B321" t="s">
         <v>690</v>
       </c>
       <c r="C321" s="3" t="s">
@@ -21112,7 +21213,7 @@
       <c r="A322">
         <v>320</v>
       </c>
-      <c r="B322" s="4" t="s">
+      <c r="B322" t="s">
         <v>692</v>
       </c>
       <c r="C322" s="3" t="s">
@@ -21156,7 +21257,7 @@
       <c r="A323">
         <v>321</v>
       </c>
-      <c r="B323" s="4" t="s">
+      <c r="B323" t="s">
         <v>694</v>
       </c>
       <c r="C323" s="3" t="s">
@@ -21200,7 +21301,7 @@
       <c r="A324">
         <v>322</v>
       </c>
-      <c r="B324" s="4" t="s">
+      <c r="B324" t="s">
         <v>696</v>
       </c>
       <c r="C324" s="3" t="s">
@@ -21244,7 +21345,7 @@
       <c r="A325">
         <v>323</v>
       </c>
-      <c r="B325" s="4" t="s">
+      <c r="B325" t="s">
         <v>698</v>
       </c>
       <c r="C325" s="3" t="s">
@@ -21288,7 +21389,7 @@
       <c r="A326">
         <v>324</v>
       </c>
-      <c r="B326" s="4" t="s">
+      <c r="B326" t="s">
         <v>700</v>
       </c>
       <c r="C326" s="3" t="s">
@@ -21332,7 +21433,7 @@
       <c r="A327">
         <v>325</v>
       </c>
-      <c r="B327" s="4" t="s">
+      <c r="B327" t="s">
         <v>702</v>
       </c>
       <c r="C327" s="3" t="s">
@@ -21376,7 +21477,7 @@
       <c r="A328">
         <v>326</v>
       </c>
-      <c r="B328" s="4" t="s">
+      <c r="B328" t="s">
         <v>704</v>
       </c>
       <c r="C328" s="3" t="s">
@@ -21420,7 +21521,7 @@
       <c r="A329">
         <v>327</v>
       </c>
-      <c r="B329" s="4" t="s">
+      <c r="B329" t="s">
         <v>706</v>
       </c>
       <c r="C329" s="3" t="s">
@@ -21464,7 +21565,7 @@
       <c r="A330">
         <v>328</v>
       </c>
-      <c r="B330" s="4" t="s">
+      <c r="B330" t="s">
         <v>708</v>
       </c>
       <c r="C330" s="3" t="s">
@@ -21508,7 +21609,7 @@
       <c r="A331">
         <v>329</v>
       </c>
-      <c r="B331" s="4" t="s">
+      <c r="B331" t="s">
         <v>710</v>
       </c>
       <c r="C331" s="3" t="s">
@@ -21552,7 +21653,7 @@
       <c r="A332">
         <v>330</v>
       </c>
-      <c r="B332" s="4" t="s">
+      <c r="B332" t="s">
         <v>712</v>
       </c>
       <c r="C332" s="3" t="s">
@@ -21596,7 +21697,7 @@
       <c r="A333">
         <v>331</v>
       </c>
-      <c r="B333" s="4" t="s">
+      <c r="B333" t="s">
         <v>714</v>
       </c>
       <c r="C333" s="3" t="s">
@@ -21640,7 +21741,7 @@
       <c r="A334">
         <v>332</v>
       </c>
-      <c r="B334" s="4" t="s">
+      <c r="B334" t="s">
         <v>716</v>
       </c>
       <c r="C334" s="3" t="s">
@@ -21684,7 +21785,7 @@
       <c r="A335">
         <v>333</v>
       </c>
-      <c r="B335" s="4" t="s">
+      <c r="B335" t="s">
         <v>718</v>
       </c>
       <c r="C335" s="3" t="s">
@@ -21728,7 +21829,7 @@
       <c r="A336">
         <v>334</v>
       </c>
-      <c r="B336" s="4" t="s">
+      <c r="B336" t="s">
         <v>720</v>
       </c>
       <c r="C336" s="3" t="s">
@@ -21772,7 +21873,7 @@
       <c r="A337">
         <v>335</v>
       </c>
-      <c r="B337" s="4" t="s">
+      <c r="B337" t="s">
         <v>722</v>
       </c>
       <c r="C337" s="3" t="s">
@@ -21816,7 +21917,7 @@
       <c r="A338">
         <v>336</v>
       </c>
-      <c r="B338" s="4" t="s">
+      <c r="B338" t="s">
         <v>724</v>
       </c>
       <c r="C338" s="3" t="s">
@@ -21860,7 +21961,7 @@
       <c r="A339">
         <v>337</v>
       </c>
-      <c r="B339" s="4" t="s">
+      <c r="B339" t="s">
         <v>726</v>
       </c>
       <c r="C339" s="3" t="s">
@@ -21904,7 +22005,7 @@
       <c r="A340">
         <v>338</v>
       </c>
-      <c r="B340" s="4" t="s">
+      <c r="B340" t="s">
         <v>728</v>
       </c>
       <c r="C340" s="3" t="s">
@@ -21948,7 +22049,7 @@
       <c r="A341">
         <v>339</v>
       </c>
-      <c r="B341" s="4" t="s">
+      <c r="B341" t="s">
         <v>730</v>
       </c>
       <c r="C341" s="3" t="s">
@@ -21992,7 +22093,7 @@
       <c r="A342">
         <v>340</v>
       </c>
-      <c r="B342" s="4" t="s">
+      <c r="B342" t="s">
         <v>732</v>
       </c>
       <c r="C342" s="3" t="s">
@@ -22036,7 +22137,7 @@
       <c r="A343">
         <v>341</v>
       </c>
-      <c r="B343" s="4" t="s">
+      <c r="B343" t="s">
         <v>734</v>
       </c>
       <c r="C343" s="3" t="s">
@@ -22080,7 +22181,7 @@
       <c r="A344">
         <v>342</v>
       </c>
-      <c r="B344" s="4" t="s">
+      <c r="B344" t="s">
         <v>736</v>
       </c>
       <c r="C344" s="3" t="s">
@@ -22124,7 +22225,7 @@
       <c r="A345">
         <v>343</v>
       </c>
-      <c r="B345" s="4" t="s">
+      <c r="B345" t="s">
         <v>738</v>
       </c>
       <c r="C345" s="3" t="s">
@@ -22168,7 +22269,7 @@
       <c r="A346">
         <v>344</v>
       </c>
-      <c r="B346" s="4" t="s">
+      <c r="B346" t="s">
         <v>740</v>
       </c>
       <c r="C346" s="3" t="s">
@@ -22212,7 +22313,7 @@
       <c r="A347">
         <v>345</v>
       </c>
-      <c r="B347" s="4" t="s">
+      <c r="B347" t="s">
         <v>742</v>
       </c>
       <c r="C347" s="3" t="s">
@@ -22256,7 +22357,7 @@
       <c r="A348">
         <v>346</v>
       </c>
-      <c r="B348" s="4" t="s">
+      <c r="B348" t="s">
         <v>744</v>
       </c>
       <c r="C348" s="3" t="s">
@@ -22300,7 +22401,7 @@
       <c r="A349">
         <v>347</v>
       </c>
-      <c r="B349" s="4" t="s">
+      <c r="B349" t="s">
         <v>746</v>
       </c>
       <c r="C349" s="3" t="s">
@@ -22344,7 +22445,7 @@
       <c r="A350">
         <v>348</v>
       </c>
-      <c r="B350" s="4" t="s">
+      <c r="B350" t="s">
         <v>748</v>
       </c>
       <c r="C350" s="3" t="s">
@@ -22388,7 +22489,7 @@
       <c r="A351">
         <v>349</v>
       </c>
-      <c r="B351" s="4" t="s">
+      <c r="B351" t="s">
         <v>750</v>
       </c>
       <c r="C351" s="3" t="s">
@@ -22432,7 +22533,7 @@
       <c r="A352">
         <v>350</v>
       </c>
-      <c r="B352" s="4" t="s">
+      <c r="B352" t="s">
         <v>752</v>
       </c>
       <c r="C352" s="3" t="s">
@@ -22476,7 +22577,7 @@
       <c r="A353">
         <v>351</v>
       </c>
-      <c r="B353" s="4" t="s">
+      <c r="B353" t="s">
         <v>754</v>
       </c>
       <c r="C353" s="3" t="s">
@@ -22520,7 +22621,7 @@
       <c r="A354">
         <v>352</v>
       </c>
-      <c r="B354" s="4" t="s">
+      <c r="B354" t="s">
         <v>756</v>
       </c>
       <c r="C354" s="3" t="s">
@@ -22564,7 +22665,7 @@
       <c r="A355">
         <v>353</v>
       </c>
-      <c r="B355" s="4" t="s">
+      <c r="B355" t="s">
         <v>758</v>
       </c>
       <c r="C355" s="3" t="s">
@@ -22608,7 +22709,7 @@
       <c r="A356">
         <v>354</v>
       </c>
-      <c r="B356" s="4" t="s">
+      <c r="B356" t="s">
         <v>760</v>
       </c>
       <c r="C356" s="3" t="s">
@@ -22652,7 +22753,7 @@
       <c r="A357">
         <v>355</v>
       </c>
-      <c r="B357" s="4" t="s">
+      <c r="B357" t="s">
         <v>762</v>
       </c>
       <c r="C357" s="3" t="s">
@@ -22696,7 +22797,7 @@
       <c r="A358">
         <v>356</v>
       </c>
-      <c r="B358" s="4" t="s">
+      <c r="B358" t="s">
         <v>764</v>
       </c>
       <c r="C358" s="3" t="s">
@@ -22740,7 +22841,7 @@
       <c r="A359">
         <v>357</v>
       </c>
-      <c r="B359" s="4" t="s">
+      <c r="B359" t="s">
         <v>766</v>
       </c>
       <c r="C359" s="3" t="s">
@@ -22784,7 +22885,7 @@
       <c r="A360">
         <v>358</v>
       </c>
-      <c r="B360" s="4" t="s">
+      <c r="B360" t="s">
         <v>768</v>
       </c>
       <c r="C360" s="3" t="s">
@@ -22828,7 +22929,7 @@
       <c r="A361">
         <v>359</v>
       </c>
-      <c r="B361" s="4" t="s">
+      <c r="B361" t="s">
         <v>770</v>
       </c>
       <c r="C361" s="3" t="s">
@@ -22872,7 +22973,7 @@
       <c r="A362">
         <v>360</v>
       </c>
-      <c r="B362" s="4" t="s">
+      <c r="B362" t="s">
         <v>772</v>
       </c>
       <c r="C362" s="3" t="s">
@@ -22916,7 +23017,7 @@
       <c r="A363">
         <v>361</v>
       </c>
-      <c r="B363" s="4" t="s">
+      <c r="B363" t="s">
         <v>774</v>
       </c>
       <c r="C363" s="3" t="s">
@@ -22960,7 +23061,7 @@
       <c r="A364">
         <v>362</v>
       </c>
-      <c r="B364" s="4" t="s">
+      <c r="B364" t="s">
         <v>776</v>
       </c>
       <c r="C364" s="3" t="s">
@@ -23004,7 +23105,7 @@
       <c r="A365">
         <v>363</v>
       </c>
-      <c r="B365" s="4" t="s">
+      <c r="B365" t="s">
         <v>778</v>
       </c>
       <c r="C365" s="3" t="s">
@@ -23048,7 +23149,7 @@
       <c r="A366">
         <v>364</v>
       </c>
-      <c r="B366" s="4" t="s">
+      <c r="B366" t="s">
         <v>780</v>
       </c>
       <c r="C366" s="3" t="s">
@@ -23092,7 +23193,7 @@
       <c r="A367">
         <v>365</v>
       </c>
-      <c r="B367" s="4" t="s">
+      <c r="B367" t="s">
         <v>782</v>
       </c>
       <c r="C367" s="3" t="s">
@@ -23136,7 +23237,7 @@
       <c r="A368">
         <v>366</v>
       </c>
-      <c r="B368" s="4" t="s">
+      <c r="B368" t="s">
         <v>784</v>
       </c>
       <c r="C368" s="3" t="s">
@@ -23180,7 +23281,7 @@
       <c r="A369">
         <v>367</v>
       </c>
-      <c r="B369" s="4" t="s">
+      <c r="B369" t="s">
         <v>786</v>
       </c>
       <c r="C369" s="3" t="s">
@@ -23224,7 +23325,7 @@
       <c r="A370">
         <v>368</v>
       </c>
-      <c r="B370" s="4" t="s">
+      <c r="B370" t="s">
         <v>788</v>
       </c>
       <c r="C370" s="3" t="s">
@@ -23268,7 +23369,7 @@
       <c r="A371">
         <v>369</v>
       </c>
-      <c r="B371" s="4" t="s">
+      <c r="B371" t="s">
         <v>790</v>
       </c>
       <c r="C371" s="3" t="s">
@@ -23312,7 +23413,7 @@
       <c r="A372">
         <v>370</v>
       </c>
-      <c r="B372" s="4" t="s">
+      <c r="B372" t="s">
         <v>792</v>
       </c>
       <c r="C372" s="3" t="s">
@@ -23356,7 +23457,7 @@
       <c r="A373">
         <v>371</v>
       </c>
-      <c r="B373" s="4" t="s">
+      <c r="B373" t="s">
         <v>794</v>
       </c>
       <c r="C373" s="3" t="s">
@@ -23400,7 +23501,7 @@
       <c r="A374">
         <v>372</v>
       </c>
-      <c r="B374" s="4" t="s">
+      <c r="B374" t="s">
         <v>796</v>
       </c>
       <c r="C374" s="3" t="s">
@@ -23444,7 +23545,7 @@
       <c r="A375">
         <v>373</v>
       </c>
-      <c r="B375" s="4" t="s">
+      <c r="B375" t="s">
         <v>798</v>
       </c>
       <c r="C375" s="3" t="s">
@@ -23488,7 +23589,7 @@
       <c r="A376">
         <v>374</v>
       </c>
-      <c r="B376" s="4" t="s">
+      <c r="B376" t="s">
         <v>800</v>
       </c>
       <c r="C376" s="3" t="s">
@@ -23532,7 +23633,7 @@
       <c r="A377">
         <v>375</v>
       </c>
-      <c r="B377" s="4" t="s">
+      <c r="B377" t="s">
         <v>802</v>
       </c>
       <c r="C377" s="3" t="s">
@@ -23576,7 +23677,7 @@
       <c r="A378">
         <v>376</v>
       </c>
-      <c r="B378" s="4" t="s">
+      <c r="B378" t="s">
         <v>804</v>
       </c>
       <c r="C378" s="3" t="s">
@@ -23620,7 +23721,7 @@
       <c r="A379">
         <v>377</v>
       </c>
-      <c r="B379" s="4" t="s">
+      <c r="B379" t="s">
         <v>806</v>
       </c>
       <c r="C379" s="3" t="s">
@@ -23664,7 +23765,7 @@
       <c r="A380">
         <v>378</v>
       </c>
-      <c r="B380" s="4" t="s">
+      <c r="B380" t="s">
         <v>808</v>
       </c>
       <c r="C380" s="3" t="s">
@@ -23708,7 +23809,7 @@
       <c r="A381">
         <v>379</v>
       </c>
-      <c r="B381" s="4" t="s">
+      <c r="B381" t="s">
         <v>810</v>
       </c>
       <c r="C381" s="3" t="s">
@@ -23752,7 +23853,7 @@
       <c r="A382">
         <v>380</v>
       </c>
-      <c r="B382" s="4" t="s">
+      <c r="B382" t="s">
         <v>812</v>
       </c>
       <c r="C382" s="3" t="s">
@@ -23796,7 +23897,7 @@
       <c r="A383">
         <v>381</v>
       </c>
-      <c r="B383" s="4" t="s">
+      <c r="B383" t="s">
         <v>814</v>
       </c>
       <c r="C383" s="3" t="s">
@@ -23840,7 +23941,7 @@
       <c r="A384">
         <v>382</v>
       </c>
-      <c r="B384" s="4" t="s">
+      <c r="B384" t="s">
         <v>816</v>
       </c>
       <c r="C384" s="3" t="s">
@@ -23884,7 +23985,7 @@
       <c r="A385">
         <v>383</v>
       </c>
-      <c r="B385" s="4" t="s">
+      <c r="B385" t="s">
         <v>818</v>
       </c>
       <c r="C385" s="3" t="s">
@@ -23928,7 +24029,7 @@
       <c r="A386">
         <v>384</v>
       </c>
-      <c r="B386" s="4" t="s">
+      <c r="B386" t="s">
         <v>820</v>
       </c>
       <c r="C386" s="3" t="s">
@@ -23972,7 +24073,7 @@
       <c r="A387">
         <v>385</v>
       </c>
-      <c r="B387" s="4" t="s">
+      <c r="B387" t="s">
         <v>822</v>
       </c>
       <c r="C387" s="3" t="s">
@@ -24016,7 +24117,7 @@
       <c r="A388">
         <v>386</v>
       </c>
-      <c r="B388" s="4" t="s">
+      <c r="B388" t="s">
         <v>824</v>
       </c>
       <c r="C388" s="3" t="s">
@@ -24060,7 +24161,7 @@
       <c r="A389">
         <v>387</v>
       </c>
-      <c r="B389" s="4" t="s">
+      <c r="B389" t="s">
         <v>826</v>
       </c>
       <c r="C389" s="3" t="s">
@@ -24104,7 +24205,7 @@
       <c r="A390">
         <v>388</v>
       </c>
-      <c r="B390" s="4" t="s">
+      <c r="B390" t="s">
         <v>828</v>
       </c>
       <c r="C390" s="3" t="s">
@@ -24148,7 +24249,7 @@
       <c r="A391">
         <v>389</v>
       </c>
-      <c r="B391" s="4" t="s">
+      <c r="B391" t="s">
         <v>830</v>
       </c>
       <c r="C391" s="3" t="s">
@@ -24192,7 +24293,7 @@
       <c r="A392">
         <v>390</v>
       </c>
-      <c r="B392" s="4" t="s">
+      <c r="B392" t="s">
         <v>832</v>
       </c>
       <c r="C392" s="3" t="s">
@@ -24236,7 +24337,7 @@
       <c r="A393">
         <v>391</v>
       </c>
-      <c r="B393" s="4" t="s">
+      <c r="B393" t="s">
         <v>834</v>
       </c>
       <c r="C393" s="3" t="s">
@@ -24280,7 +24381,7 @@
       <c r="A394">
         <v>392</v>
       </c>
-      <c r="B394" s="4" t="s">
+      <c r="B394" t="s">
         <v>836</v>
       </c>
       <c r="C394" s="3" t="s">
@@ -24324,7 +24425,7 @@
       <c r="A395">
         <v>393</v>
       </c>
-      <c r="B395" s="4" t="s">
+      <c r="B395" t="s">
         <v>838</v>
       </c>
       <c r="C395" s="3" t="s">
@@ -24368,7 +24469,7 @@
       <c r="A396">
         <v>394</v>
       </c>
-      <c r="B396" s="4" t="s">
+      <c r="B396" t="s">
         <v>840</v>
       </c>
       <c r="C396" s="3" t="s">
@@ -24412,7 +24513,7 @@
       <c r="A397">
         <v>395</v>
       </c>
-      <c r="B397" s="4" t="s">
+      <c r="B397" t="s">
         <v>295</v>
       </c>
       <c r="C397" s="3" t="s">
@@ -24456,7 +24557,7 @@
       <c r="A398">
         <v>396</v>
       </c>
-      <c r="B398" s="4" t="s">
+      <c r="B398" t="s">
         <v>843</v>
       </c>
       <c r="C398" s="3" t="s">
@@ -24500,7 +24601,7 @@
       <c r="A399">
         <v>397</v>
       </c>
-      <c r="B399" s="4" t="s">
+      <c r="B399" t="s">
         <v>845</v>
       </c>
       <c r="C399" s="3" t="s">
@@ -24544,7 +24645,7 @@
       <c r="A400">
         <v>398</v>
       </c>
-      <c r="B400" s="4" t="s">
+      <c r="B400" t="s">
         <v>847</v>
       </c>
       <c r="C400" s="3" t="s">
@@ -24588,7 +24689,7 @@
       <c r="A401">
         <v>399</v>
       </c>
-      <c r="B401" s="4" t="s">
+      <c r="B401" t="s">
         <v>849</v>
       </c>
       <c r="C401" s="3" t="s">
@@ -24632,7 +24733,7 @@
       <c r="A402">
         <v>400</v>
       </c>
-      <c r="B402" s="4" t="s">
+      <c r="B402" t="s">
         <v>851</v>
       </c>
       <c r="C402" s="3" t="s">
@@ -24676,7 +24777,7 @@
       <c r="A403">
         <v>401</v>
       </c>
-      <c r="B403" s="4" t="s">
+      <c r="B403" t="s">
         <v>853</v>
       </c>
       <c r="C403" s="3" t="s">
@@ -24720,7 +24821,7 @@
       <c r="A404">
         <v>402</v>
       </c>
-      <c r="B404" s="4" t="s">
+      <c r="B404" t="s">
         <v>855</v>
       </c>
       <c r="C404" s="3" t="s">
@@ -24764,7 +24865,7 @@
       <c r="A405">
         <v>403</v>
       </c>
-      <c r="B405" s="4" t="s">
+      <c r="B405" t="s">
         <v>857</v>
       </c>
       <c r="C405" s="3" t="s">
@@ -24808,7 +24909,7 @@
       <c r="A406">
         <v>404</v>
       </c>
-      <c r="B406" s="4" t="s">
+      <c r="B406" t="s">
         <v>859</v>
       </c>
       <c r="C406" s="3" t="s">
@@ -24852,7 +24953,7 @@
       <c r="A407">
         <v>405</v>
       </c>
-      <c r="B407" s="4" t="s">
+      <c r="B407" t="s">
         <v>861</v>
       </c>
       <c r="C407" s="3" t="s">
@@ -24896,7 +24997,7 @@
       <c r="A408">
         <v>406</v>
       </c>
-      <c r="B408" s="4" t="s">
+      <c r="B408" t="s">
         <v>863</v>
       </c>
       <c r="C408" s="3" t="s">
@@ -24940,7 +25041,7 @@
       <c r="A409">
         <v>407</v>
       </c>
-      <c r="B409" s="4" t="s">
+      <c r="B409" t="s">
         <v>865</v>
       </c>
       <c r="C409" s="3" t="s">
@@ -24984,7 +25085,7 @@
       <c r="A410">
         <v>408</v>
       </c>
-      <c r="B410" s="4" t="s">
+      <c r="B410" t="s">
         <v>867</v>
       </c>
       <c r="C410" s="3" t="s">
@@ -25028,7 +25129,7 @@
       <c r="A411">
         <v>409</v>
       </c>
-      <c r="B411" s="4" t="s">
+      <c r="B411" t="s">
         <v>243</v>
       </c>
       <c r="C411" s="3" t="s">
@@ -25072,7 +25173,7 @@
       <c r="A412">
         <v>410</v>
       </c>
-      <c r="B412" s="4" t="s">
+      <c r="B412" t="s">
         <v>870</v>
       </c>
       <c r="C412" s="3" t="s">
@@ -25116,7 +25217,7 @@
       <c r="A413">
         <v>411</v>
       </c>
-      <c r="B413" s="4" t="s">
+      <c r="B413" t="s">
         <v>872</v>
       </c>
       <c r="C413" s="3" t="s">
@@ -25160,7 +25261,7 @@
       <c r="A414">
         <v>412</v>
       </c>
-      <c r="B414" s="4" t="s">
+      <c r="B414" t="s">
         <v>874</v>
       </c>
       <c r="C414" s="3" t="s">
@@ -25204,7 +25305,7 @@
       <c r="A415">
         <v>413</v>
       </c>
-      <c r="B415" s="4" t="s">
+      <c r="B415" t="s">
         <v>876</v>
       </c>
       <c r="C415" s="3" t="s">
@@ -25248,7 +25349,7 @@
       <c r="A416">
         <v>414</v>
       </c>
-      <c r="B416" s="4" t="s">
+      <c r="B416" t="s">
         <v>878</v>
       </c>
       <c r="C416" s="3" t="s">
@@ -25292,7 +25393,7 @@
       <c r="A417">
         <v>415</v>
       </c>
-      <c r="B417" s="4" t="s">
+      <c r="B417" t="s">
         <v>880</v>
       </c>
       <c r="C417" s="3" t="s">
@@ -25336,7 +25437,7 @@
       <c r="A418">
         <v>416</v>
       </c>
-      <c r="B418" s="4" t="s">
+      <c r="B418" t="s">
         <v>882</v>
       </c>
       <c r="C418" s="3" t="s">
@@ -25380,7 +25481,7 @@
       <c r="A419">
         <v>417</v>
       </c>
-      <c r="B419" s="4" t="s">
+      <c r="B419" t="s">
         <v>884</v>
       </c>
       <c r="C419" s="3" t="s">
@@ -25424,7 +25525,7 @@
       <c r="A420">
         <v>418</v>
       </c>
-      <c r="B420" s="4" t="s">
+      <c r="B420" t="s">
         <v>105</v>
       </c>
       <c r="C420" s="3" t="s">
@@ -25468,7 +25569,7 @@
       <c r="A421">
         <v>419</v>
       </c>
-      <c r="B421" s="4" t="s">
+      <c r="B421" t="s">
         <v>887</v>
       </c>
       <c r="C421" s="3" t="s">
@@ -25512,7 +25613,7 @@
       <c r="A422">
         <v>420</v>
       </c>
-      <c r="B422" s="4" t="s">
+      <c r="B422" t="s">
         <v>889</v>
       </c>
       <c r="C422" s="3" t="s">
@@ -25556,7 +25657,7 @@
       <c r="A423">
         <v>421</v>
       </c>
-      <c r="B423" s="4" t="s">
+      <c r="B423" t="s">
         <v>891</v>
       </c>
       <c r="C423" s="3" t="s">
@@ -25600,7 +25701,7 @@
       <c r="A424">
         <v>422</v>
       </c>
-      <c r="B424" s="4" t="s">
+      <c r="B424" t="s">
         <v>893</v>
       </c>
       <c r="C424" s="3" t="s">
@@ -25644,7 +25745,7 @@
       <c r="A425">
         <v>423</v>
       </c>
-      <c r="B425" s="4" t="s">
+      <c r="B425" t="s">
         <v>895</v>
       </c>
       <c r="C425" s="3" t="s">
@@ -25688,7 +25789,7 @@
       <c r="A426">
         <v>424</v>
       </c>
-      <c r="B426" s="4" t="s">
+      <c r="B426" t="s">
         <v>897</v>
       </c>
       <c r="C426" s="3" t="s">
@@ -25732,7 +25833,7 @@
       <c r="A427">
         <v>425</v>
       </c>
-      <c r="B427" s="4" t="s">
+      <c r="B427" t="s">
         <v>899</v>
       </c>
       <c r="C427" s="3" t="s">
@@ -25776,7 +25877,7 @@
       <c r="A428">
         <v>426</v>
       </c>
-      <c r="B428" s="4" t="s">
+      <c r="B428" t="s">
         <v>901</v>
       </c>
       <c r="C428" s="3" t="s">
@@ -25820,7 +25921,7 @@
       <c r="A429">
         <v>427</v>
       </c>
-      <c r="B429" s="4" t="s">
+      <c r="B429" t="s">
         <v>903</v>
       </c>
       <c r="C429" s="3" t="s">
@@ -25864,7 +25965,7 @@
       <c r="A430">
         <v>428</v>
       </c>
-      <c r="B430" s="4" t="s">
+      <c r="B430" t="s">
         <v>905</v>
       </c>
       <c r="C430" s="3" t="s">
@@ -25908,7 +26009,7 @@
       <c r="A431">
         <v>429</v>
       </c>
-      <c r="B431" s="4" t="s">
+      <c r="B431" t="s">
         <v>907</v>
       </c>
       <c r="C431" s="3" t="s">
@@ -25952,7 +26053,7 @@
       <c r="A432">
         <v>430</v>
       </c>
-      <c r="B432" s="4" t="s">
+      <c r="B432" t="s">
         <v>909</v>
       </c>
       <c r="C432" s="3" t="s">
@@ -25996,7 +26097,7 @@
       <c r="A433">
         <v>431</v>
       </c>
-      <c r="B433" s="4" t="s">
+      <c r="B433" t="s">
         <v>911</v>
       </c>
       <c r="C433" s="3" t="s">
@@ -26040,7 +26141,7 @@
       <c r="A434">
         <v>432</v>
       </c>
-      <c r="B434" s="4" t="s">
+      <c r="B434" t="s">
         <v>913</v>
       </c>
       <c r="C434" s="3" t="s">
@@ -26084,7 +26185,7 @@
       <c r="A435">
         <v>433</v>
       </c>
-      <c r="B435" s="4" t="s">
+      <c r="B435" t="s">
         <v>915</v>
       </c>
       <c r="C435" s="3" t="s">
@@ -26128,7 +26229,7 @@
       <c r="A436">
         <v>434</v>
       </c>
-      <c r="B436" s="4" t="s">
+      <c r="B436" t="s">
         <v>917</v>
       </c>
       <c r="C436" s="3" t="s">
@@ -26172,7 +26273,7 @@
       <c r="A437">
         <v>435</v>
       </c>
-      <c r="B437" s="4" t="s">
+      <c r="B437" t="s">
         <v>919</v>
       </c>
       <c r="C437" s="3" t="s">
@@ -26216,7 +26317,7 @@
       <c r="A438">
         <v>436</v>
       </c>
-      <c r="B438" s="4" t="s">
+      <c r="B438" t="s">
         <v>921</v>
       </c>
       <c r="C438" s="3" t="s">
@@ -26260,7 +26361,7 @@
       <c r="A439">
         <v>437</v>
       </c>
-      <c r="B439" s="4" t="s">
+      <c r="B439" t="s">
         <v>923</v>
       </c>
       <c r="C439" s="3" t="s">
@@ -26304,7 +26405,7 @@
       <c r="A440">
         <v>438</v>
       </c>
-      <c r="B440" s="4" t="s">
+      <c r="B440" t="s">
         <v>925</v>
       </c>
       <c r="C440" s="3" t="s">
@@ -26348,7 +26449,7 @@
       <c r="A441">
         <v>439</v>
       </c>
-      <c r="B441" s="4" t="s">
+      <c r="B441" t="s">
         <v>927</v>
       </c>
       <c r="C441" s="3" t="s">
@@ -26392,7 +26493,7 @@
       <c r="A442">
         <v>440</v>
       </c>
-      <c r="B442" s="4" t="s">
+      <c r="B442" t="s">
         <v>929</v>
       </c>
       <c r="C442" s="3" t="s">
@@ -26436,7 +26537,7 @@
       <c r="A443">
         <v>441</v>
       </c>
-      <c r="B443" s="4" t="s">
+      <c r="B443" t="s">
         <v>931</v>
       </c>
       <c r="C443" s="3" t="s">
@@ -26480,7 +26581,7 @@
       <c r="A444">
         <v>442</v>
       </c>
-      <c r="B444" s="4" t="s">
+      <c r="B444" t="s">
         <v>933</v>
       </c>
       <c r="C444" s="3" t="s">
@@ -26524,7 +26625,7 @@
       <c r="A445">
         <v>443</v>
       </c>
-      <c r="B445" s="4" t="s">
+      <c r="B445" t="s">
         <v>935</v>
       </c>
       <c r="C445" s="3" t="s">
@@ -26568,7 +26669,7 @@
       <c r="A446">
         <v>444</v>
       </c>
-      <c r="B446" s="4" t="s">
+      <c r="B446" t="s">
         <v>748</v>
       </c>
       <c r="C446" s="3" t="s">
@@ -26612,7 +26713,7 @@
       <c r="A447">
         <v>445</v>
       </c>
-      <c r="B447" s="4" t="s">
+      <c r="B447" t="s">
         <v>938</v>
       </c>
       <c r="C447" s="3" t="s">
@@ -26656,7 +26757,7 @@
       <c r="A448">
         <v>446</v>
       </c>
-      <c r="B448" s="4" t="s">
+      <c r="B448" t="s">
         <v>940</v>
       </c>
       <c r="C448" s="3" t="s">
@@ -26700,7 +26801,7 @@
       <c r="A449">
         <v>447</v>
       </c>
-      <c r="B449" s="4" t="s">
+      <c r="B449" t="s">
         <v>942</v>
       </c>
       <c r="C449" s="3" t="s">
@@ -26744,7 +26845,7 @@
       <c r="A450">
         <v>448</v>
       </c>
-      <c r="B450" s="4" t="s">
+      <c r="B450" t="s">
         <v>944</v>
       </c>
       <c r="C450" s="3" t="s">
@@ -26788,7 +26889,7 @@
       <c r="A451">
         <v>449</v>
       </c>
-      <c r="B451" s="4" t="s">
+      <c r="B451" t="s">
         <v>946</v>
       </c>
       <c r="C451" s="3" t="s">
@@ -26832,7 +26933,7 @@
       <c r="A452">
         <v>450</v>
       </c>
-      <c r="B452" s="4" t="s">
+      <c r="B452" t="s">
         <v>948</v>
       </c>
       <c r="C452" s="3" t="s">
@@ -26876,7 +26977,7 @@
       <c r="A453">
         <v>451</v>
       </c>
-      <c r="B453" s="4" t="s">
+      <c r="B453" t="s">
         <v>950</v>
       </c>
       <c r="C453" s="3" t="s">
@@ -26920,7 +27021,7 @@
       <c r="A454">
         <v>452</v>
       </c>
-      <c r="B454" s="4" t="s">
+      <c r="B454" t="s">
         <v>952</v>
       </c>
       <c r="C454" s="3" t="s">
@@ -26964,7 +27065,7 @@
       <c r="A455">
         <v>453</v>
       </c>
-      <c r="B455" s="4" t="s">
+      <c r="B455" t="s">
         <v>954</v>
       </c>
       <c r="C455" s="3" t="s">
@@ -27008,7 +27109,7 @@
       <c r="A456">
         <v>454</v>
       </c>
-      <c r="B456" s="4" t="s">
+      <c r="B456" t="s">
         <v>956</v>
       </c>
       <c r="C456" s="3" t="s">
@@ -27052,7 +27153,7 @@
       <c r="A457">
         <v>455</v>
       </c>
-      <c r="B457" s="4" t="s">
+      <c r="B457" t="s">
         <v>958</v>
       </c>
       <c r="C457" s="3" t="s">
@@ -27096,7 +27197,7 @@
       <c r="A458">
         <v>456</v>
       </c>
-      <c r="B458" s="4" t="s">
+      <c r="B458" t="s">
         <v>960</v>
       </c>
       <c r="C458" s="3" t="s">
@@ -27140,7 +27241,7 @@
       <c r="A459">
         <v>457</v>
       </c>
-      <c r="B459" s="4" t="s">
+      <c r="B459" t="s">
         <v>962</v>
       </c>
       <c r="C459" s="3" t="s">
@@ -27184,7 +27285,7 @@
       <c r="A460">
         <v>458</v>
       </c>
-      <c r="B460" s="4" t="s">
+      <c r="B460" t="s">
         <v>964</v>
       </c>
       <c r="C460" s="3" t="s">
@@ -27228,7 +27329,7 @@
       <c r="A461">
         <v>459</v>
       </c>
-      <c r="B461" s="4" t="s">
+      <c r="B461" t="s">
         <v>966</v>
       </c>
       <c r="C461" s="3" t="s">
@@ -27272,7 +27373,7 @@
       <c r="A462">
         <v>460</v>
       </c>
-      <c r="B462" s="4" t="s">
+      <c r="B462" t="s">
         <v>968</v>
       </c>
       <c r="C462" s="3" t="s">
@@ -27316,7 +27417,7 @@
       <c r="A463">
         <v>461</v>
       </c>
-      <c r="B463" s="4" t="s">
+      <c r="B463" t="s">
         <v>970</v>
       </c>
       <c r="C463" s="3" t="s">
@@ -27360,7 +27461,7 @@
       <c r="A464">
         <v>462</v>
       </c>
-      <c r="B464" s="4" t="s">
+      <c r="B464" t="s">
         <v>972</v>
       </c>
       <c r="C464" s="3" t="s">
@@ -27404,7 +27505,7 @@
       <c r="A465">
         <v>463</v>
       </c>
-      <c r="B465" s="4" t="s">
+      <c r="B465" t="s">
         <v>974</v>
       </c>
       <c r="C465" s="3" t="s">
@@ -27448,7 +27549,7 @@
       <c r="A466">
         <v>464</v>
       </c>
-      <c r="B466" s="4" t="s">
+      <c r="B466" t="s">
         <v>976</v>
       </c>
       <c r="C466" s="3" t="s">
@@ -27492,7 +27593,7 @@
       <c r="A467">
         <v>465</v>
       </c>
-      <c r="B467" s="4" t="s">
+      <c r="B467" t="s">
         <v>978</v>
       </c>
       <c r="C467" s="3" t="s">
@@ -27536,7 +27637,7 @@
       <c r="A468">
         <v>466</v>
       </c>
-      <c r="B468" s="4" t="s">
+      <c r="B468" t="s">
         <v>980</v>
       </c>
       <c r="C468" s="3" t="s">
@@ -27580,7 +27681,7 @@
       <c r="A469">
         <v>467</v>
       </c>
-      <c r="B469" s="4" t="s">
+      <c r="B469" t="s">
         <v>982</v>
       </c>
       <c r="C469" s="3" t="s">
@@ -27624,7 +27725,7 @@
       <c r="A470">
         <v>468</v>
       </c>
-      <c r="B470" s="4" t="s">
+      <c r="B470" t="s">
         <v>984</v>
       </c>
       <c r="C470" s="3" t="s">
@@ -27668,7 +27769,7 @@
       <c r="A471">
         <v>469</v>
       </c>
-      <c r="B471" s="4" t="s">
+      <c r="B471" t="s">
         <v>986</v>
       </c>
       <c r="C471" s="3" t="s">
@@ -27712,7 +27813,7 @@
       <c r="A472">
         <v>470</v>
       </c>
-      <c r="B472" s="4" t="s">
+      <c r="B472" t="s">
         <v>988</v>
       </c>
       <c r="C472" s="3" t="s">
@@ -27756,7 +27857,7 @@
       <c r="A473">
         <v>471</v>
       </c>
-      <c r="B473" s="4" t="s">
+      <c r="B473" t="s">
         <v>446</v>
       </c>
       <c r="C473" s="3" t="s">
@@ -27800,7 +27901,7 @@
       <c r="A474">
         <v>472</v>
       </c>
-      <c r="B474" s="4" t="s">
+      <c r="B474" t="s">
         <v>991</v>
       </c>
       <c r="C474" s="3" t="s">
@@ -27844,7 +27945,7 @@
       <c r="A475">
         <v>473</v>
       </c>
-      <c r="B475" s="4" t="s">
+      <c r="B475" t="s">
         <v>993</v>
       </c>
       <c r="C475" s="3" t="s">
@@ -27888,7 +27989,7 @@
       <c r="A476">
         <v>474</v>
       </c>
-      <c r="B476" s="4" t="s">
+      <c r="B476" t="s">
         <v>995</v>
       </c>
       <c r="C476" s="3" t="s">
@@ -27932,7 +28033,7 @@
       <c r="A477">
         <v>475</v>
       </c>
-      <c r="B477" s="4" t="s">
+      <c r="B477" t="s">
         <v>997</v>
       </c>
       <c r="C477" s="3" t="s">
@@ -27976,7 +28077,7 @@
       <c r="A478">
         <v>476</v>
       </c>
-      <c r="B478" s="4" t="s">
+      <c r="B478" t="s">
         <v>999</v>
       </c>
       <c r="C478" s="3" t="s">
@@ -28020,7 +28121,7 @@
       <c r="A479">
         <v>477</v>
       </c>
-      <c r="B479" s="4" t="s">
+      <c r="B479" t="s">
         <v>1001</v>
       </c>
       <c r="C479" s="3" t="s">
@@ -28064,7 +28165,7 @@
       <c r="A480">
         <v>478</v>
       </c>
-      <c r="B480" s="4" t="s">
+      <c r="B480" t="s">
         <v>1003</v>
       </c>
       <c r="C480" s="3" t="s">
@@ -28108,7 +28209,7 @@
       <c r="A481">
         <v>479</v>
       </c>
-      <c r="B481" s="4" t="s">
+      <c r="B481" t="s">
         <v>1005</v>
       </c>
       <c r="C481" s="3" t="s">
@@ -28152,7 +28253,7 @@
       <c r="A482">
         <v>480</v>
       </c>
-      <c r="B482" s="4" t="s">
+      <c r="B482" t="s">
         <v>1007</v>
       </c>
       <c r="C482" s="3" t="s">
@@ -28196,7 +28297,7 @@
       <c r="A483">
         <v>481</v>
       </c>
-      <c r="B483" s="4" t="s">
+      <c r="B483" t="s">
         <v>1009</v>
       </c>
       <c r="C483" s="3" t="s">
@@ -28240,7 +28341,7 @@
       <c r="A484">
         <v>482</v>
       </c>
-      <c r="B484" s="4" t="s">
+      <c r="B484" t="s">
         <v>1011</v>
       </c>
       <c r="C484" s="3" t="s">
@@ -28284,7 +28385,7 @@
       <c r="A485">
         <v>483</v>
       </c>
-      <c r="B485" s="4" t="s">
+      <c r="B485" t="s">
         <v>1013</v>
       </c>
       <c r="C485" s="3" t="s">
@@ -28328,7 +28429,7 @@
       <c r="A486">
         <v>484</v>
       </c>
-      <c r="B486" s="4" t="s">
+      <c r="B486" t="s">
         <v>1015</v>
       </c>
       <c r="C486" s="3" t="s">
@@ -28372,7 +28473,7 @@
       <c r="A487">
         <v>485</v>
       </c>
-      <c r="B487" s="4" t="s">
+      <c r="B487" t="s">
         <v>1017</v>
       </c>
       <c r="C487" s="3" t="s">
@@ -28416,7 +28517,7 @@
       <c r="A488">
         <v>486</v>
       </c>
-      <c r="B488" s="4" t="s">
+      <c r="B488" t="s">
         <v>1019</v>
       </c>
       <c r="C488" s="3" t="s">
@@ -28460,7 +28561,7 @@
       <c r="A489">
         <v>487</v>
       </c>
-      <c r="B489" s="4" t="s">
+      <c r="B489" t="s">
         <v>1021</v>
       </c>
       <c r="C489" s="3" t="s">
@@ -28504,7 +28605,7 @@
       <c r="A490">
         <v>488</v>
       </c>
-      <c r="B490" s="4" t="s">
+      <c r="B490" t="s">
         <v>1023</v>
       </c>
       <c r="C490" s="3" t="s">
@@ -28548,7 +28649,7 @@
       <c r="A491">
         <v>489</v>
       </c>
-      <c r="B491" s="4" t="s">
+      <c r="B491" t="s">
         <v>1025</v>
       </c>
       <c r="C491" s="3" t="s">
@@ -28592,7 +28693,7 @@
       <c r="A492">
         <v>490</v>
       </c>
-      <c r="B492" s="4" t="s">
+      <c r="B492" t="s">
         <v>1027</v>
       </c>
       <c r="C492" s="3" t="s">
@@ -28636,7 +28737,7 @@
       <c r="A493">
         <v>491</v>
       </c>
-      <c r="B493" s="4" t="s">
+      <c r="B493" t="s">
         <v>1030</v>
       </c>
       <c r="C493" s="3" t="s">
@@ -28680,7 +28781,7 @@
       <c r="A494">
         <v>492</v>
       </c>
-      <c r="B494" s="4" t="s">
+      <c r="B494" t="s">
         <v>1032</v>
       </c>
       <c r="C494" s="3" t="s">
@@ -28724,7 +28825,7 @@
       <c r="A495">
         <v>493</v>
       </c>
-      <c r="B495" s="4" t="s">
+      <c r="B495" t="s">
         <v>1034</v>
       </c>
       <c r="C495" s="3" t="s">
@@ -28768,7 +28869,7 @@
       <c r="A496">
         <v>494</v>
       </c>
-      <c r="B496" s="4" t="s">
+      <c r="B496" t="s">
         <v>1036</v>
       </c>
       <c r="C496" s="3" t="s">
@@ -28812,7 +28913,7 @@
       <c r="A497">
         <v>495</v>
       </c>
-      <c r="B497" s="4" t="s">
+      <c r="B497" t="s">
         <v>1038</v>
       </c>
       <c r="C497" s="3" t="s">
@@ -28856,7 +28957,7 @@
       <c r="A498">
         <v>496</v>
       </c>
-      <c r="B498" s="4" t="s">
+      <c r="B498" t="s">
         <v>1040</v>
       </c>
       <c r="C498" s="3" t="s">
@@ -28900,7 +29001,7 @@
       <c r="A499">
         <v>497</v>
       </c>
-      <c r="B499" s="4" t="s">
+      <c r="B499" t="s">
         <v>1042</v>
       </c>
       <c r="C499" s="3" t="s">
@@ -28944,7 +29045,7 @@
       <c r="A500">
         <v>498</v>
       </c>
-      <c r="B500" s="4" t="s">
+      <c r="B500" t="s">
         <v>1044</v>
       </c>
       <c r="C500" s="3" t="s">
@@ -28988,7 +29089,7 @@
       <c r="A501">
         <v>499</v>
       </c>
-      <c r="B501" s="4" t="s">
+      <c r="B501" t="s">
         <v>1046</v>
       </c>
       <c r="C501" s="3" t="s">
@@ -29032,7 +29133,7 @@
       <c r="A502">
         <v>500</v>
       </c>
-      <c r="B502" s="4" t="s">
+      <c r="B502" t="s">
         <v>1048</v>
       </c>
       <c r="C502" s="3" t="s">
@@ -29076,7 +29177,7 @@
       <c r="A503">
         <v>501</v>
       </c>
-      <c r="B503" s="4" t="s">
+      <c r="B503" t="s">
         <v>1050</v>
       </c>
       <c r="C503" s="3" t="s">
@@ -29120,7 +29221,7 @@
       <c r="A504">
         <v>502</v>
       </c>
-      <c r="B504" s="4" t="s">
+      <c r="B504" t="s">
         <v>477</v>
       </c>
       <c r="C504" s="3" t="s">
@@ -29164,7 +29265,7 @@
       <c r="A505">
         <v>503</v>
       </c>
-      <c r="B505" s="4" t="s">
+      <c r="B505" t="s">
         <v>1053</v>
       </c>
       <c r="C505" s="3" t="s">
@@ -29208,7 +29309,7 @@
       <c r="A506">
         <v>504</v>
       </c>
-      <c r="B506" s="4" t="s">
+      <c r="B506" t="s">
         <v>1055</v>
       </c>
       <c r="C506" s="3" t="s">
@@ -29252,7 +29353,7 @@
       <c r="A507">
         <v>505</v>
       </c>
-      <c r="B507" s="4" t="s">
+      <c r="B507" t="s">
         <v>1057</v>
       </c>
       <c r="C507" s="3" t="s">
@@ -29296,7 +29397,7 @@
       <c r="A508">
         <v>506</v>
       </c>
-      <c r="B508" s="4" t="s">
+      <c r="B508" t="s">
         <v>1059</v>
       </c>
       <c r="C508" s="3" t="s">
@@ -29340,7 +29441,7 @@
       <c r="A509">
         <v>507</v>
       </c>
-      <c r="B509" s="4" t="s">
+      <c r="B509" t="s">
         <v>1061</v>
       </c>
       <c r="C509" s="3" t="s">
@@ -29384,7 +29485,7 @@
       <c r="A510">
         <v>508</v>
       </c>
-      <c r="B510" s="4" t="s">
+      <c r="B510" t="s">
         <v>1063</v>
       </c>
       <c r="C510" s="3" t="s">
@@ -29428,7 +29529,7 @@
       <c r="A511">
         <v>509</v>
       </c>
-      <c r="B511" s="4" t="s">
+      <c r="B511" t="s">
         <v>398</v>
       </c>
       <c r="C511" s="3" t="s">
@@ -29472,7 +29573,7 @@
       <c r="A512">
         <v>510</v>
       </c>
-      <c r="B512" s="4" t="s">
+      <c r="B512" t="s">
         <v>1066</v>
       </c>
       <c r="C512" s="3" t="s">
@@ -29516,7 +29617,7 @@
       <c r="A513">
         <v>511</v>
       </c>
-      <c r="B513" s="4" t="s">
+      <c r="B513" t="s">
         <v>1068</v>
       </c>
       <c r="C513" s="3" t="s">
@@ -29560,7 +29661,7 @@
       <c r="A514">
         <v>512</v>
       </c>
-      <c r="B514" s="4" t="s">
+      <c r="B514" t="s">
         <v>1070</v>
       </c>
       <c r="C514" s="3" t="s">
@@ -29604,7 +29705,7 @@
       <c r="A515">
         <v>513</v>
       </c>
-      <c r="B515" s="4" t="s">
+      <c r="B515" t="s">
         <v>1072</v>
       </c>
       <c r="C515" s="3" t="s">
@@ -29648,7 +29749,7 @@
       <c r="A516">
         <v>514</v>
       </c>
-      <c r="B516" s="4" t="s">
+      <c r="B516" t="s">
         <v>1074</v>
       </c>
       <c r="C516" s="3" t="s">
@@ -29692,7 +29793,7 @@
       <c r="A517">
         <v>515</v>
       </c>
-      <c r="B517" s="4" t="s">
+      <c r="B517" t="s">
         <v>1076</v>
       </c>
       <c r="C517" s="3" t="s">
@@ -29736,7 +29837,7 @@
       <c r="A518">
         <v>516</v>
       </c>
-      <c r="B518" s="4" t="s">
+      <c r="B518" t="s">
         <v>1078</v>
       </c>
       <c r="C518" s="3" t="s">
@@ -29780,7 +29881,7 @@
       <c r="A519">
         <v>517</v>
       </c>
-      <c r="B519" s="4" t="s">
+      <c r="B519" t="s">
         <v>1080</v>
       </c>
       <c r="C519" s="3" t="s">
@@ -29824,7 +29925,7 @@
       <c r="A520">
         <v>518</v>
       </c>
-      <c r="B520" s="4" t="s">
+      <c r="B520" t="s">
         <v>1082</v>
       </c>
       <c r="C520" s="3" t="s">
@@ -29868,7 +29969,7 @@
       <c r="A521">
         <v>519</v>
       </c>
-      <c r="B521" s="4" t="s">
+      <c r="B521" t="s">
         <v>1084</v>
       </c>
       <c r="C521" s="3" t="s">
@@ -29912,7 +30013,7 @@
       <c r="A522">
         <v>520</v>
       </c>
-      <c r="B522" s="4" t="s">
+      <c r="B522" t="s">
         <v>1086</v>
       </c>
       <c r="C522" s="3" t="s">
@@ -29956,7 +30057,7 @@
       <c r="A523">
         <v>521</v>
       </c>
-      <c r="B523" s="4" t="s">
+      <c r="B523" t="s">
         <v>1088</v>
       </c>
       <c r="C523" s="3" t="s">
@@ -30000,7 +30101,7 @@
       <c r="A524">
         <v>522</v>
       </c>
-      <c r="B524" s="4" t="s">
+      <c r="B524" t="s">
         <v>1089</v>
       </c>
       <c r="C524" s="3" t="s">
@@ -30044,7 +30145,7 @@
       <c r="A525">
         <v>523</v>
       </c>
-      <c r="B525" s="4" t="s">
+      <c r="B525" t="s">
         <v>1091</v>
       </c>
       <c r="C525" s="3" t="s">
@@ -30088,7 +30189,7 @@
       <c r="A526">
         <v>524</v>
       </c>
-      <c r="B526" s="4" t="s">
+      <c r="B526" t="s">
         <v>1093</v>
       </c>
       <c r="C526" s="3" t="s">
@@ -30132,7 +30233,7 @@
       <c r="A527">
         <v>525</v>
       </c>
-      <c r="B527" s="4" t="s">
+      <c r="B527" t="s">
         <v>1095</v>
       </c>
       <c r="C527" s="3" t="s">
@@ -30176,7 +30277,7 @@
       <c r="A528">
         <v>526</v>
       </c>
-      <c r="B528" s="4" t="s">
+      <c r="B528" t="s">
         <v>1097</v>
       </c>
       <c r="C528" s="3" t="s">
@@ -30220,7 +30321,7 @@
       <c r="A529">
         <v>527</v>
       </c>
-      <c r="B529" s="4" t="s">
+      <c r="B529" t="s">
         <v>1099</v>
       </c>
       <c r="C529" s="3" t="s">
@@ -30264,7 +30365,7 @@
       <c r="A530">
         <v>528</v>
       </c>
-      <c r="B530" s="4" t="s">
+      <c r="B530" t="s">
         <v>1101</v>
       </c>
       <c r="C530" s="3" t="s">
@@ -30308,7 +30409,7 @@
       <c r="A531">
         <v>529</v>
       </c>
-      <c r="B531" s="4" t="s">
+      <c r="B531" t="s">
         <v>1103</v>
       </c>
       <c r="C531" s="3" t="s">
@@ -30352,7 +30453,7 @@
       <c r="A532">
         <v>530</v>
       </c>
-      <c r="B532" s="4" t="s">
+      <c r="B532" t="s">
         <v>1105</v>
       </c>
       <c r="C532" s="3" t="s">
@@ -30396,7 +30497,7 @@
       <c r="A533">
         <v>531</v>
       </c>
-      <c r="B533" s="4" t="s">
+      <c r="B533" t="s">
         <v>1107</v>
       </c>
       <c r="C533" s="3" t="s">
@@ -30440,7 +30541,7 @@
       <c r="A534">
         <v>532</v>
       </c>
-      <c r="B534" s="4" t="s">
+      <c r="B534" t="s">
         <v>1109</v>
       </c>
       <c r="C534" s="3" t="s">
@@ -30484,7 +30585,7 @@
       <c r="A535">
         <v>533</v>
       </c>
-      <c r="B535" s="4" t="s">
+      <c r="B535" t="s">
         <v>1111</v>
       </c>
       <c r="C535" s="3" t="s">
@@ -30528,7 +30629,7 @@
       <c r="A536">
         <v>534</v>
       </c>
-      <c r="B536" s="4" t="s">
+      <c r="B536" t="s">
         <v>1113</v>
       </c>
       <c r="C536" s="3" t="s">
@@ -30572,7 +30673,7 @@
       <c r="A537">
         <v>535</v>
       </c>
-      <c r="B537" s="4" t="s">
+      <c r="B537" t="s">
         <v>1115</v>
       </c>
       <c r="C537" s="3" t="s">
@@ -30616,7 +30717,7 @@
       <c r="A538">
         <v>536</v>
       </c>
-      <c r="B538" s="4" t="s">
+      <c r="B538" t="s">
         <v>1117</v>
       </c>
       <c r="C538" s="3" t="s">
@@ -30660,7 +30761,7 @@
       <c r="A539">
         <v>537</v>
       </c>
-      <c r="B539" s="4" t="s">
+      <c r="B539" t="s">
         <v>1119</v>
       </c>
       <c r="C539" s="3" t="s">
@@ -30704,7 +30805,7 @@
       <c r="A540">
         <v>538</v>
       </c>
-      <c r="B540" s="4" t="s">
+      <c r="B540" t="s">
         <v>1121</v>
       </c>
       <c r="C540" s="3" t="s">
@@ -30748,7 +30849,7 @@
       <c r="A541">
         <v>539</v>
       </c>
-      <c r="B541" s="4" t="s">
+      <c r="B541" t="s">
         <v>1123</v>
       </c>
       <c r="C541" s="3" t="s">
@@ -30792,7 +30893,7 @@
       <c r="A542">
         <v>540</v>
       </c>
-      <c r="B542" s="4" t="s">
+      <c r="B542" t="s">
         <v>1125</v>
       </c>
       <c r="C542" s="3" t="s">
@@ -30836,7 +30937,7 @@
       <c r="A543">
         <v>541</v>
       </c>
-      <c r="B543" s="4" t="s">
+      <c r="B543" t="s">
         <v>1127</v>
       </c>
       <c r="C543" s="3" t="s">
@@ -30880,7 +30981,7 @@
       <c r="A544">
         <v>542</v>
       </c>
-      <c r="B544" s="4" t="s">
+      <c r="B544" t="s">
         <v>1129</v>
       </c>
       <c r="C544" s="3" t="s">
@@ -30924,7 +31025,7 @@
       <c r="A545">
         <v>543</v>
       </c>
-      <c r="B545" s="4" t="s">
+      <c r="B545" t="s">
         <v>1131</v>
       </c>
       <c r="C545" s="3" t="s">
@@ -30968,7 +31069,7 @@
       <c r="A546">
         <v>544</v>
       </c>
-      <c r="B546" s="4" t="s">
+      <c r="B546" t="s">
         <v>1133</v>
       </c>
       <c r="C546" s="3" t="s">
@@ -31012,7 +31113,7 @@
       <c r="A547">
         <v>545</v>
       </c>
-      <c r="B547" s="4" t="s">
+      <c r="B547" t="s">
         <v>1135</v>
       </c>
       <c r="C547" s="3" t="s">
@@ -31056,7 +31157,7 @@
       <c r="A548">
         <v>546</v>
       </c>
-      <c r="B548" s="4" t="s">
+      <c r="B548" t="s">
         <v>1137</v>
       </c>
       <c r="C548" s="3" t="s">
@@ -31100,7 +31201,7 @@
       <c r="A549">
         <v>547</v>
       </c>
-      <c r="B549" s="4" t="s">
+      <c r="B549" t="s">
         <v>1139</v>
       </c>
       <c r="C549" s="3" t="s">
@@ -31144,7 +31245,7 @@
       <c r="A550">
         <v>548</v>
       </c>
-      <c r="B550" s="4" t="s">
+      <c r="B550" t="s">
         <v>1141</v>
       </c>
       <c r="C550" s="3" t="s">
@@ -31188,7 +31289,7 @@
       <c r="A551">
         <v>549</v>
       </c>
-      <c r="B551" s="4" t="s">
+      <c r="B551" t="s">
         <v>1143</v>
       </c>
       <c r="C551" s="3" t="s">
@@ -31232,7 +31333,7 @@
       <c r="A552">
         <v>550</v>
       </c>
-      <c r="B552" s="4" t="s">
+      <c r="B552" t="s">
         <v>1145</v>
       </c>
       <c r="C552" s="3" t="s">
@@ -31276,7 +31377,7 @@
       <c r="A553">
         <v>551</v>
       </c>
-      <c r="B553" s="4" t="s">
+      <c r="B553" t="s">
         <v>1147</v>
       </c>
       <c r="C553" s="3" t="s">
@@ -31320,7 +31421,7 @@
       <c r="A554">
         <v>552</v>
       </c>
-      <c r="B554" s="4" t="s">
+      <c r="B554" t="s">
         <v>1149</v>
       </c>
       <c r="C554" s="3" t="s">
@@ -31364,7 +31465,7 @@
       <c r="A555">
         <v>553</v>
       </c>
-      <c r="B555" s="4" t="s">
+      <c r="B555" t="s">
         <v>1151</v>
       </c>
       <c r="C555" s="3" t="s">
@@ -31408,7 +31509,7 @@
       <c r="A556">
         <v>554</v>
       </c>
-      <c r="B556" s="4" t="s">
+      <c r="B556" t="s">
         <v>1153</v>
       </c>
       <c r="C556" s="3" t="s">
@@ -31452,7 +31553,7 @@
       <c r="A557">
         <v>555</v>
       </c>
-      <c r="B557" s="4" t="s">
+      <c r="B557" t="s">
         <v>1155</v>
       </c>
       <c r="C557" s="3" t="s">
@@ -31496,7 +31597,7 @@
       <c r="A558">
         <v>556</v>
       </c>
-      <c r="B558" s="4" t="s">
+      <c r="B558" t="s">
         <v>442</v>
       </c>
       <c r="C558" s="3" t="s">
@@ -31540,7 +31641,7 @@
       <c r="A559">
         <v>557</v>
       </c>
-      <c r="B559" s="4" t="s">
+      <c r="B559" t="s">
         <v>1158</v>
       </c>
       <c r="C559" s="3" t="s">
@@ -31584,7 +31685,7 @@
       <c r="A560">
         <v>558</v>
       </c>
-      <c r="B560" s="4" t="s">
+      <c r="B560" t="s">
         <v>1160</v>
       </c>
       <c r="C560" s="3" t="s">
@@ -31628,7 +31729,7 @@
       <c r="A561">
         <v>559</v>
       </c>
-      <c r="B561" s="4" t="s">
+      <c r="B561" t="s">
         <v>1162</v>
       </c>
       <c r="C561" s="3" t="s">
@@ -31672,7 +31773,7 @@
       <c r="A562">
         <v>560</v>
       </c>
-      <c r="B562" s="4" t="s">
+      <c r="B562" t="s">
         <v>1164</v>
       </c>
       <c r="C562" s="3" t="s">
@@ -31716,7 +31817,7 @@
       <c r="A563">
         <v>561</v>
       </c>
-      <c r="B563" s="4" t="s">
+      <c r="B563" t="s">
         <v>1166</v>
       </c>
       <c r="C563" s="3" t="s">
@@ -31760,7 +31861,7 @@
       <c r="A564">
         <v>562</v>
       </c>
-      <c r="B564" s="4" t="s">
+      <c r="B564" t="s">
         <v>1168</v>
       </c>
       <c r="C564" s="3" t="s">
@@ -31804,7 +31905,7 @@
       <c r="A565">
         <v>563</v>
       </c>
-      <c r="B565" s="4" t="s">
+      <c r="B565" t="s">
         <v>1170</v>
       </c>
       <c r="C565" s="3" t="s">
@@ -31848,7 +31949,7 @@
       <c r="A566">
         <v>564</v>
       </c>
-      <c r="B566" s="4" t="s">
+      <c r="B566" t="s">
         <v>1172</v>
       </c>
       <c r="C566" s="3" t="s">
@@ -31892,7 +31993,7 @@
       <c r="A567">
         <v>565</v>
       </c>
-      <c r="B567" s="4" t="s">
+      <c r="B567" t="s">
         <v>1174</v>
       </c>
       <c r="C567" s="3" t="s">
@@ -31936,7 +32037,7 @@
       <c r="A568">
         <v>566</v>
       </c>
-      <c r="B568" s="4" t="s">
+      <c r="B568" t="s">
         <v>1176</v>
       </c>
       <c r="C568" s="3" t="s">
@@ -31980,7 +32081,7 @@
       <c r="A569">
         <v>567</v>
       </c>
-      <c r="B569" s="4" t="s">
+      <c r="B569" t="s">
         <v>1178</v>
       </c>
       <c r="C569" s="3" t="s">
@@ -32024,7 +32125,7 @@
       <c r="A570">
         <v>568</v>
       </c>
-      <c r="B570" s="4" t="s">
+      <c r="B570" t="s">
         <v>1180</v>
       </c>
       <c r="C570" s="3" t="s">
@@ -32068,7 +32169,7 @@
       <c r="A571">
         <v>569</v>
       </c>
-      <c r="B571" s="4" t="s">
+      <c r="B571" t="s">
         <v>1182</v>
       </c>
       <c r="C571" s="3" t="s">
@@ -32112,7 +32213,7 @@
       <c r="A572">
         <v>570</v>
       </c>
-      <c r="B572" s="4" t="s">
+      <c r="B572" t="s">
         <v>1184</v>
       </c>
       <c r="C572" s="3" t="s">
@@ -32156,7 +32257,7 @@
       <c r="A573">
         <v>571</v>
       </c>
-      <c r="B573" s="4" t="s">
+      <c r="B573" t="s">
         <v>1186</v>
       </c>
       <c r="C573" s="3" t="s">
@@ -32200,7 +32301,7 @@
       <c r="A574">
         <v>572</v>
       </c>
-      <c r="B574" s="4" t="s">
+      <c r="B574" t="s">
         <v>1188</v>
       </c>
       <c r="C574" s="3" t="s">
@@ -32244,7 +32345,7 @@
       <c r="A575">
         <v>573</v>
       </c>
-      <c r="B575" s="4" t="s">
+      <c r="B575" t="s">
         <v>1190</v>
       </c>
       <c r="C575" s="3" t="s">
@@ -32288,7 +32389,7 @@
       <c r="A576">
         <v>574</v>
       </c>
-      <c r="B576" s="4" t="s">
+      <c r="B576" t="s">
         <v>1192</v>
       </c>
       <c r="C576" s="3" t="s">
@@ -32332,7 +32433,7 @@
       <c r="A577">
         <v>575</v>
       </c>
-      <c r="B577" s="4" t="s">
+      <c r="B577" t="s">
         <v>1194</v>
       </c>
       <c r="C577" s="3" t="s">
@@ -32376,7 +32477,7 @@
       <c r="A578">
         <v>576</v>
       </c>
-      <c r="B578" s="4" t="s">
+      <c r="B578" t="s">
         <v>1196</v>
       </c>
       <c r="C578" s="3" t="s">
@@ -32420,7 +32521,7 @@
       <c r="A579">
         <v>577</v>
       </c>
-      <c r="B579" s="4" t="s">
+      <c r="B579" t="s">
         <v>1198</v>
       </c>
       <c r="C579" s="3" t="s">
@@ -32464,7 +32565,7 @@
       <c r="A580">
         <v>578</v>
       </c>
-      <c r="B580" s="4" t="s">
+      <c r="B580" t="s">
         <v>1200</v>
       </c>
       <c r="C580" s="3" t="s">
@@ -32508,7 +32609,7 @@
       <c r="A581">
         <v>579</v>
       </c>
-      <c r="B581" s="4" t="s">
+      <c r="B581" t="s">
         <v>1202</v>
       </c>
       <c r="C581" s="3" t="s">
@@ -32552,7 +32653,7 @@
       <c r="A582">
         <v>580</v>
       </c>
-      <c r="B582" s="4" t="s">
+      <c r="B582" t="s">
         <v>556</v>
       </c>
       <c r="C582" s="3" t="s">
@@ -32596,7 +32697,7 @@
       <c r="A583">
         <v>581</v>
       </c>
-      <c r="B583" s="4" t="s">
+      <c r="B583" t="s">
         <v>1205</v>
       </c>
       <c r="C583" s="3" t="s">
@@ -32640,7 +32741,7 @@
       <c r="A584">
         <v>582</v>
       </c>
-      <c r="B584" s="4" t="s">
+      <c r="B584" t="s">
         <v>1207</v>
       </c>
       <c r="C584" s="3" t="s">
@@ -32684,7 +32785,7 @@
       <c r="A585">
         <v>583</v>
       </c>
-      <c r="B585" s="4" t="s">
+      <c r="B585" t="s">
         <v>1209</v>
       </c>
       <c r="C585" s="3" t="s">
@@ -32728,7 +32829,7 @@
       <c r="A586">
         <v>584</v>
       </c>
-      <c r="B586" s="4" t="s">
+      <c r="B586" t="s">
         <v>45</v>
       </c>
       <c r="C586" s="3" t="s">
@@ -32772,7 +32873,7 @@
       <c r="A587">
         <v>585</v>
       </c>
-      <c r="B587" s="4" t="s">
+      <c r="B587" t="s">
         <v>1212</v>
       </c>
       <c r="C587" s="3" t="s">
@@ -32816,7 +32917,7 @@
       <c r="A588">
         <v>586</v>
       </c>
-      <c r="B588" s="4" t="s">
+      <c r="B588" t="s">
         <v>1214</v>
       </c>
       <c r="C588" s="3" t="s">
@@ -32860,7 +32961,7 @@
       <c r="A589">
         <v>587</v>
       </c>
-      <c r="B589" s="4" t="s">
+      <c r="B589" t="s">
         <v>1216</v>
       </c>
       <c r="C589" s="3" t="s">
@@ -32904,7 +33005,7 @@
       <c r="A590">
         <v>588</v>
       </c>
-      <c r="B590" s="4" t="s">
+      <c r="B590" t="s">
         <v>1218</v>
       </c>
       <c r="C590" s="3" t="s">
@@ -32948,7 +33049,7 @@
       <c r="A591">
         <v>589</v>
       </c>
-      <c r="B591" s="4" t="s">
+      <c r="B591" t="s">
         <v>1220</v>
       </c>
       <c r="C591" s="3" t="s">
@@ -32992,7 +33093,7 @@
       <c r="A592">
         <v>590</v>
       </c>
-      <c r="B592" s="4" t="s">
+      <c r="B592" t="s">
         <v>1222</v>
       </c>
       <c r="C592" s="3" t="s">
@@ -33036,7 +33137,7 @@
       <c r="A593">
         <v>591</v>
       </c>
-      <c r="B593" s="4" t="s">
+      <c r="B593" t="s">
         <v>1224</v>
       </c>
       <c r="C593" s="3" t="s">
@@ -33080,7 +33181,7 @@
       <c r="A594">
         <v>592</v>
       </c>
-      <c r="B594" s="4" t="s">
+      <c r="B594" t="s">
         <v>1226</v>
       </c>
       <c r="C594" s="3" t="s">
@@ -33124,7 +33225,7 @@
       <c r="A595">
         <v>593</v>
       </c>
-      <c r="B595" s="4" t="s">
+      <c r="B595" t="s">
         <v>1228</v>
       </c>
       <c r="C595" s="3" t="s">
@@ -33168,7 +33269,7 @@
       <c r="A596">
         <v>594</v>
       </c>
-      <c r="B596" s="4" t="s">
+      <c r="B596" t="s">
         <v>1230</v>
       </c>
       <c r="C596" s="3" t="s">
@@ -33212,7 +33313,7 @@
       <c r="A597">
         <v>595</v>
       </c>
-      <c r="B597" s="4" t="s">
+      <c r="B597" t="s">
         <v>1232</v>
       </c>
       <c r="C597" s="3" t="s">
@@ -33256,7 +33357,7 @@
       <c r="A598">
         <v>596</v>
       </c>
-      <c r="B598" s="4" t="s">
+      <c r="B598" t="s">
         <v>1234</v>
       </c>
       <c r="C598" s="3" t="s">
@@ -33300,7 +33401,7 @@
       <c r="A599">
         <v>597</v>
       </c>
-      <c r="B599" s="4" t="s">
+      <c r="B599" t="s">
         <v>1236</v>
       </c>
       <c r="C599" s="3" t="s">
@@ -33344,7 +33445,7 @@
       <c r="A600">
         <v>598</v>
       </c>
-      <c r="B600" s="4" t="s">
+      <c r="B600" t="s">
         <v>1238</v>
       </c>
       <c r="C600" s="3" t="s">
@@ -33388,7 +33489,7 @@
       <c r="A601">
         <v>599</v>
       </c>
-      <c r="B601" s="4" t="s">
+      <c r="B601" t="s">
         <v>1240</v>
       </c>
       <c r="C601" s="3" t="s">
@@ -33432,7 +33533,7 @@
       <c r="A602">
         <v>600</v>
       </c>
-      <c r="B602" s="4" t="s">
+      <c r="B602" t="s">
         <v>1242</v>
       </c>
       <c r="C602" s="3" t="s">
@@ -33476,7 +33577,7 @@
       <c r="A603">
         <v>601</v>
       </c>
-      <c r="B603" s="4" t="s">
+      <c r="B603" t="s">
         <v>1244</v>
       </c>
       <c r="C603" s="3" t="s">
@@ -33520,7 +33621,7 @@
       <c r="A604">
         <v>602</v>
       </c>
-      <c r="B604" s="4" t="s">
+      <c r="B604" t="s">
         <v>1246</v>
       </c>
       <c r="C604" s="3" t="s">
@@ -33564,7 +33665,7 @@
       <c r="A605">
         <v>603</v>
       </c>
-      <c r="B605" s="4" t="s">
+      <c r="B605" t="s">
         <v>1248</v>
       </c>
       <c r="C605" s="3" t="s">
@@ -33608,7 +33709,7 @@
       <c r="A606">
         <v>604</v>
       </c>
-      <c r="B606" s="4" t="s">
+      <c r="B606" t="s">
         <v>1250</v>
       </c>
       <c r="C606" s="3" t="s">
@@ -33652,7 +33753,7 @@
       <c r="A607">
         <v>605</v>
       </c>
-      <c r="B607" s="4" t="s">
+      <c r="B607" t="s">
         <v>1252</v>
       </c>
       <c r="C607" s="3" t="s">
@@ -33696,7 +33797,7 @@
       <c r="A608">
         <v>606</v>
       </c>
-      <c r="B608" s="4" t="s">
+      <c r="B608" t="s">
         <v>1254</v>
       </c>
       <c r="C608" s="3" t="s">
@@ -33740,7 +33841,7 @@
       <c r="A609">
         <v>607</v>
       </c>
-      <c r="B609" s="4" t="s">
+      <c r="B609" t="s">
         <v>1256</v>
       </c>
       <c r="C609" s="3" t="s">
@@ -33784,7 +33885,7 @@
       <c r="A610">
         <v>608</v>
       </c>
-      <c r="B610" s="4" t="s">
+      <c r="B610" t="s">
         <v>1258</v>
       </c>
       <c r="C610" s="3" t="s">
@@ -33828,7 +33929,7 @@
       <c r="A611">
         <v>609</v>
       </c>
-      <c r="B611" s="4" t="s">
+      <c r="B611" t="s">
         <v>1260</v>
       </c>
       <c r="C611" s="3" t="s">
@@ -33872,7 +33973,7 @@
       <c r="A612">
         <v>610</v>
       </c>
-      <c r="B612" s="4" t="s">
+      <c r="B612" t="s">
         <v>1262</v>
       </c>
       <c r="C612" s="3" t="s">
@@ -33916,7 +34017,7 @@
       <c r="A613">
         <v>611</v>
       </c>
-      <c r="B613" s="4" t="s">
+      <c r="B613" t="s">
         <v>1264</v>
       </c>
       <c r="C613" s="3" t="s">
@@ -33960,7 +34061,7 @@
       <c r="A614">
         <v>612</v>
       </c>
-      <c r="B614" s="4" t="s">
+      <c r="B614" t="s">
         <v>1266</v>
       </c>
       <c r="C614" s="3" t="s">
@@ -34004,7 +34105,7 @@
       <c r="A615">
         <v>613</v>
       </c>
-      <c r="B615" s="4" t="s">
+      <c r="B615" t="s">
         <v>1268</v>
       </c>
       <c r="C615" s="3" t="s">
@@ -34048,7 +34149,7 @@
       <c r="A616">
         <v>614</v>
       </c>
-      <c r="B616" s="4" t="s">
+      <c r="B616" t="s">
         <v>1270</v>
       </c>
       <c r="C616" s="3" t="s">
@@ -34092,7 +34193,7 @@
       <c r="A617">
         <v>615</v>
       </c>
-      <c r="B617" s="4" t="s">
+      <c r="B617" t="s">
         <v>1272</v>
       </c>
       <c r="C617" s="3" t="s">
@@ -34136,7 +34237,7 @@
       <c r="A618">
         <v>616</v>
       </c>
-      <c r="B618" s="4" t="s">
+      <c r="B618" t="s">
         <v>1274</v>
       </c>
       <c r="C618" s="3" t="s">
@@ -34180,7 +34281,7 @@
       <c r="A619">
         <v>617</v>
       </c>
-      <c r="B619" s="4" t="s">
+      <c r="B619" t="s">
         <v>1276</v>
       </c>
       <c r="C619" s="3" t="s">
@@ -34224,7 +34325,7 @@
       <c r="A620">
         <v>618</v>
       </c>
-      <c r="B620" s="4" t="s">
+      <c r="B620" t="s">
         <v>1278</v>
       </c>
       <c r="C620" s="3" t="s">
@@ -34268,7 +34369,7 @@
       <c r="A621">
         <v>619</v>
       </c>
-      <c r="B621" s="4" t="s">
+      <c r="B621" t="s">
         <v>1280</v>
       </c>
       <c r="C621" s="3" t="s">
@@ -34312,7 +34413,7 @@
       <c r="A622">
         <v>620</v>
       </c>
-      <c r="B622" s="4" t="s">
+      <c r="B622" t="s">
         <v>1282</v>
       </c>
       <c r="C622" s="3" t="s">
@@ -34356,7 +34457,7 @@
       <c r="A623">
         <v>621</v>
       </c>
-      <c r="B623" s="4" t="s">
+      <c r="B623" t="s">
         <v>1284</v>
       </c>
       <c r="C623" s="3" t="s">
@@ -34400,7 +34501,7 @@
       <c r="A624">
         <v>622</v>
       </c>
-      <c r="B624" s="4" t="s">
+      <c r="B624" t="s">
         <v>1286</v>
       </c>
       <c r="C624" s="3" t="s">
@@ -34444,7 +34545,7 @@
       <c r="A625">
         <v>623</v>
       </c>
-      <c r="B625" s="4" t="s">
+      <c r="B625" t="s">
         <v>1288</v>
       </c>
       <c r="C625" s="3" t="s">
@@ -34488,7 +34589,7 @@
       <c r="A626">
         <v>624</v>
       </c>
-      <c r="B626" s="4" t="s">
+      <c r="B626" t="s">
         <v>1290</v>
       </c>
       <c r="C626" s="3" t="s">
@@ -34532,7 +34633,7 @@
       <c r="A627">
         <v>625</v>
       </c>
-      <c r="B627" s="4" t="s">
+      <c r="B627" t="s">
         <v>1292</v>
       </c>
       <c r="C627" s="3" t="s">
@@ -34576,7 +34677,7 @@
       <c r="A628">
         <v>626</v>
       </c>
-      <c r="B628" s="4" t="s">
+      <c r="B628" t="s">
         <v>1294</v>
       </c>
       <c r="C628" s="3" t="s">
@@ -34620,7 +34721,7 @@
       <c r="A629">
         <v>627</v>
       </c>
-      <c r="B629" s="4" t="s">
+      <c r="B629" t="s">
         <v>1296</v>
       </c>
       <c r="C629" s="3" t="s">
@@ -34664,7 +34765,7 @@
       <c r="A630">
         <v>628</v>
       </c>
-      <c r="B630" s="4" t="s">
+      <c r="B630" t="s">
         <v>1298</v>
       </c>
       <c r="C630" s="3" t="s">
@@ -34708,7 +34809,7 @@
       <c r="A631">
         <v>629</v>
       </c>
-      <c r="B631" s="4" t="s">
+      <c r="B631" t="s">
         <v>1300</v>
       </c>
       <c r="C631" s="3" t="s">
@@ -34752,7 +34853,7 @@
       <c r="A632">
         <v>630</v>
       </c>
-      <c r="B632" s="4" t="s">
+      <c r="B632" t="s">
         <v>1302</v>
       </c>
       <c r="C632" s="3" t="s">
@@ -34796,7 +34897,7 @@
       <c r="A633">
         <v>631</v>
       </c>
-      <c r="B633" s="4" t="s">
+      <c r="B633" t="s">
         <v>1304</v>
       </c>
       <c r="C633" s="3" t="s">
@@ -34840,7 +34941,7 @@
       <c r="A634">
         <v>632</v>
       </c>
-      <c r="B634" s="4" t="s">
+      <c r="B634" t="s">
         <v>1306</v>
       </c>
       <c r="C634" s="3" t="s">
@@ -34884,7 +34985,7 @@
       <c r="A635">
         <v>633</v>
       </c>
-      <c r="B635" s="4" t="s">
+      <c r="B635" t="s">
         <v>1308</v>
       </c>
       <c r="C635" s="3" t="s">
@@ -34928,7 +35029,7 @@
       <c r="A636">
         <v>634</v>
       </c>
-      <c r="B636" s="4" t="s">
+      <c r="B636" t="s">
         <v>1310</v>
       </c>
       <c r="C636" s="3" t="s">
@@ -34972,7 +35073,7 @@
       <c r="A637">
         <v>635</v>
       </c>
-      <c r="B637" s="4" t="s">
+      <c r="B637" t="s">
         <v>1312</v>
       </c>
       <c r="C637" s="3" t="s">
@@ -35016,7 +35117,7 @@
       <c r="A638">
         <v>636</v>
       </c>
-      <c r="B638" s="4" t="s">
+      <c r="B638" t="s">
         <v>1314</v>
       </c>
       <c r="C638" s="3" t="s">
@@ -35060,7 +35161,7 @@
       <c r="A639">
         <v>637</v>
       </c>
-      <c r="B639" s="4" t="s">
+      <c r="B639" t="s">
         <v>1316</v>
       </c>
       <c r="C639" s="3" t="s">
@@ -35104,7 +35205,7 @@
       <c r="A640">
         <v>638</v>
       </c>
-      <c r="B640" s="4" t="s">
+      <c r="B640" t="s">
         <v>1318</v>
       </c>
       <c r="C640" s="3" t="s">
@@ -35148,7 +35249,7 @@
       <c r="A641">
         <v>639</v>
       </c>
-      <c r="B641" s="4" t="s">
+      <c r="B641" t="s">
         <v>1320</v>
       </c>
       <c r="C641" s="3" t="s">
@@ -35192,7 +35293,7 @@
       <c r="A642">
         <v>640</v>
       </c>
-      <c r="B642" s="4" t="s">
+      <c r="B642" t="s">
         <v>1322</v>
       </c>
       <c r="C642" s="3" t="s">
@@ -35236,7 +35337,7 @@
       <c r="A643">
         <v>641</v>
       </c>
-      <c r="B643" s="4" t="s">
+      <c r="B643" t="s">
         <v>1324</v>
       </c>
       <c r="C643" s="3" t="s">
@@ -35280,7 +35381,7 @@
       <c r="A644">
         <v>642</v>
       </c>
-      <c r="B644" s="4" t="s">
+      <c r="B644" t="s">
         <v>1326</v>
       </c>
       <c r="C644" s="3" t="s">
@@ -35324,7 +35425,7 @@
       <c r="A645">
         <v>643</v>
       </c>
-      <c r="B645" s="4" t="s">
+      <c r="B645" t="s">
         <v>1328</v>
       </c>
       <c r="C645" s="3" t="s">
@@ -35368,7 +35469,7 @@
       <c r="A646">
         <v>644</v>
       </c>
-      <c r="B646" s="4" t="s">
+      <c r="B646" t="s">
         <v>1330</v>
       </c>
       <c r="C646" s="3" t="s">
@@ -35412,7 +35513,7 @@
       <c r="A647">
         <v>645</v>
       </c>
-      <c r="B647" s="4" t="s">
+      <c r="B647" t="s">
         <v>1332</v>
       </c>
       <c r="C647" s="3" t="s">
@@ -35456,7 +35557,7 @@
       <c r="A648">
         <v>646</v>
       </c>
-      <c r="B648" s="4" t="s">
+      <c r="B648" t="s">
         <v>1334</v>
       </c>
       <c r="C648" s="3" t="s">
@@ -35500,7 +35601,7 @@
       <c r="A649">
         <v>647</v>
       </c>
-      <c r="B649" s="4" t="s">
+      <c r="B649" t="s">
         <v>1336</v>
       </c>
       <c r="C649" s="3" t="s">
@@ -35544,7 +35645,7 @@
       <c r="A650">
         <v>648</v>
       </c>
-      <c r="B650" s="4" t="s">
+      <c r="B650" t="s">
         <v>1338</v>
       </c>
       <c r="C650" s="3" t="s">
@@ -35588,7 +35689,7 @@
       <c r="A651">
         <v>649</v>
       </c>
-      <c r="B651" s="4" t="s">
+      <c r="B651" t="s">
         <v>1340</v>
       </c>
       <c r="C651" s="3" t="s">
@@ -35632,7 +35733,7 @@
       <c r="A652">
         <v>650</v>
       </c>
-      <c r="B652" s="4" t="s">
+      <c r="B652" t="s">
         <v>1342</v>
       </c>
       <c r="C652" s="3" t="s">
@@ -35676,7 +35777,7 @@
       <c r="A653">
         <v>651</v>
       </c>
-      <c r="B653" s="4" t="s">
+      <c r="B653" t="s">
         <v>1344</v>
       </c>
       <c r="C653" s="3" t="s">
@@ -35720,7 +35821,7 @@
       <c r="A654">
         <v>652</v>
       </c>
-      <c r="B654" s="4" t="s">
+      <c r="B654" t="s">
         <v>1346</v>
       </c>
       <c r="C654" s="3" t="s">
@@ -35764,7 +35865,7 @@
       <c r="A655">
         <v>653</v>
       </c>
-      <c r="B655" s="4" t="s">
+      <c r="B655" t="s">
         <v>1348</v>
       </c>
       <c r="C655" s="3" t="s">
@@ -35808,7 +35909,7 @@
       <c r="A656">
         <v>654</v>
       </c>
-      <c r="B656" s="4" t="s">
+      <c r="B656" t="s">
         <v>1350</v>
       </c>
       <c r="C656" s="3" t="s">
@@ -35852,7 +35953,7 @@
       <c r="A657">
         <v>655</v>
       </c>
-      <c r="B657" s="4" t="s">
+      <c r="B657" t="s">
         <v>1352</v>
       </c>
       <c r="C657" s="3" t="s">
@@ -35896,7 +35997,7 @@
       <c r="A658">
         <v>656</v>
       </c>
-      <c r="B658" s="4" t="s">
+      <c r="B658" t="s">
         <v>1354</v>
       </c>
       <c r="C658" s="3" t="s">
@@ -35940,7 +36041,7 @@
       <c r="A659">
         <v>657</v>
       </c>
-      <c r="B659" s="4" t="s">
+      <c r="B659" t="s">
         <v>1356</v>
       </c>
       <c r="C659" s="3" t="s">
@@ -35984,7 +36085,7 @@
       <c r="A660">
         <v>658</v>
       </c>
-      <c r="B660" s="4" t="s">
+      <c r="B660" t="s">
         <v>1358</v>
       </c>
       <c r="C660" s="3" t="s">
@@ -36028,7 +36129,7 @@
       <c r="A661">
         <v>659</v>
       </c>
-      <c r="B661" s="4" t="s">
+      <c r="B661" t="s">
         <v>1360</v>
       </c>
       <c r="C661" s="3" t="s">
@@ -36072,7 +36173,7 @@
       <c r="A662">
         <v>660</v>
       </c>
-      <c r="B662" s="4" t="s">
+      <c r="B662" t="s">
         <v>1362</v>
       </c>
       <c r="C662" s="3" t="s">
@@ -36116,7 +36217,7 @@
       <c r="A663">
         <v>661</v>
       </c>
-      <c r="B663" s="4" t="s">
+      <c r="B663" t="s">
         <v>1364</v>
       </c>
       <c r="C663" s="3" t="s">
@@ -36160,7 +36261,7 @@
       <c r="A664">
         <v>662</v>
       </c>
-      <c r="B664" s="4" t="s">
+      <c r="B664" t="s">
         <v>1366</v>
       </c>
       <c r="C664" s="3" t="s">
@@ -36204,7 +36305,7 @@
       <c r="A665">
         <v>663</v>
       </c>
-      <c r="B665" s="4" t="s">
+      <c r="B665" t="s">
         <v>1368</v>
       </c>
       <c r="C665" s="3" t="s">
@@ -36248,7 +36349,7 @@
       <c r="A666">
         <v>664</v>
       </c>
-      <c r="B666" s="4" t="s">
+      <c r="B666" t="s">
         <v>708</v>
       </c>
       <c r="C666" s="3" t="s">
@@ -36292,7 +36393,7 @@
       <c r="A667">
         <v>665</v>
       </c>
-      <c r="B667" s="4" t="s">
+      <c r="B667" t="s">
         <v>1371</v>
       </c>
       <c r="C667" s="3" t="s">
@@ -36336,7 +36437,7 @@
       <c r="A668">
         <v>666</v>
       </c>
-      <c r="B668" s="4" t="s">
+      <c r="B668" t="s">
         <v>1373</v>
       </c>
       <c r="C668" s="3" t="s">
@@ -36380,7 +36481,7 @@
       <c r="A669">
         <v>667</v>
       </c>
-      <c r="B669" s="4" t="s">
+      <c r="B669" t="s">
         <v>1375</v>
       </c>
       <c r="C669" s="3" t="s">
@@ -36424,7 +36525,7 @@
       <c r="A670">
         <v>668</v>
       </c>
-      <c r="B670" s="4" t="s">
+      <c r="B670" t="s">
         <v>1377</v>
       </c>
       <c r="C670" s="3" t="s">
@@ -36468,7 +36569,7 @@
       <c r="A671">
         <v>669</v>
       </c>
-      <c r="B671" s="4" t="s">
+      <c r="B671" t="s">
         <v>1379</v>
       </c>
       <c r="C671" s="3" t="s">
@@ -36512,7 +36613,7 @@
       <c r="A672">
         <v>670</v>
       </c>
-      <c r="B672" s="4" t="s">
+      <c r="B672" t="s">
         <v>1334</v>
       </c>
       <c r="C672" s="3" t="s">
@@ -36556,7 +36657,7 @@
       <c r="A673">
         <v>671</v>
       </c>
-      <c r="B673" s="4" t="s">
+      <c r="B673" t="s">
         <v>1382</v>
       </c>
       <c r="C673" s="3" t="s">
@@ -36600,7 +36701,7 @@
       <c r="A674">
         <v>672</v>
       </c>
-      <c r="B674" s="4" t="s">
+      <c r="B674" t="s">
         <v>1384</v>
       </c>
       <c r="C674" s="3" t="s">
@@ -36644,7 +36745,7 @@
       <c r="A675">
         <v>673</v>
       </c>
-      <c r="B675" s="4" t="s">
+      <c r="B675" t="s">
         <v>1386</v>
       </c>
       <c r="C675" s="3" t="s">
@@ -36688,7 +36789,7 @@
       <c r="A676">
         <v>674</v>
       </c>
-      <c r="B676" s="4" t="s">
+      <c r="B676" t="s">
         <v>1388</v>
       </c>
       <c r="C676" s="3" t="s">
@@ -36732,7 +36833,7 @@
       <c r="A677">
         <v>675</v>
       </c>
-      <c r="B677" s="4" t="s">
+      <c r="B677" t="s">
         <v>1390</v>
       </c>
       <c r="C677" s="3" t="s">
@@ -36776,7 +36877,7 @@
       <c r="A678">
         <v>676</v>
       </c>
-      <c r="B678" s="4" t="s">
+      <c r="B678" t="s">
         <v>1392</v>
       </c>
       <c r="C678" s="3" t="s">
@@ -36820,7 +36921,7 @@
       <c r="A679">
         <v>677</v>
       </c>
-      <c r="B679" s="4" t="s">
+      <c r="B679" t="s">
         <v>1394</v>
       </c>
       <c r="C679" s="3" t="s">
@@ -36864,7 +36965,7 @@
       <c r="A680">
         <v>678</v>
       </c>
-      <c r="B680" s="4" t="s">
+      <c r="B680" t="s">
         <v>1396</v>
       </c>
       <c r="C680" s="3" t="s">
@@ -36908,7 +37009,7 @@
       <c r="A681">
         <v>679</v>
       </c>
-      <c r="B681" s="4" t="s">
+      <c r="B681" t="s">
         <v>668</v>
       </c>
       <c r="C681" s="3" t="s">
@@ -36952,7 +37053,7 @@
       <c r="A682">
         <v>680</v>
       </c>
-      <c r="B682" s="4" t="s">
+      <c r="B682" t="s">
         <v>1399</v>
       </c>
       <c r="C682" s="3" t="s">
@@ -36996,7 +37097,7 @@
       <c r="A683">
         <v>681</v>
       </c>
-      <c r="B683" s="4" t="s">
+      <c r="B683" t="s">
         <v>1401</v>
       </c>
       <c r="C683" s="3" t="s">
@@ -37040,7 +37141,7 @@
       <c r="A684">
         <v>682</v>
       </c>
-      <c r="B684" s="4" t="s">
+      <c r="B684" t="s">
         <v>1403</v>
       </c>
       <c r="C684" s="3" t="s">
@@ -37084,7 +37185,7 @@
       <c r="A685">
         <v>683</v>
       </c>
-      <c r="B685" s="4" t="s">
+      <c r="B685" t="s">
         <v>1405</v>
       </c>
       <c r="C685" s="3" t="s">
@@ -37128,7 +37229,7 @@
       <c r="A686">
         <v>684</v>
       </c>
-      <c r="B686" s="4" t="s">
+      <c r="B686" t="s">
         <v>1407</v>
       </c>
       <c r="C686" s="3" t="s">
@@ -37172,7 +37273,7 @@
       <c r="A687">
         <v>685</v>
       </c>
-      <c r="B687" s="4" t="s">
+      <c r="B687" t="s">
         <v>1409</v>
       </c>
       <c r="C687" s="3" t="s">
@@ -37216,7 +37317,7 @@
       <c r="A688">
         <v>686</v>
       </c>
-      <c r="B688" s="4" t="s">
+      <c r="B688" t="s">
         <v>1411</v>
       </c>
       <c r="C688" s="3" t="s">
@@ -37260,7 +37361,7 @@
       <c r="A689">
         <v>687</v>
       </c>
-      <c r="B689" s="4" t="s">
+      <c r="B689" t="s">
         <v>1413</v>
       </c>
       <c r="C689" s="3" t="s">
@@ -37304,7 +37405,7 @@
       <c r="A690">
         <v>688</v>
       </c>
-      <c r="B690" s="4" t="s">
+      <c r="B690" t="s">
         <v>1415</v>
       </c>
       <c r="C690" s="3" t="s">
@@ -37348,7 +37449,7 @@
       <c r="A691">
         <v>689</v>
       </c>
-      <c r="B691" s="4" t="s">
+      <c r="B691" t="s">
         <v>1417</v>
       </c>
       <c r="C691" s="3" t="s">
@@ -37392,7 +37493,7 @@
       <c r="A692">
         <v>690</v>
       </c>
-      <c r="B692" s="4" t="s">
+      <c r="B692" t="s">
         <v>1419</v>
       </c>
       <c r="C692" s="3" t="s">
@@ -37436,7 +37537,7 @@
       <c r="A693">
         <v>691</v>
       </c>
-      <c r="B693" s="4" t="s">
+      <c r="B693" t="s">
         <v>1421</v>
       </c>
       <c r="C693" s="3" t="s">
@@ -37480,7 +37581,7 @@
       <c r="A694">
         <v>692</v>
       </c>
-      <c r="B694" s="4" t="s">
+      <c r="B694" t="s">
         <v>1423</v>
       </c>
       <c r="C694" s="3" t="s">
@@ -37524,7 +37625,7 @@
       <c r="A695">
         <v>693</v>
       </c>
-      <c r="B695" s="4" t="s">
+      <c r="B695" t="s">
         <v>1425</v>
       </c>
       <c r="C695" s="3" t="s">
@@ -37568,7 +37669,7 @@
       <c r="A696">
         <v>694</v>
       </c>
-      <c r="B696" s="4" t="s">
+      <c r="B696" t="s">
         <v>1427</v>
       </c>
       <c r="C696" s="3" t="s">
@@ -37612,7 +37713,7 @@
       <c r="A697">
         <v>695</v>
       </c>
-      <c r="B697" s="4" t="s">
+      <c r="B697" t="s">
         <v>1429</v>
       </c>
       <c r="C697" s="3" t="s">
@@ -37656,7 +37757,7 @@
       <c r="A698">
         <v>696</v>
       </c>
-      <c r="B698" s="4" t="s">
+      <c r="B698" t="s">
         <v>1431</v>
       </c>
       <c r="C698" s="3" t="s">
@@ -37700,7 +37801,7 @@
       <c r="A699">
         <v>697</v>
       </c>
-      <c r="B699" s="4" t="s">
+      <c r="B699" t="s">
         <v>1433</v>
       </c>
       <c r="C699" s="3" t="s">
@@ -37744,7 +37845,7 @@
       <c r="A700">
         <v>698</v>
       </c>
-      <c r="B700" s="4" t="s">
+      <c r="B700" t="s">
         <v>1435</v>
       </c>
       <c r="C700" s="3" t="s">
@@ -37788,7 +37889,7 @@
       <c r="A701">
         <v>699</v>
       </c>
-      <c r="B701" s="4" t="s">
+      <c r="B701" t="s">
         <v>444</v>
       </c>
       <c r="C701" s="3" t="s">
@@ -37832,7 +37933,7 @@
       <c r="A702">
         <v>700</v>
       </c>
-      <c r="B702" s="4" t="s">
+      <c r="B702" t="s">
         <v>1438</v>
       </c>
       <c r="C702" s="3" t="s">
@@ -37876,7 +37977,7 @@
       <c r="A703">
         <v>701</v>
       </c>
-      <c r="B703" s="4" t="s">
+      <c r="B703" t="s">
         <v>1440</v>
       </c>
       <c r="C703" s="3" t="s">
@@ -37920,7 +38021,7 @@
       <c r="A704">
         <v>702</v>
       </c>
-      <c r="B704" s="4" t="s">
+      <c r="B704" t="s">
         <v>1442</v>
       </c>
       <c r="C704" s="3" t="s">
@@ -37964,7 +38065,7 @@
       <c r="A705">
         <v>703</v>
       </c>
-      <c r="B705" s="4" t="s">
+      <c r="B705" t="s">
         <v>1444</v>
       </c>
       <c r="C705" s="3" t="s">
@@ -38008,7 +38109,7 @@
       <c r="A706">
         <v>704</v>
       </c>
-      <c r="B706" s="4" t="s">
+      <c r="B706" t="s">
         <v>1446</v>
       </c>
       <c r="C706" s="3" t="s">
@@ -38052,7 +38153,7 @@
       <c r="A707">
         <v>705</v>
       </c>
-      <c r="B707" s="4" t="s">
+      <c r="B707" t="s">
         <v>1448</v>
       </c>
       <c r="C707" s="3" t="s">
@@ -38096,7 +38197,7 @@
       <c r="A708">
         <v>706</v>
       </c>
-      <c r="B708" s="4" t="s">
+      <c r="B708" t="s">
         <v>1450</v>
       </c>
       <c r="C708" s="3" t="s">
@@ -38140,7 +38241,7 @@
       <c r="A709">
         <v>707</v>
       </c>
-      <c r="B709" s="4" t="s">
+      <c r="B709" t="s">
         <v>1452</v>
       </c>
       <c r="C709" s="3" t="s">
@@ -38184,7 +38285,7 @@
       <c r="A710">
         <v>708</v>
       </c>
-      <c r="B710" s="4" t="s">
+      <c r="B710" t="s">
         <v>1454</v>
       </c>
       <c r="C710" s="3" t="s">
@@ -38228,7 +38329,7 @@
       <c r="A711">
         <v>709</v>
       </c>
-      <c r="B711" s="4" t="s">
+      <c r="B711" t="s">
         <v>1456</v>
       </c>
       <c r="C711" s="3" t="s">
@@ -38272,7 +38373,7 @@
       <c r="A712">
         <v>710</v>
       </c>
-      <c r="B712" s="4" t="s">
+      <c r="B712" t="s">
         <v>1458</v>
       </c>
       <c r="C712" s="3" t="s">
@@ -38316,7 +38417,7 @@
       <c r="A713">
         <v>711</v>
       </c>
-      <c r="B713" s="4" t="s">
+      <c r="B713" t="s">
         <v>1460</v>
       </c>
       <c r="C713" s="3" t="s">
@@ -38360,7 +38461,7 @@
       <c r="A714">
         <v>712</v>
       </c>
-      <c r="B714" s="4" t="s">
+      <c r="B714" t="s">
         <v>1462</v>
       </c>
       <c r="C714" s="3" t="s">
@@ -38404,7 +38505,7 @@
       <c r="A715">
         <v>713</v>
       </c>
-      <c r="B715" s="4" t="s">
+      <c r="B715" t="s">
         <v>1464</v>
       </c>
       <c r="C715" s="3" t="s">
@@ -38448,7 +38549,7 @@
       <c r="A716">
         <v>714</v>
       </c>
-      <c r="B716" s="4" t="s">
+      <c r="B716" t="s">
         <v>1466</v>
       </c>
       <c r="C716" s="3" t="s">
@@ -38492,7 +38593,7 @@
       <c r="A717">
         <v>715</v>
       </c>
-      <c r="B717" s="4" t="s">
+      <c r="B717" t="s">
         <v>1468</v>
       </c>
       <c r="C717" s="3" t="s">
@@ -38536,7 +38637,7 @@
       <c r="A718">
         <v>716</v>
       </c>
-      <c r="B718" s="4" t="s">
+      <c r="B718" t="s">
         <v>1470</v>
       </c>
       <c r="C718" s="3" t="s">
@@ -38580,7 +38681,7 @@
       <c r="A719">
         <v>717</v>
       </c>
-      <c r="B719" s="4" t="s">
+      <c r="B719" t="s">
         <v>1472</v>
       </c>
       <c r="C719" s="3" t="s">
@@ -38624,7 +38725,7 @@
       <c r="A720">
         <v>718</v>
       </c>
-      <c r="B720" s="4" t="s">
+      <c r="B720" t="s">
         <v>1474</v>
       </c>
       <c r="C720" s="3" t="s">
@@ -38668,7 +38769,7 @@
       <c r="A721">
         <v>719</v>
       </c>
-      <c r="B721" s="4" t="s">
+      <c r="B721" t="s">
         <v>1476</v>
       </c>
       <c r="C721" s="3" t="s">
@@ -38712,7 +38813,7 @@
       <c r="A722">
         <v>720</v>
       </c>
-      <c r="B722" s="4" t="s">
+      <c r="B722" t="s">
         <v>1478</v>
       </c>
       <c r="C722" s="3" t="s">
@@ -38756,7 +38857,7 @@
       <c r="A723">
         <v>721</v>
       </c>
-      <c r="B723" s="4" t="s">
+      <c r="B723" t="s">
         <v>1480</v>
       </c>
       <c r="C723" s="3" t="s">
@@ -38800,7 +38901,7 @@
       <c r="A724">
         <v>722</v>
       </c>
-      <c r="B724" s="4" t="s">
+      <c r="B724" t="s">
         <v>1482</v>
       </c>
       <c r="C724" s="3" t="s">
@@ -38844,7 +38945,7 @@
       <c r="A725">
         <v>723</v>
       </c>
-      <c r="B725" s="4" t="s">
+      <c r="B725" t="s">
         <v>1484</v>
       </c>
       <c r="C725" s="3" t="s">
@@ -38888,7 +38989,7 @@
       <c r="A726">
         <v>724</v>
       </c>
-      <c r="B726" s="4" t="s">
+      <c r="B726" t="s">
         <v>1486</v>
       </c>
       <c r="C726" s="3" t="s">
@@ -38932,7 +39033,7 @@
       <c r="A727">
         <v>725</v>
       </c>
-      <c r="B727" s="4" t="s">
+      <c r="B727" t="s">
         <v>1488</v>
       </c>
       <c r="C727" s="3" t="s">
@@ -38976,7 +39077,7 @@
       <c r="A728">
         <v>726</v>
       </c>
-      <c r="B728" s="4" t="s">
+      <c r="B728" t="s">
         <v>1490</v>
       </c>
       <c r="C728" s="3" t="s">
@@ -39020,7 +39121,7 @@
       <c r="A729">
         <v>727</v>
       </c>
-      <c r="B729" s="4" t="s">
+      <c r="B729" t="s">
         <v>1492</v>
       </c>
       <c r="C729" s="3" t="s">
@@ -39064,7 +39165,7 @@
       <c r="A730">
         <v>728</v>
       </c>
-      <c r="B730" s="4" t="s">
+      <c r="B730" t="s">
         <v>1494</v>
       </c>
       <c r="C730" s="3" t="s">
@@ -39108,7 +39209,7 @@
       <c r="A731">
         <v>729</v>
       </c>
-      <c r="B731" s="4" t="s">
+      <c r="B731" t="s">
         <v>1496</v>
       </c>
       <c r="C731" s="3" t="s">
@@ -39152,7 +39253,7 @@
       <c r="A732">
         <v>730</v>
       </c>
-      <c r="B732" s="4" t="s">
+      <c r="B732" t="s">
         <v>1498</v>
       </c>
       <c r="C732" s="3" t="s">
@@ -39196,7 +39297,7 @@
       <c r="A733">
         <v>731</v>
       </c>
-      <c r="B733" s="4" t="s">
+      <c r="B733" t="s">
         <v>1500</v>
       </c>
       <c r="C733" s="3" t="s">
@@ -39240,7 +39341,7 @@
       <c r="A734">
         <v>732</v>
       </c>
-      <c r="B734" s="4" t="s">
+      <c r="B734" t="s">
         <v>1502</v>
       </c>
       <c r="C734" s="3" t="s">
@@ -39284,7 +39385,7 @@
       <c r="A735">
         <v>733</v>
       </c>
-      <c r="B735" s="4" t="s">
+      <c r="B735" t="s">
         <v>1504</v>
       </c>
       <c r="C735" s="3" t="s">
@@ -39328,7 +39429,7 @@
       <c r="A736">
         <v>734</v>
       </c>
-      <c r="B736" s="4" t="s">
+      <c r="B736" t="s">
         <v>1506</v>
       </c>
       <c r="C736" s="3" t="s">
@@ -39372,7 +39473,7 @@
       <c r="A737">
         <v>735</v>
       </c>
-      <c r="B737" s="4" t="s">
+      <c r="B737" t="s">
         <v>1508</v>
       </c>
       <c r="C737" s="3" t="s">
@@ -39416,7 +39517,7 @@
       <c r="A738">
         <v>736</v>
       </c>
-      <c r="B738" s="4" t="s">
+      <c r="B738" t="s">
         <v>1510</v>
       </c>
       <c r="C738" s="3" t="s">
@@ -39460,7 +39561,7 @@
       <c r="A739">
         <v>737</v>
       </c>
-      <c r="B739" s="4" t="s">
+      <c r="B739" t="s">
         <v>1512</v>
       </c>
       <c r="C739" s="3" t="s">
@@ -39504,7 +39605,7 @@
       <c r="A740">
         <v>738</v>
       </c>
-      <c r="B740" s="4" t="s">
+      <c r="B740" t="s">
         <v>1032</v>
       </c>
       <c r="C740" s="3" t="s">
@@ -39548,7 +39649,7 @@
       <c r="A741">
         <v>739</v>
       </c>
-      <c r="B741" s="4" t="s">
+      <c r="B741" t="s">
         <v>1515</v>
       </c>
       <c r="C741" s="3" t="s">
@@ -39592,7 +39693,7 @@
       <c r="A742">
         <v>740</v>
       </c>
-      <c r="B742" s="4" t="s">
+      <c r="B742" t="s">
         <v>1517</v>
       </c>
       <c r="C742" s="3" t="s">
@@ -39636,7 +39737,7 @@
       <c r="A743">
         <v>741</v>
       </c>
-      <c r="B743" s="4" t="s">
+      <c r="B743" t="s">
         <v>628</v>
       </c>
       <c r="C743" s="3" t="s">
@@ -39680,7 +39781,7 @@
       <c r="A744">
         <v>742</v>
       </c>
-      <c r="B744" s="4" t="s">
+      <c r="B744" t="s">
         <v>1520</v>
       </c>
       <c r="C744" s="3" t="s">
@@ -39724,7 +39825,7 @@
       <c r="A745">
         <v>743</v>
       </c>
-      <c r="B745" s="4" t="s">
+      <c r="B745" t="s">
         <v>1522</v>
       </c>
       <c r="C745" s="3" t="s">
@@ -39768,7 +39869,7 @@
       <c r="A746">
         <v>744</v>
       </c>
-      <c r="B746" s="4" t="s">
+      <c r="B746" t="s">
         <v>1524</v>
       </c>
       <c r="C746" s="3" t="s">
@@ -39812,7 +39913,7 @@
       <c r="A747">
         <v>745</v>
       </c>
-      <c r="B747" s="4" t="s">
+      <c r="B747" t="s">
         <v>1526</v>
       </c>
       <c r="C747" s="3" t="s">
@@ -39856,7 +39957,7 @@
       <c r="A748">
         <v>746</v>
       </c>
-      <c r="B748" s="4" t="s">
+      <c r="B748" t="s">
         <v>1528</v>
       </c>
       <c r="C748" s="3" t="s">
@@ -39900,7 +40001,7 @@
       <c r="A749">
         <v>747</v>
       </c>
-      <c r="B749" s="4" t="s">
+      <c r="B749" t="s">
         <v>1530</v>
       </c>
       <c r="C749" s="3" t="s">
@@ -39944,7 +40045,7 @@
       <c r="A750">
         <v>748</v>
       </c>
-      <c r="B750" s="4" t="s">
+      <c r="B750" t="s">
         <v>1532</v>
       </c>
       <c r="C750" s="3" t="s">
@@ -39988,7 +40089,7 @@
       <c r="A751">
         <v>749</v>
       </c>
-      <c r="B751" s="4" t="s">
+      <c r="B751" t="s">
         <v>1534</v>
       </c>
       <c r="C751" s="3" t="s">
@@ -40032,7 +40133,7 @@
       <c r="A752">
         <v>750</v>
       </c>
-      <c r="B752" s="4" t="s">
+      <c r="B752" t="s">
         <v>1536</v>
       </c>
       <c r="C752" s="3" t="s">
@@ -40076,7 +40177,7 @@
       <c r="A753">
         <v>751</v>
       </c>
-      <c r="B753" s="4" t="s">
+      <c r="B753" t="s">
         <v>1538</v>
       </c>
       <c r="C753" s="3" t="s">
@@ -40120,7 +40221,7 @@
       <c r="A754">
         <v>752</v>
       </c>
-      <c r="B754" s="4" t="s">
+      <c r="B754" t="s">
         <v>1540</v>
       </c>
       <c r="C754" s="3" t="s">
@@ -40164,7 +40265,7 @@
       <c r="A755">
         <v>753</v>
       </c>
-      <c r="B755" s="4" t="s">
+      <c r="B755" t="s">
         <v>1542</v>
       </c>
       <c r="C755" s="3" t="s">
@@ -40208,7 +40309,7 @@
       <c r="A756">
         <v>754</v>
       </c>
-      <c r="B756" s="4" t="s">
+      <c r="B756" t="s">
         <v>1544</v>
       </c>
       <c r="C756" s="3" t="s">
@@ -40252,7 +40353,7 @@
       <c r="A757">
         <v>755</v>
       </c>
-      <c r="B757" s="4" t="s">
+      <c r="B757" t="s">
         <v>1546</v>
       </c>
       <c r="C757" s="3" t="s">
@@ -40296,7 +40397,7 @@
       <c r="A758">
         <v>756</v>
       </c>
-      <c r="B758" s="4" t="s">
+      <c r="B758" t="s">
         <v>1548</v>
       </c>
       <c r="C758" s="3" t="s">
@@ -40340,7 +40441,7 @@
       <c r="A759">
         <v>757</v>
       </c>
-      <c r="B759" s="4" t="s">
+      <c r="B759" t="s">
         <v>1550</v>
       </c>
       <c r="C759" s="3" t="s">
@@ -40384,7 +40485,7 @@
       <c r="A760">
         <v>758</v>
       </c>
-      <c r="B760" s="4" t="s">
+      <c r="B760" t="s">
         <v>1552</v>
       </c>
       <c r="C760" s="3" t="s">
@@ -40428,7 +40529,7 @@
       <c r="A761">
         <v>759</v>
       </c>
-      <c r="B761" s="4" t="s">
+      <c r="B761" t="s">
         <v>1554</v>
       </c>
       <c r="C761" s="3" t="s">
@@ -40472,7 +40573,7 @@
       <c r="A762">
         <v>760</v>
       </c>
-      <c r="B762" s="4" t="s">
+      <c r="B762" t="s">
         <v>1556</v>
       </c>
       <c r="C762" s="3" t="s">
@@ -40516,7 +40617,7 @@
       <c r="A763">
         <v>761</v>
       </c>
-      <c r="B763" s="4" t="s">
+      <c r="B763" t="s">
         <v>1558</v>
       </c>
       <c r="C763" s="3" t="s">
@@ -40560,7 +40661,7 @@
       <c r="A764">
         <v>762</v>
       </c>
-      <c r="B764" s="4" t="s">
+      <c r="B764" t="s">
         <v>668</v>
       </c>
       <c r="C764" s="3" t="s">
@@ -40604,7 +40705,7 @@
       <c r="A765">
         <v>763</v>
       </c>
-      <c r="B765" s="4" t="s">
+      <c r="B765" t="s">
         <v>1561</v>
       </c>
       <c r="C765" s="3" t="s">
@@ -40648,7 +40749,7 @@
       <c r="A766">
         <v>764</v>
       </c>
-      <c r="B766" s="4" t="s">
+      <c r="B766" t="s">
         <v>1563</v>
       </c>
       <c r="C766" s="3" t="s">
@@ -40692,7 +40793,7 @@
       <c r="A767">
         <v>765</v>
       </c>
-      <c r="B767" s="4" t="s">
+      <c r="B767" t="s">
         <v>1565</v>
       </c>
       <c r="C767" s="3" t="s">
@@ -40736,7 +40837,7 @@
       <c r="A768">
         <v>766</v>
       </c>
-      <c r="B768" s="4" t="s">
+      <c r="B768" t="s">
         <v>1567</v>
       </c>
       <c r="C768" s="3" t="s">
@@ -40780,7 +40881,7 @@
       <c r="A769">
         <v>767</v>
       </c>
-      <c r="B769" s="4" t="s">
+      <c r="B769" t="s">
         <v>1569</v>
       </c>
       <c r="C769" s="3" t="s">
@@ -40824,7 +40925,7 @@
       <c r="A770">
         <v>768</v>
       </c>
-      <c r="B770" s="4" t="s">
+      <c r="B770" t="s">
         <v>1571</v>
       </c>
       <c r="C770" s="3" t="s">
@@ -40868,7 +40969,7 @@
       <c r="A771">
         <v>769</v>
       </c>
-      <c r="B771" s="4" t="s">
+      <c r="B771" t="s">
         <v>1573</v>
       </c>
       <c r="C771" s="3" t="s">
@@ -40912,7 +41013,7 @@
       <c r="A772">
         <v>770</v>
       </c>
-      <c r="B772" s="4" t="s">
+      <c r="B772" t="s">
         <v>1575</v>
       </c>
       <c r="C772" s="3" t="s">
@@ -40956,7 +41057,7 @@
       <c r="A773">
         <v>771</v>
       </c>
-      <c r="B773" s="4" t="s">
+      <c r="B773" t="s">
         <v>1577</v>
       </c>
       <c r="C773" s="3" t="s">
@@ -41000,7 +41101,7 @@
       <c r="A774">
         <v>772</v>
       </c>
-      <c r="B774" s="4" t="s">
+      <c r="B774" t="s">
         <v>1579</v>
       </c>
       <c r="C774" s="3" t="s">
@@ -41044,7 +41145,7 @@
       <c r="A775">
         <v>773</v>
       </c>
-      <c r="B775" s="4" t="s">
+      <c r="B775" t="s">
         <v>1581</v>
       </c>
       <c r="C775" s="3" t="s">
@@ -41088,7 +41189,7 @@
       <c r="A776">
         <v>774</v>
       </c>
-      <c r="B776" s="4" t="s">
+      <c r="B776" t="s">
         <v>1583</v>
       </c>
       <c r="C776" s="3" t="s">
@@ -41132,7 +41233,7 @@
       <c r="A777">
         <v>775</v>
       </c>
-      <c r="B777" s="4" t="s">
+      <c r="B777" t="s">
         <v>1585</v>
       </c>
       <c r="C777" s="3" t="s">
@@ -41176,7 +41277,7 @@
       <c r="A778">
         <v>776</v>
       </c>
-      <c r="B778" s="4" t="s">
+      <c r="B778" t="s">
         <v>1587</v>
       </c>
       <c r="C778" s="3" t="s">
@@ -41220,7 +41321,7 @@
       <c r="A779">
         <v>777</v>
       </c>
-      <c r="B779" s="4" t="s">
+      <c r="B779" t="s">
         <v>1589</v>
       </c>
       <c r="C779" s="3" t="s">
@@ -41264,7 +41365,7 @@
       <c r="A780">
         <v>778</v>
       </c>
-      <c r="B780" s="4" t="s">
+      <c r="B780" t="s">
         <v>1591</v>
       </c>
       <c r="C780" s="3" t="s">
@@ -41308,7 +41409,7 @@
       <c r="A781">
         <v>779</v>
       </c>
-      <c r="B781" s="4" t="s">
+      <c r="B781" t="s">
         <v>1593</v>
       </c>
       <c r="C781" s="3" t="s">
@@ -41352,7 +41453,7 @@
       <c r="A782">
         <v>780</v>
       </c>
-      <c r="B782" s="4" t="s">
+      <c r="B782" t="s">
         <v>1595</v>
       </c>
       <c r="C782" s="3" t="s">
@@ -41396,7 +41497,7 @@
       <c r="A783">
         <v>781</v>
       </c>
-      <c r="B783" s="4" t="s">
+      <c r="B783" t="s">
         <v>1597</v>
       </c>
       <c r="C783" s="3" t="s">
@@ -41440,7 +41541,7 @@
       <c r="A784">
         <v>782</v>
       </c>
-      <c r="B784" s="4" t="s">
+      <c r="B784" t="s">
         <v>1599</v>
       </c>
       <c r="C784" s="3" t="s">
@@ -41484,7 +41585,7 @@
       <c r="A785">
         <v>783</v>
       </c>
-      <c r="B785" s="4" t="s">
+      <c r="B785" t="s">
         <v>1601</v>
       </c>
       <c r="C785" s="3" t="s">
@@ -41528,7 +41629,7 @@
       <c r="A786">
         <v>784</v>
       </c>
-      <c r="B786" s="4" t="s">
+      <c r="B786" t="s">
         <v>1603</v>
       </c>
       <c r="C786" s="3" t="s">
@@ -41572,7 +41673,7 @@
       <c r="A787">
         <v>785</v>
       </c>
-      <c r="B787" s="4" t="s">
+      <c r="B787" t="s">
         <v>1605</v>
       </c>
       <c r="C787" s="3" t="s">
@@ -41616,7 +41717,7 @@
       <c r="A788">
         <v>786</v>
       </c>
-      <c r="B788" s="4" t="s">
+      <c r="B788" t="s">
         <v>1607</v>
       </c>
       <c r="C788" s="3" t="s">
@@ -41660,7 +41761,7 @@
       <c r="A789">
         <v>787</v>
       </c>
-      <c r="B789" s="4" t="s">
+      <c r="B789" t="s">
         <v>1609</v>
       </c>
       <c r="C789" s="3" t="s">
@@ -41704,7 +41805,7 @@
       <c r="A790">
         <v>788</v>
       </c>
-      <c r="B790" s="4" t="s">
+      <c r="B790" t="s">
         <v>1611</v>
       </c>
       <c r="C790" s="3" t="s">
@@ -41748,7 +41849,7 @@
       <c r="A791">
         <v>789</v>
       </c>
-      <c r="B791" s="4" t="s">
+      <c r="B791" t="s">
         <v>1613</v>
       </c>
       <c r="C791" s="3" t="s">
@@ -41792,7 +41893,7 @@
       <c r="A792">
         <v>790</v>
       </c>
-      <c r="B792" s="4" t="s">
+      <c r="B792" t="s">
         <v>1615</v>
       </c>
       <c r="C792" s="3" t="s">
@@ -41836,7 +41937,7 @@
       <c r="A793">
         <v>791</v>
       </c>
-      <c r="B793" s="4" t="s">
+      <c r="B793" t="s">
         <v>1617</v>
       </c>
       <c r="C793" s="3" t="s">
@@ -41880,7 +41981,7 @@
       <c r="A794">
         <v>792</v>
       </c>
-      <c r="B794" s="4" t="s">
+      <c r="B794" t="s">
         <v>1619</v>
       </c>
       <c r="C794" s="3" t="s">
@@ -41924,7 +42025,7 @@
       <c r="A795">
         <v>793</v>
       </c>
-      <c r="B795" s="4" t="s">
+      <c r="B795" t="s">
         <v>1621</v>
       </c>
       <c r="C795" s="3" t="s">
@@ -41968,7 +42069,7 @@
       <c r="A796">
         <v>794</v>
       </c>
-      <c r="B796" s="4" t="s">
+      <c r="B796" t="s">
         <v>1623</v>
       </c>
       <c r="C796" s="3" t="s">
@@ -42012,7 +42113,7 @@
       <c r="A797">
         <v>795</v>
       </c>
-      <c r="B797" s="4" t="s">
+      <c r="B797" t="s">
         <v>1625</v>
       </c>
       <c r="C797" s="3" t="s">
@@ -42056,7 +42157,7 @@
       <c r="A798">
         <v>796</v>
       </c>
-      <c r="B798" s="4" t="s">
+      <c r="B798" t="s">
         <v>1627</v>
       </c>
       <c r="C798" s="3" t="s">
@@ -42100,7 +42201,7 @@
       <c r="A799">
         <v>797</v>
       </c>
-      <c r="B799" s="4" t="s">
+      <c r="B799" t="s">
         <v>1629</v>
       </c>
       <c r="C799" s="3" t="s">
@@ -42144,7 +42245,7 @@
       <c r="A800">
         <v>798</v>
       </c>
-      <c r="B800" s="4" t="s">
+      <c r="B800" t="s">
         <v>1631</v>
       </c>
       <c r="C800" s="3" t="s">
@@ -42188,7 +42289,7 @@
       <c r="A801">
         <v>799</v>
       </c>
-      <c r="B801" s="4" t="s">
+      <c r="B801" t="s">
         <v>1633</v>
       </c>
       <c r="C801" s="3" t="s">
@@ -42232,7 +42333,7 @@
       <c r="A802">
         <v>800</v>
       </c>
-      <c r="B802" s="4" t="s">
+      <c r="B802" t="s">
         <v>1635</v>
       </c>
       <c r="C802" s="3" t="s">
@@ -42276,7 +42377,7 @@
       <c r="A803">
         <v>801</v>
       </c>
-      <c r="B803" s="4" t="s">
+      <c r="B803" t="s">
         <v>1637</v>
       </c>
       <c r="C803" s="3" t="s">
@@ -42320,7 +42421,7 @@
       <c r="A804">
         <v>802</v>
       </c>
-      <c r="B804" s="4" t="s">
+      <c r="B804" t="s">
         <v>1639</v>
       </c>
       <c r="C804" s="3" t="s">
@@ -42364,7 +42465,7 @@
       <c r="A805">
         <v>803</v>
       </c>
-      <c r="B805" s="4" t="s">
+      <c r="B805" t="s">
         <v>1641</v>
       </c>
       <c r="C805" s="3" t="s">
@@ -42408,7 +42509,7 @@
       <c r="A806">
         <v>804</v>
       </c>
-      <c r="B806" s="4" t="s">
+      <c r="B806" t="s">
         <v>1643</v>
       </c>
       <c r="C806" s="3" t="s">
@@ -42452,7 +42553,7 @@
       <c r="A807">
         <v>805</v>
       </c>
-      <c r="B807" s="4" t="s">
+      <c r="B807" t="s">
         <v>1645</v>
       </c>
       <c r="C807" s="3" t="s">
@@ -42496,7 +42597,7 @@
       <c r="A808">
         <v>806</v>
       </c>
-      <c r="B808" s="4" t="s">
+      <c r="B808" t="s">
         <v>1647</v>
       </c>
       <c r="C808" s="3" t="s">
@@ -42540,7 +42641,7 @@
       <c r="A809">
         <v>807</v>
       </c>
-      <c r="B809" s="4" t="s">
+      <c r="B809" t="s">
         <v>1649</v>
       </c>
       <c r="C809" s="3" t="s">
@@ -42584,7 +42685,7 @@
       <c r="A810">
         <v>808</v>
       </c>
-      <c r="B810" s="4" t="s">
+      <c r="B810" t="s">
         <v>1651</v>
       </c>
       <c r="C810" s="3" t="s">
@@ -42628,7 +42729,7 @@
       <c r="A811">
         <v>809</v>
       </c>
-      <c r="B811" s="4" t="s">
+      <c r="B811" t="s">
         <v>1599</v>
       </c>
       <c r="C811" s="3" t="s">
@@ -42672,7 +42773,7 @@
       <c r="A812">
         <v>810</v>
       </c>
-      <c r="B812" s="4" t="s">
+      <c r="B812" t="s">
         <v>1654</v>
       </c>
       <c r="C812" s="3" t="s">
@@ -42716,7 +42817,7 @@
       <c r="A813">
         <v>811</v>
       </c>
-      <c r="B813" s="4" t="s">
+      <c r="B813" t="s">
         <v>1656</v>
       </c>
       <c r="C813" s="3" t="s">
@@ -42760,7 +42861,7 @@
       <c r="A814">
         <v>812</v>
       </c>
-      <c r="B814" s="4" t="s">
+      <c r="B814" t="s">
         <v>1658</v>
       </c>
       <c r="C814" s="3" t="s">
@@ -42804,7 +42905,7 @@
       <c r="A815">
         <v>813</v>
       </c>
-      <c r="B815" s="4" t="s">
+      <c r="B815" t="s">
         <v>1660</v>
       </c>
       <c r="C815" s="3" t="s">
@@ -42848,7 +42949,7 @@
       <c r="A816">
         <v>814</v>
       </c>
-      <c r="B816" s="4" t="s">
+      <c r="B816" t="s">
         <v>1662</v>
       </c>
       <c r="C816" s="3" t="s">
@@ -42892,7 +42993,7 @@
       <c r="A817">
         <v>815</v>
       </c>
-      <c r="B817" s="4" t="s">
+      <c r="B817" t="s">
         <v>1664</v>
       </c>
       <c r="C817" s="3" t="s">
@@ -42936,7 +43037,7 @@
       <c r="A818">
         <v>816</v>
       </c>
-      <c r="B818" s="4" t="s">
+      <c r="B818" t="s">
         <v>1666</v>
       </c>
       <c r="C818" s="3" t="s">
@@ -42980,7 +43081,7 @@
       <c r="A819">
         <v>817</v>
       </c>
-      <c r="B819" s="4" t="s">
+      <c r="B819" t="s">
         <v>1668</v>
       </c>
       <c r="C819" s="3" t="s">
@@ -43024,7 +43125,7 @@
       <c r="A820">
         <v>818</v>
       </c>
-      <c r="B820" s="4" t="s">
+      <c r="B820" t="s">
         <v>676</v>
       </c>
       <c r="C820" s="3" t="s">
@@ -43068,7 +43169,7 @@
       <c r="A821">
         <v>819</v>
       </c>
-      <c r="B821" s="4" t="s">
+      <c r="B821" t="s">
         <v>1671</v>
       </c>
       <c r="C821" s="3" t="s">
@@ -43112,7 +43213,7 @@
       <c r="A822">
         <v>820</v>
       </c>
-      <c r="B822" s="4" t="s">
+      <c r="B822" t="s">
         <v>1673</v>
       </c>
       <c r="C822" s="3" t="s">
@@ -43156,7 +43257,7 @@
       <c r="A823">
         <v>821</v>
       </c>
-      <c r="B823" s="4" t="s">
+      <c r="B823" t="s">
         <v>1675</v>
       </c>
       <c r="C823" s="3" t="s">
@@ -43200,7 +43301,7 @@
       <c r="A824">
         <v>822</v>
       </c>
-      <c r="B824" s="4" t="s">
+      <c r="B824" t="s">
         <v>1677</v>
       </c>
       <c r="C824" s="3" t="s">
@@ -43244,7 +43345,7 @@
       <c r="A825">
         <v>823</v>
       </c>
-      <c r="B825" s="4" t="s">
+      <c r="B825" t="s">
         <v>1679</v>
       </c>
       <c r="C825" s="3" t="s">
@@ -43288,7 +43389,7 @@
       <c r="A826">
         <v>824</v>
       </c>
-      <c r="B826" s="4" t="s">
+      <c r="B826" t="s">
         <v>1681</v>
       </c>
       <c r="C826" s="3" t="s">
@@ -43332,7 +43433,7 @@
       <c r="A827">
         <v>825</v>
       </c>
-      <c r="B827" s="4" t="s">
+      <c r="B827" t="s">
         <v>1683</v>
       </c>
       <c r="C827" s="3" t="s">
@@ -43376,7 +43477,7 @@
       <c r="A828">
         <v>826</v>
       </c>
-      <c r="B828" s="4" t="s">
+      <c r="B828" t="s">
         <v>1685</v>
       </c>
       <c r="C828" s="3" t="s">
@@ -43420,7 +43521,7 @@
       <c r="A829">
         <v>827</v>
       </c>
-      <c r="B829" s="4" t="s">
+      <c r="B829" t="s">
         <v>1687</v>
       </c>
       <c r="C829" s="3" t="s">
@@ -43464,7 +43565,7 @@
       <c r="A830">
         <v>828</v>
       </c>
-      <c r="B830" s="4" t="s">
+      <c r="B830" t="s">
         <v>1689</v>
       </c>
       <c r="C830" s="3" t="s">
@@ -43508,7 +43609,7 @@
       <c r="A831">
         <v>829</v>
       </c>
-      <c r="B831" s="4" t="s">
+      <c r="B831" t="s">
         <v>1691</v>
       </c>
       <c r="C831" s="3" t="s">
@@ -43552,7 +43653,7 @@
       <c r="A832">
         <v>830</v>
       </c>
-      <c r="B832" s="4" t="s">
+      <c r="B832" t="s">
         <v>1693</v>
       </c>
       <c r="C832" s="3" t="s">
@@ -43596,7 +43697,7 @@
       <c r="A833">
         <v>831</v>
       </c>
-      <c r="B833" s="4" t="s">
+      <c r="B833" t="s">
         <v>1695</v>
       </c>
       <c r="C833" s="3" t="s">
@@ -43640,7 +43741,7 @@
       <c r="A834">
         <v>832</v>
       </c>
-      <c r="B834" s="4" t="s">
+      <c r="B834" t="s">
         <v>1697</v>
       </c>
       <c r="C834" s="3" t="s">
@@ -43684,7 +43785,7 @@
       <c r="A835">
         <v>833</v>
       </c>
-      <c r="B835" s="4" t="s">
+      <c r="B835" t="s">
         <v>1699</v>
       </c>
       <c r="C835" s="3" t="s">
@@ -43728,7 +43829,7 @@
       <c r="A836">
         <v>834</v>
       </c>
-      <c r="B836" s="4" t="s">
+      <c r="B836" t="s">
         <v>1701</v>
       </c>
       <c r="C836" s="3" t="s">
@@ -43772,7 +43873,7 @@
       <c r="A837">
         <v>835</v>
       </c>
-      <c r="B837" s="4" t="s">
+      <c r="B837" t="s">
         <v>1703</v>
       </c>
       <c r="C837" s="3" t="s">
@@ -43816,7 +43917,7 @@
       <c r="A838">
         <v>836</v>
       </c>
-      <c r="B838" s="4" t="s">
+      <c r="B838" t="s">
         <v>1705</v>
       </c>
       <c r="C838" s="3" t="s">
@@ -43860,7 +43961,7 @@
       <c r="A839">
         <v>837</v>
       </c>
-      <c r="B839" s="4" t="s">
+      <c r="B839" t="s">
         <v>1707</v>
       </c>
       <c r="C839" s="3" t="s">
@@ -43904,7 +44005,7 @@
       <c r="A840">
         <v>838</v>
       </c>
-      <c r="B840" s="4" t="s">
+      <c r="B840" t="s">
         <v>1709</v>
       </c>
       <c r="C840" s="3" t="s">
@@ -43948,7 +44049,7 @@
       <c r="A841">
         <v>839</v>
       </c>
-      <c r="B841" s="4" t="s">
+      <c r="B841" t="s">
         <v>1711</v>
       </c>
       <c r="C841" s="3" t="s">
@@ -43992,7 +44093,7 @@
       <c r="A842">
         <v>840</v>
       </c>
-      <c r="B842" s="4" t="s">
+      <c r="B842" t="s">
         <v>1713</v>
       </c>
       <c r="C842" s="3" t="s">
@@ -44036,7 +44137,7 @@
       <c r="A843">
         <v>841</v>
       </c>
-      <c r="B843" s="4" t="s">
+      <c r="B843" t="s">
         <v>1715</v>
       </c>
       <c r="C843" s="3" t="s">
@@ -44080,7 +44181,7 @@
       <c r="A844">
         <v>842</v>
       </c>
-      <c r="B844" s="4" t="s">
+      <c r="B844" t="s">
         <v>1717</v>
       </c>
       <c r="C844" s="3" t="s">
@@ -44124,7 +44225,7 @@
       <c r="A845">
         <v>843</v>
       </c>
-      <c r="B845" s="4" t="s">
+      <c r="B845" t="s">
         <v>1719</v>
       </c>
       <c r="C845" s="3" t="s">
@@ -44168,7 +44269,7 @@
       <c r="A846">
         <v>844</v>
       </c>
-      <c r="B846" s="4" t="s">
+      <c r="B846" t="s">
         <v>1721</v>
       </c>
       <c r="C846" s="3" t="s">
@@ -44212,7 +44313,7 @@
       <c r="A847">
         <v>845</v>
       </c>
-      <c r="B847" s="4" t="s">
+      <c r="B847" t="s">
         <v>1723</v>
       </c>
       <c r="C847" s="3" t="s">
@@ -44256,7 +44357,7 @@
       <c r="A848">
         <v>846</v>
       </c>
-      <c r="B848" s="4" t="s">
+      <c r="B848" t="s">
         <v>1725</v>
       </c>
       <c r="C848" s="3" t="s">
@@ -44300,7 +44401,7 @@
       <c r="A849">
         <v>847</v>
       </c>
-      <c r="B849" s="4" t="s">
+      <c r="B849" t="s">
         <v>1727</v>
       </c>
       <c r="C849" s="3" t="s">
@@ -44344,7 +44445,7 @@
       <c r="A850">
         <v>848</v>
       </c>
-      <c r="B850" s="4" t="s">
+      <c r="B850" t="s">
         <v>1729</v>
       </c>
       <c r="C850" s="3" t="s">
@@ -44388,7 +44489,7 @@
       <c r="A851">
         <v>849</v>
       </c>
-      <c r="B851" s="4" t="s">
+      <c r="B851" t="s">
         <v>1731</v>
       </c>
       <c r="C851" s="3" t="s">
@@ -44432,7 +44533,7 @@
       <c r="A852">
         <v>850</v>
       </c>
-      <c r="B852" s="4" t="s">
+      <c r="B852" t="s">
         <v>1733</v>
       </c>
       <c r="C852" s="3" t="s">
@@ -44476,7 +44577,7 @@
       <c r="A853">
         <v>851</v>
       </c>
-      <c r="B853" s="4" t="s">
+      <c r="B853" t="s">
         <v>1735</v>
       </c>
       <c r="C853" s="3" t="s">
@@ -44520,7 +44621,7 @@
       <c r="A854">
         <v>852</v>
       </c>
-      <c r="B854" s="4" t="s">
+      <c r="B854" t="s">
         <v>1737</v>
       </c>
       <c r="C854" s="3" t="s">
@@ -44564,7 +44665,7 @@
       <c r="A855">
         <v>853</v>
       </c>
-      <c r="B855" s="4" t="s">
+      <c r="B855" t="s">
         <v>1739</v>
       </c>
       <c r="C855" s="3" t="s">
@@ -44608,7 +44709,7 @@
       <c r="A856">
         <v>854</v>
       </c>
-      <c r="B856" s="4" t="s">
+      <c r="B856" t="s">
         <v>1741</v>
       </c>
       <c r="C856" s="3" t="s">
@@ -44652,7 +44753,7 @@
       <c r="A857">
         <v>855</v>
       </c>
-      <c r="B857" s="4" t="s">
+      <c r="B857" t="s">
         <v>1743</v>
       </c>
       <c r="C857" s="3" t="s">
@@ -44696,7 +44797,7 @@
       <c r="A858">
         <v>856</v>
       </c>
-      <c r="B858" s="4" t="s">
+      <c r="B858" t="s">
         <v>1599</v>
       </c>
       <c r="C858" s="3" t="s">
@@ -44740,7 +44841,7 @@
       <c r="A859">
         <v>857</v>
       </c>
-      <c r="B859" s="4" t="s">
+      <c r="B859" t="s">
         <v>1746</v>
       </c>
       <c r="C859" s="3" t="s">
@@ -44784,7 +44885,7 @@
       <c r="A860">
         <v>858</v>
       </c>
-      <c r="B860" s="4" t="s">
+      <c r="B860" t="s">
         <v>1748</v>
       </c>
       <c r="C860" s="3" t="s">
@@ -44828,7 +44929,7 @@
       <c r="A861">
         <v>859</v>
       </c>
-      <c r="B861" s="4" t="s">
+      <c r="B861" t="s">
         <v>1750</v>
       </c>
       <c r="C861" s="3" t="s">
@@ -44872,7 +44973,7 @@
       <c r="A862">
         <v>860</v>
       </c>
-      <c r="B862" s="4" t="s">
+      <c r="B862" t="s">
         <v>1752</v>
       </c>
       <c r="C862" s="3" t="s">
@@ -44916,7 +45017,7 @@
       <c r="A863">
         <v>861</v>
       </c>
-      <c r="B863" s="4" t="s">
+      <c r="B863" t="s">
         <v>1754</v>
       </c>
       <c r="C863" s="3" t="s">
@@ -44960,7 +45061,7 @@
       <c r="A864">
         <v>862</v>
       </c>
-      <c r="B864" s="4" t="s">
+      <c r="B864" t="s">
         <v>1756</v>
       </c>
       <c r="C864" s="3" t="s">
@@ -45004,7 +45105,7 @@
       <c r="A865">
         <v>863</v>
       </c>
-      <c r="B865" s="4" t="s">
+      <c r="B865" t="s">
         <v>1758</v>
       </c>
       <c r="C865" s="3" t="s">
@@ -45048,7 +45149,7 @@
       <c r="A866">
         <v>864</v>
       </c>
-      <c r="B866" s="4" t="s">
+      <c r="B866" t="s">
         <v>1760</v>
       </c>
       <c r="C866" s="3" t="s">
@@ -45092,7 +45193,7 @@
       <c r="A867">
         <v>865</v>
       </c>
-      <c r="B867" s="4" t="s">
+      <c r="B867" t="s">
         <v>1762</v>
       </c>
       <c r="C867" s="3" t="s">
@@ -45136,7 +45237,7 @@
       <c r="A868">
         <v>866</v>
       </c>
-      <c r="B868" s="4" t="s">
+      <c r="B868" t="s">
         <v>1764</v>
       </c>
       <c r="C868" s="3" t="s">
@@ -45180,7 +45281,7 @@
       <c r="A869">
         <v>867</v>
       </c>
-      <c r="B869" s="4" t="s">
+      <c r="B869" t="s">
         <v>1766</v>
       </c>
       <c r="C869" s="3" t="s">
@@ -45224,7 +45325,7 @@
       <c r="A870">
         <v>868</v>
       </c>
-      <c r="B870" s="4" t="s">
+      <c r="B870" t="s">
         <v>1768</v>
       </c>
       <c r="C870" s="3" t="s">
@@ -45268,7 +45369,7 @@
       <c r="A871">
         <v>869</v>
       </c>
-      <c r="B871" s="4" t="s">
+      <c r="B871" t="s">
         <v>1770</v>
       </c>
       <c r="C871" s="3" t="s">
@@ -45312,7 +45413,7 @@
       <c r="A872">
         <v>870</v>
       </c>
-      <c r="B872" s="4" t="s">
+      <c r="B872" t="s">
         <v>1772</v>
       </c>
       <c r="C872" s="3" t="s">
@@ -45356,7 +45457,7 @@
       <c r="A873">
         <v>871</v>
       </c>
-      <c r="B873" s="4" t="s">
+      <c r="B873" t="s">
         <v>1774</v>
       </c>
       <c r="C873" s="3" t="s">
@@ -45400,7 +45501,7 @@
       <c r="A874">
         <v>872</v>
       </c>
-      <c r="B874" s="4" t="s">
+      <c r="B874" t="s">
         <v>1776</v>
       </c>
       <c r="C874" s="3" t="s">
@@ -45444,7 +45545,7 @@
       <c r="A875">
         <v>873</v>
       </c>
-      <c r="B875" s="4" t="s">
+      <c r="B875" t="s">
         <v>1778</v>
       </c>
       <c r="C875" s="3" t="s">
@@ -45488,7 +45589,7 @@
       <c r="A876">
         <v>874</v>
       </c>
-      <c r="B876" s="4" t="s">
+      <c r="B876" t="s">
         <v>1780</v>
       </c>
       <c r="C876" s="3" t="s">
@@ -45532,7 +45633,7 @@
       <c r="A877">
         <v>875</v>
       </c>
-      <c r="B877" s="4" t="s">
+      <c r="B877" t="s">
         <v>1782</v>
       </c>
       <c r="C877" s="3" t="s">
@@ -45576,7 +45677,7 @@
       <c r="A878">
         <v>876</v>
       </c>
-      <c r="B878" s="4" t="s">
+      <c r="B878" t="s">
         <v>1784</v>
       </c>
       <c r="C878" s="3" t="s">
@@ -45620,7 +45721,7 @@
       <c r="A879">
         <v>877</v>
       </c>
-      <c r="B879" s="4" t="s">
+      <c r="B879" t="s">
         <v>1786</v>
       </c>
       <c r="C879" s="3" t="s">
@@ -45664,7 +45765,7 @@
       <c r="A880">
         <v>878</v>
       </c>
-      <c r="B880" s="4" t="s">
+      <c r="B880" t="s">
         <v>1788</v>
       </c>
       <c r="C880" s="3" t="s">
@@ -45708,7 +45809,7 @@
       <c r="A881">
         <v>879</v>
       </c>
-      <c r="B881" s="4" t="s">
+      <c r="B881" t="s">
         <v>1790</v>
       </c>
       <c r="C881" s="3" t="s">
@@ -45752,7 +45853,7 @@
       <c r="A882">
         <v>880</v>
       </c>
-      <c r="B882" s="4" t="s">
+      <c r="B882" t="s">
         <v>1792</v>
       </c>
       <c r="C882" s="3" t="s">
@@ -45796,7 +45897,7 @@
       <c r="A883">
         <v>881</v>
       </c>
-      <c r="B883" s="4" t="s">
+      <c r="B883" t="s">
         <v>1794</v>
       </c>
       <c r="C883" s="3" t="s">
@@ -45840,7 +45941,7 @@
       <c r="A884">
         <v>882</v>
       </c>
-      <c r="B884" s="4" t="s">
+      <c r="B884" t="s">
         <v>1796</v>
       </c>
       <c r="C884" s="3" t="s">
@@ -45884,7 +45985,7 @@
       <c r="A885">
         <v>883</v>
       </c>
-      <c r="B885" s="4" t="s">
+      <c r="B885" t="s">
         <v>1798</v>
       </c>
       <c r="C885" s="3" t="s">
@@ -45928,7 +46029,7 @@
       <c r="A886">
         <v>884</v>
       </c>
-      <c r="B886" s="4" t="s">
+      <c r="B886" t="s">
         <v>1800</v>
       </c>
       <c r="C886" s="3" t="s">
@@ -45972,7 +46073,7 @@
       <c r="A887">
         <v>885</v>
       </c>
-      <c r="B887" s="4" t="s">
+      <c r="B887" t="s">
         <v>1802</v>
       </c>
       <c r="C887" s="3" t="s">
@@ -46016,7 +46117,7 @@
       <c r="A888">
         <v>886</v>
       </c>
-      <c r="B888" s="4" t="s">
+      <c r="B888" t="s">
         <v>1804</v>
       </c>
       <c r="C888" s="3" t="s">
@@ -46060,7 +46161,7 @@
       <c r="A889">
         <v>887</v>
       </c>
-      <c r="B889" s="4" t="s">
+      <c r="B889" t="s">
         <v>1806</v>
       </c>
       <c r="C889" s="3" t="s">
@@ -46104,7 +46205,7 @@
       <c r="A890">
         <v>888</v>
       </c>
-      <c r="B890" s="4" t="s">
+      <c r="B890" t="s">
         <v>1808</v>
       </c>
       <c r="C890" s="3" t="s">
@@ -46148,7 +46249,7 @@
       <c r="A891">
         <v>889</v>
       </c>
-      <c r="B891" s="4" t="s">
+      <c r="B891" t="s">
         <v>1810</v>
       </c>
       <c r="C891" s="3" t="s">
@@ -46192,7 +46293,7 @@
       <c r="A892">
         <v>890</v>
       </c>
-      <c r="B892" s="4" t="s">
+      <c r="B892" t="s">
         <v>1812</v>
       </c>
       <c r="C892" s="3" t="s">
@@ -46236,7 +46337,7 @@
       <c r="A893">
         <v>891</v>
       </c>
-      <c r="B893" s="4" t="s">
+      <c r="B893" t="s">
         <v>1814</v>
       </c>
       <c r="C893" s="3" t="s">
@@ -46280,7 +46381,7 @@
       <c r="A894">
         <v>892</v>
       </c>
-      <c r="B894" s="4" t="s">
+      <c r="B894" t="s">
         <v>1816</v>
       </c>
       <c r="C894" s="3" t="s">
@@ -46324,7 +46425,7 @@
       <c r="A895">
         <v>893</v>
       </c>
-      <c r="B895" s="4" t="s">
+      <c r="B895" t="s">
         <v>1818</v>
       </c>
       <c r="C895" s="3" t="s">
@@ -46368,7 +46469,7 @@
       <c r="A896">
         <v>894</v>
       </c>
-      <c r="B896" s="4" t="s">
+      <c r="B896" t="s">
         <v>1820</v>
       </c>
       <c r="C896" s="3" t="s">
@@ -46412,7 +46513,7 @@
       <c r="A897">
         <v>895</v>
       </c>
-      <c r="B897" s="4" t="s">
+      <c r="B897" t="s">
         <v>1822</v>
       </c>
       <c r="C897" s="3" t="s">
@@ -46456,7 +46557,7 @@
       <c r="A898">
         <v>896</v>
       </c>
-      <c r="B898" s="4" t="s">
+      <c r="B898" t="s">
         <v>1824</v>
       </c>
       <c r="C898" s="3" t="s">
@@ -46500,7 +46601,7 @@
       <c r="A899">
         <v>897</v>
       </c>
-      <c r="B899" s="4" t="s">
+      <c r="B899" t="s">
         <v>1826</v>
       </c>
       <c r="C899" s="3" t="s">
@@ -46544,7 +46645,7 @@
       <c r="A900">
         <v>898</v>
       </c>
-      <c r="B900" s="4" t="s">
+      <c r="B900" t="s">
         <v>1828</v>
       </c>
       <c r="C900" s="3" t="s">
@@ -46588,7 +46689,7 @@
       <c r="A901">
         <v>899</v>
       </c>
-      <c r="B901" s="4" t="s">
+      <c r="B901" t="s">
         <v>1830</v>
       </c>
       <c r="C901" s="3" t="s">
@@ -46632,7 +46733,7 @@
       <c r="A902">
         <v>900</v>
       </c>
-      <c r="B902" s="4" t="s">
+      <c r="B902" t="s">
         <v>1832</v>
       </c>
       <c r="C902" s="3" t="s">
@@ -46676,7 +46777,7 @@
       <c r="A903">
         <v>901</v>
       </c>
-      <c r="B903" s="4" t="s">
+      <c r="B903" t="s">
         <v>1834</v>
       </c>
       <c r="C903" s="3" t="s">
@@ -46720,7 +46821,7 @@
       <c r="A904">
         <v>902</v>
       </c>
-      <c r="B904" s="4" t="s">
+      <c r="B904" t="s">
         <v>1836</v>
       </c>
       <c r="C904" s="3" t="s">
@@ -46764,7 +46865,7 @@
       <c r="A905">
         <v>903</v>
       </c>
-      <c r="B905" s="4" t="s">
+      <c r="B905" t="s">
         <v>1838</v>
       </c>
       <c r="C905" s="3" t="s">
@@ -46808,7 +46909,7 @@
       <c r="A906">
         <v>904</v>
       </c>
-      <c r="B906" s="4" t="s">
+      <c r="B906" t="s">
         <v>1840</v>
       </c>
       <c r="C906" s="3" t="s">
@@ -46852,7 +46953,7 @@
       <c r="A907">
         <v>905</v>
       </c>
-      <c r="B907" s="4" t="s">
+      <c r="B907" t="s">
         <v>1842</v>
       </c>
       <c r="C907" s="3" t="s">
@@ -46896,7 +46997,7 @@
       <c r="A908">
         <v>906</v>
       </c>
-      <c r="B908" s="4" t="s">
+      <c r="B908" t="s">
         <v>1844</v>
       </c>
       <c r="C908" s="3" t="s">
@@ -46940,7 +47041,7 @@
       <c r="A909">
         <v>907</v>
       </c>
-      <c r="B909" s="4" t="s">
+      <c r="B909" t="s">
         <v>1846</v>
       </c>
       <c r="C909" s="3" t="s">
@@ -46984,7 +47085,7 @@
       <c r="A910">
         <v>908</v>
       </c>
-      <c r="B910" s="4" t="s">
+      <c r="B910" t="s">
         <v>1848</v>
       </c>
       <c r="C910" s="3" t="s">
@@ -47028,7 +47129,7 @@
       <c r="A911">
         <v>909</v>
       </c>
-      <c r="B911" s="4" t="s">
+      <c r="B911" t="s">
         <v>1850</v>
       </c>
       <c r="C911" s="3" t="s">
@@ -47072,7 +47173,7 @@
       <c r="A912">
         <v>910</v>
       </c>
-      <c r="B912" s="4" t="s">
+      <c r="B912" t="s">
         <v>1852</v>
       </c>
       <c r="C912" s="3" t="s">
@@ -47116,7 +47217,7 @@
       <c r="A913">
         <v>911</v>
       </c>
-      <c r="B913" s="4" t="s">
+      <c r="B913" t="s">
         <v>1854</v>
       </c>
       <c r="C913" s="3" t="s">
@@ -47160,7 +47261,7 @@
       <c r="A914">
         <v>912</v>
       </c>
-      <c r="B914" s="4" t="s">
+      <c r="B914" t="s">
         <v>1856</v>
       </c>
       <c r="C914" s="3" t="s">
@@ -47204,7 +47305,7 @@
       <c r="A915">
         <v>913</v>
       </c>
-      <c r="B915" s="4" t="s">
+      <c r="B915" t="s">
         <v>1858</v>
       </c>
       <c r="C915" s="3" t="s">
@@ -47248,7 +47349,7 @@
       <c r="A916">
         <v>914</v>
       </c>
-      <c r="B916" s="4" t="s">
+      <c r="B916" t="s">
         <v>1860</v>
       </c>
       <c r="C916" s="3" t="s">
@@ -47292,7 +47393,7 @@
       <c r="A917">
         <v>915</v>
       </c>
-      <c r="B917" s="4" t="s">
+      <c r="B917" t="s">
         <v>1862</v>
       </c>
       <c r="C917" s="3" t="s">
@@ -47336,7 +47437,7 @@
       <c r="A918">
         <v>916</v>
       </c>
-      <c r="B918" s="4" t="s">
+      <c r="B918" t="s">
         <v>1864</v>
       </c>
       <c r="C918" s="3" t="s">
@@ -47380,7 +47481,7 @@
       <c r="A919">
         <v>917</v>
       </c>
-      <c r="B919" s="4" t="s">
+      <c r="B919" t="s">
         <v>1866</v>
       </c>
       <c r="C919" s="3" t="s">
@@ -47424,7 +47525,7 @@
       <c r="A920">
         <v>918</v>
       </c>
-      <c r="B920" s="4" t="s">
+      <c r="B920" t="s">
         <v>1868</v>
       </c>
       <c r="C920" s="3" t="s">
@@ -47468,7 +47569,7 @@
       <c r="A921">
         <v>919</v>
       </c>
-      <c r="B921" s="4" t="s">
+      <c r="B921" t="s">
         <v>1870</v>
       </c>
       <c r="C921" s="3" t="s">
@@ -47512,7 +47613,7 @@
       <c r="A922">
         <v>920</v>
       </c>
-      <c r="B922" s="4" t="s">
+      <c r="B922" t="s">
         <v>1872</v>
       </c>
       <c r="C922" s="3" t="s">
@@ -47556,7 +47657,7 @@
       <c r="A923">
         <v>921</v>
       </c>
-      <c r="B923" s="4" t="s">
+      <c r="B923" t="s">
         <v>1874</v>
       </c>
       <c r="C923" s="3" t="s">
@@ -47600,7 +47701,7 @@
       <c r="A924">
         <v>922</v>
       </c>
-      <c r="B924" s="4" t="s">
+      <c r="B924" t="s">
         <v>1876</v>
       </c>
       <c r="C924" s="3" t="s">
@@ -47644,7 +47745,7 @@
       <c r="A925">
         <v>923</v>
       </c>
-      <c r="B925" s="4" t="s">
+      <c r="B925" t="s">
         <v>1878</v>
       </c>
       <c r="C925" s="3" t="s">
@@ -47688,7 +47789,7 @@
       <c r="A926">
         <v>924</v>
       </c>
-      <c r="B926" s="4" t="s">
+      <c r="B926" t="s">
         <v>1880</v>
       </c>
       <c r="C926" s="3" t="s">
@@ -47732,7 +47833,7 @@
       <c r="A927">
         <v>925</v>
       </c>
-      <c r="B927" s="4" t="s">
+      <c r="B927" t="s">
         <v>1882</v>
       </c>
       <c r="C927" s="3" t="s">
@@ -47776,7 +47877,7 @@
       <c r="A928">
         <v>926</v>
       </c>
-      <c r="B928" s="4" t="s">
+      <c r="B928" t="s">
         <v>1884</v>
       </c>
       <c r="C928" s="3" t="s">
@@ -47820,7 +47921,7 @@
       <c r="A929">
         <v>927</v>
       </c>
-      <c r="B929" s="4" t="s">
+      <c r="B929" t="s">
         <v>1886</v>
       </c>
       <c r="C929" s="3" t="s">
@@ -47864,7 +47965,7 @@
       <c r="A930">
         <v>928</v>
       </c>
-      <c r="B930" s="4" t="s">
+      <c r="B930" t="s">
         <v>1888</v>
       </c>
       <c r="C930" s="3" t="s">
@@ -47908,7 +48009,7 @@
       <c r="A931">
         <v>929</v>
       </c>
-      <c r="B931" s="4" t="s">
+      <c r="B931" t="s">
         <v>1890</v>
       </c>
       <c r="C931" s="3" t="s">
@@ -47952,7 +48053,7 @@
       <c r="A932">
         <v>930</v>
       </c>
-      <c r="B932" s="4" t="s">
+      <c r="B932" t="s">
         <v>1892</v>
       </c>
       <c r="C932" s="3" t="s">
@@ -47996,7 +48097,7 @@
       <c r="A933">
         <v>931</v>
       </c>
-      <c r="B933" s="4" t="s">
+      <c r="B933" t="s">
         <v>1894</v>
       </c>
       <c r="C933" s="3" t="s">
@@ -48040,7 +48141,7 @@
       <c r="A934">
         <v>932</v>
       </c>
-      <c r="B934" s="4" t="s">
+      <c r="B934" t="s">
         <v>1896</v>
       </c>
       <c r="C934" s="3" t="s">
@@ -48084,7 +48185,7 @@
       <c r="A935">
         <v>933</v>
       </c>
-      <c r="B935" s="4" t="s">
+      <c r="B935" t="s">
         <v>1898</v>
       </c>
       <c r="C935" s="3" t="s">
@@ -48128,7 +48229,7 @@
       <c r="A936">
         <v>934</v>
       </c>
-      <c r="B936" s="4" t="s">
+      <c r="B936" t="s">
         <v>1900</v>
       </c>
       <c r="C936" s="3" t="s">
@@ -48172,7 +48273,7 @@
       <c r="A937">
         <v>935</v>
       </c>
-      <c r="B937" s="4" t="s">
+      <c r="B937" t="s">
         <v>1902</v>
       </c>
       <c r="C937" s="3" t="s">
@@ -48216,7 +48317,7 @@
       <c r="A938">
         <v>936</v>
       </c>
-      <c r="B938" s="4" t="s">
+      <c r="B938" t="s">
         <v>1246</v>
       </c>
       <c r="C938" s="3" t="s">
@@ -48260,7 +48361,7 @@
       <c r="A939">
         <v>937</v>
       </c>
-      <c r="B939" s="4" t="s">
+      <c r="B939" t="s">
         <v>1905</v>
       </c>
       <c r="C939" s="3" t="s">
@@ -48304,7 +48405,7 @@
       <c r="A940">
         <v>938</v>
       </c>
-      <c r="B940" s="4" t="s">
+      <c r="B940" t="s">
         <v>1907</v>
       </c>
       <c r="C940" s="3" t="s">
@@ -48348,7 +48449,7 @@
       <c r="A941">
         <v>939</v>
       </c>
-      <c r="B941" s="4" t="s">
+      <c r="B941" t="s">
         <v>1909</v>
       </c>
       <c r="C941" s="3" t="s">
@@ -48392,7 +48493,7 @@
       <c r="A942">
         <v>940</v>
       </c>
-      <c r="B942" s="4" t="s">
+      <c r="B942" t="s">
         <v>1911</v>
       </c>
       <c r="C942" s="3" t="s">
@@ -48436,7 +48537,7 @@
       <c r="A943">
         <v>941</v>
       </c>
-      <c r="B943" s="4" t="s">
+      <c r="B943" t="s">
         <v>1913</v>
       </c>
       <c r="C943" s="3" t="s">
@@ -48480,7 +48581,7 @@
       <c r="A944">
         <v>942</v>
       </c>
-      <c r="B944" s="4" t="s">
+      <c r="B944" t="s">
         <v>1907</v>
       </c>
       <c r="C944" s="3" t="s">
@@ -48524,7 +48625,7 @@
       <c r="A945">
         <v>943</v>
       </c>
-      <c r="B945" s="4" t="s">
+      <c r="B945" t="s">
         <v>1916</v>
       </c>
       <c r="C945" s="3" t="s">
@@ -48568,7 +48669,7 @@
       <c r="A946">
         <v>944</v>
       </c>
-      <c r="B946" s="4" t="s">
+      <c r="B946" t="s">
         <v>1918</v>
       </c>
       <c r="C946" s="3" t="s">
@@ -48612,7 +48713,7 @@
       <c r="A947">
         <v>945</v>
       </c>
-      <c r="B947" s="4" t="s">
+      <c r="B947" t="s">
         <v>1920</v>
       </c>
       <c r="C947" s="3" t="s">
@@ -48656,7 +48757,7 @@
       <c r="A948">
         <v>946</v>
       </c>
-      <c r="B948" s="4" t="s">
+      <c r="B948" t="s">
         <v>1922</v>
       </c>
       <c r="C948" s="3" t="s">
@@ -48700,7 +48801,7 @@
       <c r="A949">
         <v>947</v>
       </c>
-      <c r="B949" s="4" t="s">
+      <c r="B949" t="s">
         <v>1924</v>
       </c>
       <c r="C949" s="3" t="s">
@@ -48744,7 +48845,7 @@
       <c r="A950">
         <v>948</v>
       </c>
-      <c r="B950" s="4" t="s">
+      <c r="B950" t="s">
         <v>1926</v>
       </c>
       <c r="C950" s="3" t="s">
@@ -48788,7 +48889,7 @@
       <c r="A951">
         <v>949</v>
       </c>
-      <c r="B951" s="4" t="s">
+      <c r="B951" t="s">
         <v>1928</v>
       </c>
       <c r="C951" s="3" t="s">
@@ -48832,7 +48933,7 @@
       <c r="A952">
         <v>950</v>
       </c>
-      <c r="B952" s="4" t="s">
+      <c r="B952" t="s">
         <v>1930</v>
       </c>
       <c r="C952" s="3" t="s">
@@ -48876,7 +48977,7 @@
       <c r="A953">
         <v>951</v>
       </c>
-      <c r="B953" s="4" t="s">
+      <c r="B953" t="s">
         <v>1932</v>
       </c>
       <c r="C953" s="3" t="s">
@@ -48920,7 +49021,7 @@
       <c r="A954">
         <v>952</v>
       </c>
-      <c r="B954" s="4" t="s">
+      <c r="B954" t="s">
         <v>1934</v>
       </c>
       <c r="C954" s="3" t="s">
@@ -48964,7 +49065,7 @@
       <c r="A955">
         <v>953</v>
       </c>
-      <c r="B955" s="4" t="s">
+      <c r="B955" t="s">
         <v>1936</v>
       </c>
       <c r="C955" s="3" t="s">
@@ -49008,7 +49109,7 @@
       <c r="A956">
         <v>954</v>
       </c>
-      <c r="B956" s="4" t="s">
+      <c r="B956" t="s">
         <v>1938</v>
       </c>
       <c r="C956" s="3" t="s">
@@ -49052,7 +49153,7 @@
       <c r="A957">
         <v>955</v>
       </c>
-      <c r="B957" s="4" t="s">
+      <c r="B957" t="s">
         <v>1940</v>
       </c>
       <c r="C957" s="3" t="s">
@@ -49096,7 +49197,7 @@
       <c r="A958">
         <v>956</v>
       </c>
-      <c r="B958" s="4" t="s">
+      <c r="B958" t="s">
         <v>1942</v>
       </c>
       <c r="C958" s="3" t="s">
@@ -49140,7 +49241,7 @@
       <c r="A959">
         <v>957</v>
       </c>
-      <c r="B959" s="4" t="s">
+      <c r="B959" t="s">
         <v>1944</v>
       </c>
       <c r="C959" s="3" t="s">
@@ -49184,7 +49285,7 @@
       <c r="A960">
         <v>958</v>
       </c>
-      <c r="B960" s="4" t="s">
+      <c r="B960" t="s">
         <v>1946</v>
       </c>
       <c r="C960" s="3" t="s">
@@ -49228,7 +49329,7 @@
       <c r="A961">
         <v>959</v>
       </c>
-      <c r="B961" s="4" t="s">
+      <c r="B961" t="s">
         <v>1948</v>
       </c>
       <c r="C961" s="3" t="s">
@@ -49272,7 +49373,7 @@
       <c r="A962">
         <v>960</v>
       </c>
-      <c r="B962" s="4" t="s">
+      <c r="B962" t="s">
         <v>1950</v>
       </c>
       <c r="C962" s="3" t="s">
@@ -49316,7 +49417,7 @@
       <c r="A963">
         <v>961</v>
       </c>
-      <c r="B963" s="4" t="s">
+      <c r="B963" t="s">
         <v>1952</v>
       </c>
       <c r="C963" s="3" t="s">
@@ -49360,7 +49461,7 @@
       <c r="A964">
         <v>962</v>
       </c>
-      <c r="B964" s="4" t="s">
+      <c r="B964" t="s">
         <v>1954</v>
       </c>
       <c r="C964" s="3" t="s">
@@ -49404,7 +49505,7 @@
       <c r="A965">
         <v>963</v>
       </c>
-      <c r="B965" s="4" t="s">
+      <c r="B965" t="s">
         <v>1956</v>
       </c>
       <c r="C965" s="3" t="s">
@@ -49448,7 +49549,7 @@
       <c r="A966">
         <v>964</v>
       </c>
-      <c r="B966" s="4" t="s">
+      <c r="B966" t="s">
         <v>1958</v>
       </c>
       <c r="C966" s="3" t="s">
@@ -49492,7 +49593,7 @@
       <c r="A967">
         <v>965</v>
       </c>
-      <c r="B967" s="4" t="s">
+      <c r="B967" t="s">
         <v>1960</v>
       </c>
       <c r="C967" s="3" t="s">
@@ -49536,7 +49637,7 @@
       <c r="A968">
         <v>966</v>
       </c>
-      <c r="B968" s="4" t="s">
+      <c r="B968" t="s">
         <v>878</v>
       </c>
       <c r="C968" s="3" t="s">
@@ -49580,7 +49681,7 @@
       <c r="A969">
         <v>967</v>
       </c>
-      <c r="B969" s="4" t="s">
+      <c r="B969" t="s">
         <v>1963</v>
       </c>
       <c r="C969" s="3" t="s">
@@ -49624,7 +49725,7 @@
       <c r="A970">
         <v>968</v>
       </c>
-      <c r="B970" s="4" t="s">
+      <c r="B970" t="s">
         <v>1965</v>
       </c>
       <c r="C970" s="3" t="s">
@@ -49668,7 +49769,7 @@
       <c r="A971">
         <v>969</v>
       </c>
-      <c r="B971" s="4" t="s">
+      <c r="B971" t="s">
         <v>1967</v>
       </c>
       <c r="C971" s="3" t="s">
@@ -49712,7 +49813,7 @@
       <c r="A972">
         <v>970</v>
       </c>
-      <c r="B972" s="4" t="s">
+      <c r="B972" t="s">
         <v>1969</v>
       </c>
       <c r="C972" s="3" t="s">
@@ -49756,7 +49857,7 @@
       <c r="A973">
         <v>971</v>
       </c>
-      <c r="B973" s="4" t="s">
+      <c r="B973" t="s">
         <v>1971</v>
       </c>
       <c r="C973" s="3" t="s">
@@ -49800,7 +49901,7 @@
       <c r="A974">
         <v>972</v>
       </c>
-      <c r="B974" s="4" t="s">
+      <c r="B974" t="s">
         <v>1973</v>
       </c>
       <c r="C974" s="3" t="s">
@@ -49844,7 +49945,7 @@
       <c r="A975">
         <v>973</v>
       </c>
-      <c r="B975" s="4" t="s">
+      <c r="B975" t="s">
         <v>1975</v>
       </c>
       <c r="C975" s="3" t="s">
@@ -49888,7 +49989,7 @@
       <c r="A976">
         <v>974</v>
       </c>
-      <c r="B976" s="4" t="s">
+      <c r="B976" t="s">
         <v>1977</v>
       </c>
       <c r="C976" s="3" t="s">
@@ -49932,7 +50033,7 @@
       <c r="A977">
         <v>975</v>
       </c>
-      <c r="B977" s="4" t="s">
+      <c r="B977" t="s">
         <v>1979</v>
       </c>
       <c r="C977" s="3" t="s">
@@ -49976,7 +50077,7 @@
       <c r="A978">
         <v>976</v>
       </c>
-      <c r="B978" s="4" t="s">
+      <c r="B978" t="s">
         <v>1981</v>
       </c>
       <c r="C978" s="3" t="s">
@@ -50020,7 +50121,7 @@
       <c r="A979">
         <v>977</v>
       </c>
-      <c r="B979" s="4" t="s">
+      <c r="B979" t="s">
         <v>1258</v>
       </c>
       <c r="C979" s="3" t="s">
@@ -50064,7 +50165,7 @@
       <c r="A980">
         <v>978</v>
       </c>
-      <c r="B980" s="4" t="s">
+      <c r="B980" t="s">
         <v>1984</v>
       </c>
       <c r="C980" s="3" t="s">
@@ -50108,7 +50209,7 @@
       <c r="A981">
         <v>979</v>
       </c>
-      <c r="B981" s="4" t="s">
+      <c r="B981" t="s">
         <v>1986</v>
       </c>
       <c r="C981" s="3" t="s">
@@ -50152,7 +50253,7 @@
       <c r="A982">
         <v>980</v>
       </c>
-      <c r="B982" s="4" t="s">
+      <c r="B982" t="s">
         <v>1988</v>
       </c>
       <c r="C982" s="3" t="s">
@@ -50196,7 +50297,7 @@
       <c r="A983">
         <v>981</v>
       </c>
-      <c r="B983" s="4" t="s">
+      <c r="B983" t="s">
         <v>1990</v>
       </c>
       <c r="C983" s="3" t="s">
@@ -50240,7 +50341,7 @@
       <c r="A984">
         <v>982</v>
       </c>
-      <c r="B984" s="4" t="s">
+      <c r="B984" t="s">
         <v>1992</v>
       </c>
       <c r="C984" s="3" t="s">
@@ -50284,7 +50385,7 @@
       <c r="A985">
         <v>983</v>
       </c>
-      <c r="B985" s="4" t="s">
+      <c r="B985" t="s">
         <v>1994</v>
       </c>
       <c r="C985" s="3" t="s">
@@ -50328,7 +50429,7 @@
       <c r="A986">
         <v>984</v>
       </c>
-      <c r="B986" s="4" t="s">
+      <c r="B986" t="s">
         <v>1996</v>
       </c>
       <c r="C986" s="3" t="s">
@@ -50372,7 +50473,7 @@
       <c r="A987">
         <v>985</v>
       </c>
-      <c r="B987" s="4" t="s">
+      <c r="B987" t="s">
         <v>1998</v>
       </c>
       <c r="C987" s="3" t="s">
@@ -50416,7 +50517,7 @@
       <c r="A988">
         <v>986</v>
       </c>
-      <c r="B988" s="4" t="s">
+      <c r="B988" t="s">
         <v>2000</v>
       </c>
       <c r="C988" s="3" t="s">
@@ -50460,7 +50561,7 @@
       <c r="A989">
         <v>987</v>
       </c>
-      <c r="B989" s="4" t="s">
+      <c r="B989" t="s">
         <v>2002</v>
       </c>
       <c r="C989" s="3" t="s">
@@ -50504,7 +50605,7 @@
       <c r="A990">
         <v>988</v>
       </c>
-      <c r="B990" s="4" t="s">
+      <c r="B990" t="s">
         <v>2004</v>
       </c>
       <c r="C990" s="3" t="s">
@@ -50548,7 +50649,7 @@
       <c r="A991">
         <v>989</v>
       </c>
-      <c r="B991" s="4" t="s">
+      <c r="B991" t="s">
         <v>2006</v>
       </c>
       <c r="C991" s="3" t="s">
@@ -50592,7 +50693,7 @@
       <c r="A992">
         <v>990</v>
       </c>
-      <c r="B992" s="4" t="s">
+      <c r="B992" t="s">
         <v>2008</v>
       </c>
       <c r="C992" s="3" t="s">
@@ -50636,7 +50737,7 @@
       <c r="A993">
         <v>991</v>
       </c>
-      <c r="B993" s="4" t="s">
+      <c r="B993" t="s">
         <v>1080</v>
       </c>
       <c r="C993" s="3" t="s">
@@ -50680,7 +50781,7 @@
       <c r="A994">
         <v>992</v>
       </c>
-      <c r="B994" s="4" t="s">
+      <c r="B994" t="s">
         <v>2011</v>
       </c>
       <c r="C994" s="3" t="s">
@@ -50724,7 +50825,7 @@
       <c r="A995">
         <v>993</v>
       </c>
-      <c r="B995" s="4" t="s">
+      <c r="B995" t="s">
         <v>2013</v>
       </c>
       <c r="C995" s="3" t="s">
@@ -50768,7 +50869,7 @@
       <c r="A996">
         <v>994</v>
       </c>
-      <c r="B996" s="4" t="s">
+      <c r="B996" t="s">
         <v>2015</v>
       </c>
       <c r="C996" s="3" t="s">
@@ -50812,7 +50913,7 @@
       <c r="A997">
         <v>995</v>
       </c>
-      <c r="B997" s="4" t="s">
+      <c r="B997" t="s">
         <v>2017</v>
       </c>
       <c r="C997" s="3" t="s">
@@ -50856,7 +50957,7 @@
       <c r="A998">
         <v>996</v>
       </c>
-      <c r="B998" s="4" t="s">
+      <c r="B998" t="s">
         <v>2019</v>
       </c>
       <c r="C998" s="3" t="s">
@@ -50900,7 +51001,7 @@
       <c r="A999">
         <v>997</v>
       </c>
-      <c r="B999" s="4" t="s">
+      <c r="B999" t="s">
         <v>2021</v>
       </c>
       <c r="C999" s="3" t="s">
@@ -50944,7 +51045,7 @@
       <c r="A1000">
         <v>998</v>
       </c>
-      <c r="B1000" s="4" t="s">
+      <c r="B1000" t="s">
         <v>2023</v>
       </c>
       <c r="C1000" s="3" t="s">
@@ -50988,7 +51089,7 @@
       <c r="A1001">
         <v>999</v>
       </c>
-      <c r="B1001" s="4" t="s">
+      <c r="B1001" t="s">
         <v>2025</v>
       </c>
       <c r="C1001" s="3" t="s">
@@ -51029,6 +51130,20 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="successful">
+      <formula>NOT(ISERROR(SEARCH("successful",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="canceled">
+      <formula>NOT(ISERROR(SEARCH("canceled",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="live">
+      <formula>NOT(ISERROR(SEARCH("live",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/crowdfunding.xlsx
+++ b/crowdfunding.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremytallant/Desktop/My_Repositories/excel-challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA88D554-B7A3-AA4D-B98C-9E8A24975D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB74ED70-12E1-8C48-B238-6C60B7A24C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26875,7 +26875,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2255D7A2-10BD-604E-BB85-48BED9FFBD2D}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2255D7A2-10BD-604E-BB85-48BED9FFBD2D}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:F14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -26990,6 +26990,104 @@
   <dataFields count="1">
     <dataField name="Count of outcome" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -27302,7 +27400,7 @@
   <dimension ref="A1:R1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -87410,7 +87508,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -87420,6 +87518,11 @@
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">

--- a/crowdfunding.xlsx
+++ b/crowdfunding.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremytallant/Desktop/My_Repositories/excel-challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE72537F-B48C-AF40-8CC4-E88D3B5A9A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FF81BF-4D56-F14B-BBB6-D9443B13C565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="28800" windowHeight="16600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crowdfunding" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -6732,7 +6732,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6749,7 +6749,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7765,6 +7764,1168 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[crowdfunding.xlsx]Sub-Category!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sub-Category'!$B$4:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>canceled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sub-Category'!$A$6:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>animation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>audio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>documentary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>drama</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>electric music</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fiction</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>food trucks</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>indie rock</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>jazz</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>metal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mobile games</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>nonfiction</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>photography books</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>plays</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>radio &amp; podcasts</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>rock</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>science fiction</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>shorts</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>television</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>translations</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>video games</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>wearables</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>web</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>world music</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sub-Category'!$B$6:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCFD-E94C-A8B8-0B0170BE5879}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sub-Category'!$C$4:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sub-Category'!$A$6:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>animation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>audio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>documentary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>drama</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>electric music</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fiction</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>food trucks</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>indie rock</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>jazz</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>metal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mobile games</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>nonfiction</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>photography books</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>plays</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>radio &amp; podcasts</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>rock</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>science fiction</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>shorts</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>television</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>translations</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>video games</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>wearables</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>web</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>world music</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sub-Category'!$C$6:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FCFD-E94C-A8B8-0B0170BE5879}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sub-Category'!$D$4:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>live</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sub-Category'!$A$6:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>animation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>audio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>documentary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>drama</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>electric music</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fiction</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>food trucks</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>indie rock</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>jazz</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>metal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mobile games</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>nonfiction</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>photography books</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>plays</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>radio &amp; podcasts</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>rock</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>science fiction</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>shorts</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>television</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>translations</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>video games</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>wearables</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>web</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>world music</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sub-Category'!$D$6:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FCFD-E94C-A8B8-0B0170BE5879}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sub-Category'!$E$4:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>successful</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sub-Category'!$A$6:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>animation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>audio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>documentary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>drama</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>electric music</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fiction</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>food trucks</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>indie rock</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>jazz</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>metal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mobile games</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>nonfiction</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>photography books</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>plays</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>radio &amp; podcasts</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>rock</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>science fiction</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>shorts</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>television</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>translations</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>video games</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>wearables</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>web</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>world music</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sub-Category'!$E$6:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FCFD-E94C-A8B8-0B0170BE5879}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="439688688"/>
+        <c:axId val="439690688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="439688688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439690688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="439690688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439688688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -7802,7 +8963,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8346,6 +10050,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A146CF-DA2C-FDDC-5732-FB6C18357560}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45267.199105902779" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1000" xr:uid="{EE6F355A-EAB1-9249-BE0E-A1E711F5DCDA}">
   <cacheSource type="worksheet">
@@ -28469,7 +30214,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2255D7A2-10BD-604E-BB85-48BED9FFBD2D}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2255D7A2-10BD-604E-BB85-48BED9FFBD2D}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:F14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -28752,7 +30497,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BBC7E2E6-F062-7E46-B48C-10A382FA6716}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BBC7E2E6-F062-7E46-B48C-10A382FA6716}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A4:F30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -28941,6 +30686,56 @@
   <dataFields count="1">
     <dataField name="Count of outcome" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -89418,19 +91213,19 @@
       <c r="A5" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>11</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>60</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5">
         <v>102</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5">
         <v>178</v>
       </c>
     </row>
@@ -89438,17 +91233,16 @@
       <c r="A6" s="7" t="s">
         <v>2036</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8">
+      <c r="E6">
         <v>22</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6">
         <v>46</v>
       </c>
     </row>
@@ -89456,19 +91250,19 @@
       <c r="A7" s="7" t="s">
         <v>2037</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>23</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7">
         <v>21</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7">
         <v>48</v>
       </c>
     </row>
@@ -89476,13 +91270,10 @@
       <c r="A8" s="7" t="s">
         <v>2038</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8">
         <v>4</v>
       </c>
     </row>
@@ -89490,17 +91281,16 @@
       <c r="A9" s="7" t="s">
         <v>2039</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>66</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>99</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9">
         <v>175</v>
       </c>
     </row>
@@ -89508,19 +91298,19 @@
       <c r="A10" s="7" t="s">
         <v>2040</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10">
         <v>26</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10">
         <v>42</v>
       </c>
     </row>
@@ -89528,19 +91318,19 @@
       <c r="A11" s="7" t="s">
         <v>2041</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>24</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11">
         <v>40</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11">
         <v>67</v>
       </c>
     </row>
@@ -89548,19 +91338,19 @@
       <c r="A12" s="7" t="s">
         <v>2042</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>28</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12">
         <v>64</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12">
         <v>96</v>
       </c>
     </row>
@@ -89568,19 +91358,19 @@
       <c r="A13" s="7" t="s">
         <v>2043</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>23</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>132</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13">
         <v>187</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13">
         <v>344</v>
       </c>
     </row>
@@ -89588,19 +91378,19 @@
       <c r="A14" s="7" t="s">
         <v>2044</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <v>57</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>364</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14">
         <v>14</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14">
         <v>565</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14">
         <v>1000</v>
       </c>
     </row>
@@ -89614,7 +91404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D6225F-9956-CA4F-B951-80F36210E144}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -89673,19 +91465,19 @@
       <c r="A6" s="7" t="s">
         <v>2047</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6">
         <v>21</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6">
         <v>34</v>
       </c>
     </row>
@@ -89693,13 +91485,10 @@
       <c r="A7" s="7" t="s">
         <v>2048</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7">
         <v>4</v>
       </c>
     </row>
@@ -89707,19 +91496,19 @@
       <c r="A8" s="7" t="s">
         <v>2049</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>21</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8">
         <v>34</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8">
         <v>60</v>
       </c>
     </row>
@@ -89727,19 +91516,19 @@
       <c r="A9" s="7" t="s">
         <v>2050</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>12</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>22</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9">
         <v>37</v>
       </c>
     </row>
@@ -89747,15 +91536,13 @@
       <c r="A10" s="7" t="s">
         <v>2051</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8">
+      <c r="E10">
         <v>10</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10">
         <v>18</v>
       </c>
     </row>
@@ -89763,17 +91550,16 @@
       <c r="A11" s="7" t="s">
         <v>2052</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>7</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8">
+      <c r="E11">
         <v>9</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11">
         <v>17</v>
       </c>
     </row>
@@ -89781,17 +91567,16 @@
       <c r="A12" s="7" t="s">
         <v>2053</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>20</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8">
+      <c r="E12">
         <v>22</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12">
         <v>46</v>
       </c>
     </row>
@@ -89799,17 +91584,16 @@
       <c r="A13" s="7" t="s">
         <v>2054</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>19</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8">
+      <c r="E13">
         <v>23</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13">
         <v>45</v>
       </c>
     </row>
@@ -89817,17 +91601,16 @@
       <c r="A14" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8">
+      <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14">
         <v>17</v>
       </c>
     </row>
@@ -89835,15 +91618,13 @@
       <c r="A15" s="7" t="s">
         <v>2056</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8">
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15">
         <v>7</v>
       </c>
     </row>
@@ -89851,17 +91632,16 @@
       <c r="A16" s="7" t="s">
         <v>2057</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>8</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16">
         <v>13</v>
       </c>
     </row>
@@ -89869,19 +91649,19 @@
       <c r="A17" s="7" t="s">
         <v>2058</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>6</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17">
         <v>13</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17">
         <v>21</v>
       </c>
     </row>
@@ -89889,19 +91669,19 @@
       <c r="A18" s="7" t="s">
         <v>2059</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>11</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18">
         <v>26</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18">
         <v>42</v>
       </c>
     </row>
@@ -89909,19 +91689,19 @@
       <c r="A19" s="7" t="s">
         <v>2060</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19">
         <v>23</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19">
         <v>132</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19">
         <v>187</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19">
         <v>344</v>
       </c>
     </row>
@@ -89929,15 +91709,13 @@
       <c r="A20" s="7" t="s">
         <v>2061</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>4</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20">
         <v>8</v>
       </c>
     </row>
@@ -89945,17 +91723,16 @@
       <c r="A21" s="7" t="s">
         <v>2062</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21">
         <v>6</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>30</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8">
+      <c r="E21">
         <v>49</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21">
         <v>85</v>
       </c>
     </row>
@@ -89963,15 +91740,13 @@
       <c r="A22" s="7" t="s">
         <v>2063</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8">
+      <c r="C22">
         <v>9</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8">
+      <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22">
         <v>14</v>
       </c>
     </row>
@@ -89979,19 +91754,19 @@
       <c r="A23" s="7" t="s">
         <v>2064</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23">
         <v>9</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23">
         <v>16</v>
       </c>
     </row>
@@ -89999,17 +91774,16 @@
       <c r="A24" s="7" t="s">
         <v>2065</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8">
+      <c r="E24">
         <v>11</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24">
         <v>17</v>
       </c>
     </row>
@@ -90017,15 +91791,13 @@
       <c r="A25" s="7" t="s">
         <v>2066</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8">
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8">
+      <c r="E25">
         <v>14</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25">
         <v>21</v>
       </c>
     </row>
@@ -90033,19 +91805,19 @@
       <c r="A26" s="7" t="s">
         <v>2067</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26">
         <v>15</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26">
         <v>17</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26">
         <v>35</v>
       </c>
     </row>
@@ -90053,17 +91825,16 @@
       <c r="A27" s="7" t="s">
         <v>2068</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8">
+      <c r="C27">
         <v>16</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27">
         <v>28</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27">
         <v>45</v>
       </c>
     </row>
@@ -90071,19 +91842,19 @@
       <c r="A28" s="7" t="s">
         <v>2069</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>12</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28">
         <v>36</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28">
         <v>51</v>
       </c>
     </row>
@@ -90091,13 +91862,10 @@
       <c r="A29" s="7" t="s">
         <v>2070</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8">
+      <c r="E29">
         <v>3</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29">
         <v>3</v>
       </c>
     </row>
@@ -90105,23 +91873,24 @@
       <c r="A30" s="7" t="s">
         <v>2044</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30">
         <v>57</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30">
         <v>364</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30">
         <v>14</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30">
         <v>565</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>